--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T671"/>
+  <dimension ref="A1:T674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,36 +53080,36 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N659" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O659" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P659" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>625</v>
+        <v>286</v>
       </c>
       <c r="T659" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,36 +53160,36 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N660" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O660" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P660" t="n">
-        <v>16000</v>
+        <v>3833</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="T660" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="N661" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O661" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P661" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="T661" t="n">
         <v>14</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53320,36 +53320,36 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N662" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O662" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P662" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="T662" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N663" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O663" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P663" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="T663" t="n">
         <v>16</v>
@@ -53484,7 +53484,7 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N664" t="n">
         <v>4000</v>
@@ -53497,19 +53497,19 @@
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T664" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="N665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="T665" t="n">
         <v>14</v>
@@ -53640,36 +53640,36 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N666" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O666" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P666" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="T666" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667">
@@ -53720,36 +53720,36 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N667" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O667" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P667" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T667" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="N668" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O668" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P668" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T668" t="n">
         <v>14</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N669" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O669" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="P669" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="T669" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53960,36 +53960,36 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N670" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O670" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P670" t="n">
-        <v>4273</v>
+        <v>2000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="T670" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671">
@@ -54040,35 +54040,275 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M671" t="n">
+        <v>420</v>
+      </c>
+      <c r="N671" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O671" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P671" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q671" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R671" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S671" t="n">
+        <v>250</v>
+      </c>
+      <c r="T671" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>5</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D672" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E672" t="n">
+        <v>7</v>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G672" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M672" t="n">
+        <v>150</v>
+      </c>
+      <c r="N672" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O672" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P672" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q672" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R672" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S672" t="n">
+        <v>281</v>
+      </c>
+      <c r="T672" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>5</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D673" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E673" t="n">
+        <v>7</v>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G673" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I673" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M673" t="n">
+        <v>550</v>
+      </c>
+      <c r="N673" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O673" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P673" t="n">
+        <v>4273</v>
+      </c>
+      <c r="Q673" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R673" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S673" t="n">
+        <v>267</v>
+      </c>
+      <c r="T673" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>5</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D674" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E674" t="n">
+        <v>7</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G674" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M671" t="n">
+      <c r="M674" t="n">
         <v>190</v>
       </c>
-      <c r="N671" t="n">
+      <c r="N674" t="n">
         <v>3000</v>
       </c>
-      <c r="O671" t="n">
+      <c r="O674" t="n">
         <v>3000</v>
       </c>
-      <c r="P671" t="n">
+      <c r="P674" t="n">
         <v>3000</v>
       </c>
-      <c r="Q671" t="inlineStr">
+      <c r="Q674" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R671" t="inlineStr">
+      <c r="R674" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S671" t="n">
+      <c r="S674" t="n">
         <v>188</v>
       </c>
-      <c r="T671" t="n">
+      <c r="T674" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T674"/>
+  <dimension ref="A1:T677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E606" t="n">
         <v>7</v>
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N606" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O606" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P606" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="T606" t="n">
         <v>14</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E607" t="n">
         <v>7</v>
@@ -48920,24 +48920,24 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N607" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O607" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P607" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
@@ -48946,10 +48946,10 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="T607" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E608" t="n">
         <v>7</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N608" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="O608" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P608" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>571</v>
+        <v>179</v>
       </c>
       <c r="T608" t="n">
         <v>14</v>
@@ -49080,36 +49080,36 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M609" t="n">
         <v>300</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P609" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T609" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="610">
@@ -49160,36 +49160,36 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N610" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="T610" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E611" t="n">
         <v>7</v>
@@ -49240,20 +49240,20 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N611" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O611" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P611" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49262,11 +49262,11 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>250</v>
+        <v>571</v>
       </c>
       <c r="T611" t="n">
         <v>14</v>
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E612" t="n">
         <v>7</v>
@@ -49320,36 +49320,36 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N612" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O612" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P612" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T612" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E613" t="n">
         <v>7</v>
@@ -49400,11 +49400,11 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N613" t="n">
         <v>4000</v>
@@ -49417,7 +49417,7 @@
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
@@ -49426,10 +49426,10 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T613" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="614">
@@ -49484,32 +49484,32 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O614" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P614" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T614" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="615">
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N615" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O615" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P615" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49582,11 +49582,11 @@
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T615" t="n">
         <v>14</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E616" t="n">
         <v>7</v>
@@ -49644,29 +49644,29 @@
         </is>
       </c>
       <c r="M616" t="n">
+        <v>300</v>
+      </c>
+      <c r="N616" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O616" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P616" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S616" t="n">
         <v>250</v>
-      </c>
-      <c r="N616" t="n">
-        <v>17000</v>
-      </c>
-      <c r="O616" t="n">
-        <v>17000</v>
-      </c>
-      <c r="P616" t="n">
-        <v>17000</v>
-      </c>
-      <c r="Q616" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R616" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S616" t="n">
-        <v>1062</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E617" t="n">
         <v>7</v>
@@ -49720,24 +49720,24 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>260</v>
+        <v>800</v>
       </c>
       <c r="N617" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O617" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P617" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
@@ -49746,10 +49746,10 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>1125</v>
+        <v>278</v>
       </c>
       <c r="T617" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E618" t="n">
         <v>7</v>
@@ -49800,36 +49800,36 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N618" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O618" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="P618" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1125</v>
+        <v>143</v>
       </c>
       <c r="T618" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="619">
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N619" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O619" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P619" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T619" t="n">
         <v>16</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N620" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O620" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P620" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49982,11 +49982,11 @@
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E621" t="n">
         <v>7</v>
@@ -50040,36 +50040,36 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N621" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="O621" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="P621" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>214</v>
+        <v>1125</v>
       </c>
       <c r="T621" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E622" t="n">
         <v>7</v>
@@ -50120,20 +50120,20 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N622" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O622" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P622" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50142,11 +50142,11 @@
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E623" t="n">
         <v>7</v>
@@ -50200,36 +50200,36 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N623" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="O623" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="P623" t="n">
-        <v>100000</v>
+        <v>16000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>222</v>
+        <v>1000</v>
       </c>
       <c r="T623" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E624" t="n">
         <v>7</v>
@@ -50284,7 +50284,7 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N624" t="n">
         <v>3000</v>
@@ -50302,7 +50302,7 @@
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S624" t="n">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E625" t="n">
         <v>7</v>
@@ -50364,32 +50364,32 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>2160</v>
+        <v>360</v>
       </c>
       <c r="N625" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O625" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P625" t="n">
-        <v>3282</v>
+        <v>4000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="T625" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="626">
@@ -50444,20 +50444,20 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>1510</v>
+        <v>15</v>
       </c>
       <c r="N626" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O626" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="P626" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
@@ -50466,10 +50466,10 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T626" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="627">
@@ -50524,32 +50524,32 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N627" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O627" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P627" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="T627" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="628">
@@ -50604,32 +50604,32 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>150</v>
+        <v>2160</v>
       </c>
       <c r="N628" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O628" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P628" t="n">
-        <v>5000</v>
+        <v>3282</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="T628" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629">
@@ -50680,36 +50680,36 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>410</v>
+        <v>1510</v>
       </c>
       <c r="N629" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O629" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P629" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T629" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
@@ -50760,36 +50760,36 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N630" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O630" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P630" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="T630" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="631">
@@ -50840,36 +50840,36 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N631" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O631" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="P631" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="T631" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E632" t="n">
         <v>7</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N632" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="O632" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P632" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>786</v>
+        <v>143</v>
       </c>
       <c r="T632" t="n">
         <v>14</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E633" t="n">
         <v>7</v>
@@ -51000,36 +51000,36 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N633" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="O633" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="P633" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>875</v>
+        <v>179</v>
       </c>
       <c r="T633" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="634">
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E634" t="n">
         <v>7</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N634" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P634" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51102,11 +51102,11 @@
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>875</v>
+        <v>125</v>
       </c>
       <c r="T634" t="n">
         <v>16</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N635" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O635" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P635" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T635" t="n">
         <v>14</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N636" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O636" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P636" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51266,7 +51266,7 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T636" t="n">
         <v>16</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E637" t="n">
         <v>7</v>
@@ -51320,36 +51320,36 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N637" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O637" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P637" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="T637" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E638" t="n">
         <v>7</v>
@@ -51400,11 +51400,11 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N638" t="n">
         <v>12000</v>
@@ -51422,7 +51422,7 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S638" t="n">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E639" t="n">
         <v>7</v>
@@ -51480,11 +51480,11 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="N639" t="n">
         <v>11000</v>
@@ -51502,7 +51502,7 @@
       </c>
       <c r="R639" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S639" t="n">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E640" t="n">
         <v>7</v>
@@ -51564,20 +51564,20 @@
         </is>
       </c>
       <c r="M640" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N640" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
@@ -51586,10 +51586,10 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>250</v>
+        <v>714</v>
       </c>
       <c r="T640" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E641" t="n">
         <v>7</v>
@@ -51640,24 +51640,24 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M641" t="n">
         <v>200</v>
       </c>
       <c r="N641" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O641" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P641" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
@@ -51666,10 +51666,10 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>188</v>
+        <v>857</v>
       </c>
       <c r="T641" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E642" t="n">
         <v>7</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>310</v>
+        <v>700</v>
       </c>
       <c r="N642" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O642" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P642" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="T642" t="n">
         <v>16</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E643" t="n">
         <v>7</v>
@@ -51800,33 +51800,33 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M643" t="n">
+        <v>360</v>
+      </c>
+      <c r="N643" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O643" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P643" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q643" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S643" t="n">
         <v>250</v>
-      </c>
-      <c r="N643" t="n">
-        <v>16000</v>
-      </c>
-      <c r="O643" t="n">
-        <v>16000</v>
-      </c>
-      <c r="P643" t="n">
-        <v>16000</v>
-      </c>
-      <c r="Q643" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R643" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S643" t="n">
-        <v>1000</v>
       </c>
       <c r="T643" t="n">
         <v>16</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E644" t="n">
         <v>7</v>
@@ -51884,16 +51884,16 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N644" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O644" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P644" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>750</v>
+        <v>188</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="N645" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O645" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P645" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T645" t="n">
         <v>16</v>
@@ -52040,20 +52040,20 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N646" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O646" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P646" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52066,7 +52066,7 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T646" t="n">
         <v>16</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52120,36 +52120,36 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N647" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O647" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P647" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="T647" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52200,24 +52200,24 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N648" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="O648" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P648" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
@@ -52226,10 +52226,10 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>250</v>
+        <v>812</v>
       </c>
       <c r="T648" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52284,32 +52284,32 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N649" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="O649" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P649" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>143</v>
+        <v>625</v>
       </c>
       <c r="T649" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="650">
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N650" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O650" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P650" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T650" t="n">
         <v>14</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E651" t="n">
         <v>7</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M651" t="n">
         <v>300</v>
       </c>
       <c r="N651" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O651" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P651" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>1143</v>
+        <v>250</v>
       </c>
       <c r="T651" t="n">
         <v>14</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52520,36 +52520,36 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O652" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="P652" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1062</v>
+        <v>143</v>
       </c>
       <c r="T652" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52600,36 +52600,36 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N653" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O653" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="P653" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1125</v>
+        <v>143</v>
       </c>
       <c r="T653" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654">
@@ -52680,36 +52680,36 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N654" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O654" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P654" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>938</v>
+        <v>1143</v>
       </c>
       <c r="T654" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N655" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O655" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P655" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52786,7 +52786,7 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T655" t="n">
         <v>16</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E656" t="n">
         <v>7</v>
@@ -52840,36 +52840,36 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N656" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O656" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P656" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>786</v>
+        <v>1125</v>
       </c>
       <c r="T656" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,36 +52920,36 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N657" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P657" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T657" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="658">
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N658" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P658" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N659" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O659" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P659" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>286</v>
+        <v>786</v>
       </c>
       <c r="T659" t="n">
         <v>14</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="N660" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>3833</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>274</v>
+        <v>857</v>
       </c>
       <c r="T660" t="n">
         <v>14</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53240,36 +53240,36 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N661" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O661" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P661" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>214</v>
+        <v>625</v>
       </c>
       <c r="T661" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53320,36 +53320,36 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N662" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O662" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P662" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>625</v>
+        <v>286</v>
       </c>
       <c r="T662" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N663" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O663" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P663" t="n">
-        <v>16000</v>
+        <v>3833</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="T663" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="N664" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O664" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P664" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="T664" t="n">
         <v>14</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53560,36 +53560,36 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N665" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O665" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P665" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="T665" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N666" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O666" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P666" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="T666" t="n">
         <v>16</v>
@@ -53724,7 +53724,7 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N667" t="n">
         <v>4000</v>
@@ -53737,19 +53737,19 @@
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T667" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668">
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="N668" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O668" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P668" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="T668" t="n">
         <v>14</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N669" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O669" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P669" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="T669" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="670">
@@ -53960,36 +53960,36 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N670" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O670" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P670" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T670" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="N671" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O671" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P671" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T671" t="n">
         <v>14</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54120,36 +54120,36 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N672" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O672" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="P672" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="T672" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,36 +54200,36 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N673" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O673" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P673" t="n">
-        <v>4273</v>
+        <v>2000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="T673" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
@@ -54280,35 +54280,275 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M674" t="n">
+        <v>420</v>
+      </c>
+      <c r="N674" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O674" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P674" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q674" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R674" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S674" t="n">
+        <v>250</v>
+      </c>
+      <c r="T674" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>5</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D675" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E675" t="n">
+        <v>7</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G675" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M675" t="n">
+        <v>150</v>
+      </c>
+      <c r="N675" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O675" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P675" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q675" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R675" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S675" t="n">
+        <v>281</v>
+      </c>
+      <c r="T675" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>5</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D676" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E676" t="n">
+        <v>7</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G676" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M676" t="n">
+        <v>550</v>
+      </c>
+      <c r="N676" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O676" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P676" t="n">
+        <v>4273</v>
+      </c>
+      <c r="Q676" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R676" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S676" t="n">
+        <v>267</v>
+      </c>
+      <c r="T676" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>5</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D677" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E677" t="n">
+        <v>7</v>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G677" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I677" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M674" t="n">
+      <c r="M677" t="n">
         <v>190</v>
       </c>
-      <c r="N674" t="n">
+      <c r="N677" t="n">
         <v>3000</v>
       </c>
-      <c r="O674" t="n">
+      <c r="O677" t="n">
         <v>3000</v>
       </c>
-      <c r="P674" t="n">
+      <c r="P677" t="n">
         <v>3000</v>
       </c>
-      <c r="Q674" t="inlineStr">
+      <c r="Q677" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R674" t="inlineStr">
+      <c r="R677" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S674" t="n">
+      <c r="S677" t="n">
         <v>188</v>
       </c>
-      <c r="T674" t="n">
+      <c r="T677" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T695"/>
+  <dimension ref="A1:T700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E644" t="n">
         <v>7</v>
@@ -51884,32 +51884,32 @@
         </is>
       </c>
       <c r="M644" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N644" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O644" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P644" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="T644" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E645" t="n">
         <v>7</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="N645" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O645" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P645" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="T645" t="n">
         <v>14</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E646" t="n">
         <v>7</v>
@@ -52040,11 +52040,11 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N646" t="n">
         <v>5000</v>
@@ -52057,7 +52057,7 @@
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
@@ -52066,10 +52066,10 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="T646" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52120,36 +52120,36 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N647" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O647" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P647" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T647" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N648" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O648" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P648" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>1214</v>
+        <v>214</v>
       </c>
       <c r="T648" t="n">
         <v>14</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52280,36 +52280,36 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N649" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O649" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P649" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1286</v>
+        <v>438</v>
       </c>
       <c r="T649" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E650" t="n">
         <v>7</v>
@@ -52360,36 +52360,36 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="N650" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="O650" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P650" t="n">
-        <v>19583</v>
+        <v>5000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1224</v>
+        <v>357</v>
       </c>
       <c r="T650" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E651" t="n">
         <v>7</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="N651" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="O651" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P651" t="n">
-        <v>19286</v>
+        <v>5000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>1205</v>
+        <v>312</v>
       </c>
       <c r="T651" t="n">
         <v>16</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52524,32 +52524,32 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N652" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O652" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P652" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>857</v>
+        <v>188</v>
       </c>
       <c r="T652" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N653" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O653" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P653" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>571</v>
+        <v>1214</v>
       </c>
       <c r="T653" t="n">
         <v>14</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52684,32 +52684,32 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N654" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O654" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P654" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>562</v>
+        <v>1286</v>
       </c>
       <c r="T654" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52760,24 +52760,24 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N655" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O655" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P655" t="n">
-        <v>5000</v>
+        <v>19583</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
@@ -52786,10 +52786,10 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>357</v>
+        <v>1224</v>
       </c>
       <c r="T655" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E656" t="n">
         <v>7</v>
@@ -52840,36 +52840,36 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="N656" t="n">
-        <v>3500</v>
+        <v>19000</v>
       </c>
       <c r="O656" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="P656" t="n">
-        <v>3500</v>
+        <v>19286</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>250</v>
+        <v>1205</v>
       </c>
       <c r="T656" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N657" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O657" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P657" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T657" t="n">
         <v>14</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N658" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O658" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P658" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>179</v>
+        <v>571</v>
       </c>
       <c r="T658" t="n">
         <v>14</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,36 +53080,36 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N659" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O659" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P659" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T659" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,7 +53160,7 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
@@ -53177,19 +53177,19 @@
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="T660" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53244,7 +53244,7 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N661" t="n">
         <v>3500</v>
@@ -53257,7 +53257,7 @@
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
@@ -53266,10 +53266,10 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="T661" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53324,32 +53324,32 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N662" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O662" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P662" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T662" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,11 +53400,11 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N663" t="n">
         <v>2500</v>
@@ -53422,7 +53422,7 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S663" t="n">
@@ -53480,36 +53480,36 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N664" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O664" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P664" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="T664" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53564,32 +53564,32 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N665" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O665" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P665" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1214</v>
+        <v>312</v>
       </c>
       <c r="T665" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N666" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O666" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P666" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1062</v>
+        <v>219</v>
       </c>
       <c r="T666" t="n">
         <v>16</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N667" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O667" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P667" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1000</v>
+        <v>312</v>
       </c>
       <c r="T667" t="n">
         <v>16</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N668" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O668" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="P668" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>786</v>
+        <v>179</v>
       </c>
       <c r="T668" t="n">
         <v>14</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N669" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="O669" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="P669" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>714</v>
+        <v>125</v>
       </c>
       <c r="T669" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N670" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O670" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P670" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>786</v>
+        <v>1214</v>
       </c>
       <c r="T670" t="n">
         <v>14</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N671" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O671" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P671" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T671" t="n">
         <v>16</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54204,20 +54204,20 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N673" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O673" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P673" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54226,10 +54226,10 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T673" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,36 +54280,36 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N674" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O674" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P674" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>188</v>
+        <v>714</v>
       </c>
       <c r="T674" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44292</v>
+        <v>44176</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N675" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O675" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P675" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1143</v>
+        <v>786</v>
       </c>
       <c r="T675" t="n">
         <v>14</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44292</v>
+        <v>44176</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54440,36 +54440,36 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N676" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O676" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P676" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1143</v>
+        <v>750</v>
       </c>
       <c r="T676" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,36 +54520,36 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N677" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O677" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P677" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T677" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,36 +54600,36 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="N678" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O678" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P678" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T678" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54680,24 +54680,24 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N679" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O679" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P679" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
@@ -54706,10 +54706,10 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>464</v>
+        <v>188</v>
       </c>
       <c r="T679" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N680" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O680" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P680" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>357</v>
+        <v>1143</v>
       </c>
       <c r="T680" t="n">
         <v>14</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N681" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O681" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P681" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>357</v>
+        <v>1143</v>
       </c>
       <c r="T681" t="n">
         <v>14</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N682" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O682" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P682" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>214</v>
+        <v>857</v>
       </c>
       <c r="T682" t="n">
         <v>14</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N683" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O683" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>214</v>
+        <v>857</v>
       </c>
       <c r="T683" t="n">
         <v>14</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55084,20 +55084,20 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N684" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O684" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P684" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
@@ -55106,10 +55106,10 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1062</v>
+        <v>464</v>
       </c>
       <c r="T684" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N685" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O685" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P685" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1214</v>
+        <v>357</v>
       </c>
       <c r="T685" t="n">
         <v>14</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55240,36 +55240,36 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="N686" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O686" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P686" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1125</v>
+        <v>357</v>
       </c>
       <c r="T686" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55324,20 +55324,20 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="N687" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O687" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P687" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
@@ -55346,10 +55346,10 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>875</v>
+        <v>214</v>
       </c>
       <c r="T687" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M688" t="n">
         <v>300</v>
       </c>
       <c r="N688" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O688" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P688" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T688" t="n">
         <v>14</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55484,32 +55484,32 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N689" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O689" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P689" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T689" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="N690" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O690" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="P690" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>143</v>
+        <v>1214</v>
       </c>
       <c r="T690" t="n">
         <v>14</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N691" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O691" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P691" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T691" t="n">
         <v>16</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,11 +55720,11 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N692" t="n">
         <v>14000</v>
@@ -55737,19 +55737,19 @@
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T692" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N693" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O693" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P693" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T693" t="n">
         <v>14</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,36 +55880,36 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N694" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O694" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P694" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>714</v>
+        <v>278</v>
       </c>
       <c r="T694" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="695">
@@ -55927,68 +55927,468 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E695" t="n">
+        <v>7</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G695" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I695" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M695" t="n">
+        <v>190</v>
+      </c>
+      <c r="N695" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O695" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P695" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q695" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R695" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S695" t="n">
+        <v>143</v>
+      </c>
+      <c r="T695" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>5</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D696" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E695" t="n">
-        <v>7</v>
-      </c>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G695" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I695" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J695" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L695" t="inlineStr">
+      <c r="E696" t="n">
+        <v>7</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G696" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M696" t="n">
+        <v>350</v>
+      </c>
+      <c r="N696" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O696" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P696" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q696" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R696" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S696" t="n">
+        <v>875</v>
+      </c>
+      <c r="T696" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>5</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D697" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E697" t="n">
+        <v>7</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G697" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M697" t="n">
+        <v>140</v>
+      </c>
+      <c r="N697" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O697" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P697" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q697" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R697" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S697" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T697" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>5</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D698" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E698" t="n">
+        <v>7</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G698" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I698" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M698" t="n">
+        <v>200</v>
+      </c>
+      <c r="N698" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O698" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P698" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q698" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R698" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S698" t="n">
+        <v>857</v>
+      </c>
+      <c r="T698" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>5</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D699" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E699" t="n">
+        <v>7</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G699" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I699" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M695" t="n">
+      <c r="M699" t="n">
+        <v>100</v>
+      </c>
+      <c r="N699" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O699" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P699" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q699" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R699" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S699" t="n">
+        <v>714</v>
+      </c>
+      <c r="T699" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>5</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D700" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E700" t="n">
+        <v>7</v>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G700" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I700" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M700" t="n">
         <v>150</v>
       </c>
-      <c r="N695" t="n">
+      <c r="N700" t="n">
         <v>11000</v>
       </c>
-      <c r="O695" t="n">
+      <c r="O700" t="n">
         <v>11000</v>
       </c>
-      <c r="P695" t="n">
+      <c r="P700" t="n">
         <v>11000</v>
       </c>
-      <c r="Q695" t="inlineStr">
+      <c r="Q700" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R695" t="inlineStr">
+      <c r="R700" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S695" t="n">
+      <c r="S700" t="n">
         <v>688</v>
       </c>
-      <c r="T695" t="n">
+      <c r="T700" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T703"/>
+  <dimension ref="A1:T707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E543" t="n">
         <v>7</v>
@@ -43804,32 +43804,32 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N543" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O543" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P543" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1062</v>
+        <v>357</v>
       </c>
       <c r="T543" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E544" t="n">
         <v>7</v>
@@ -43880,36 +43880,36 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N544" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O544" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P544" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1250</v>
+        <v>357</v>
       </c>
       <c r="T544" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E545" t="n">
         <v>7</v>
@@ -43960,36 +43960,36 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>210</v>
+        <v>940</v>
       </c>
       <c r="N545" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O545" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P545" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1375</v>
+        <v>357</v>
       </c>
       <c r="T545" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E546" t="n">
         <v>7</v>
@@ -44040,36 +44040,36 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M546" t="n">
         <v>300</v>
       </c>
       <c r="N546" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O546" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P546" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>938</v>
+        <v>250</v>
       </c>
       <c r="T546" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E547" t="n">
         <v>7</v>
@@ -44120,36 +44120,36 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N547" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O547" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P547" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T547" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="548">
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E548" t="n">
         <v>7</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N548" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O548" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P548" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E549" t="n">
         <v>7</v>
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N549" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O549" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P549" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44302,11 +44302,11 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1062</v>
+        <v>1375</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E550" t="n">
         <v>7</v>
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N550" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O550" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P550" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E551" t="n">
         <v>7</v>
@@ -44440,36 +44440,36 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N551" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O551" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P551" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1125</v>
+        <v>786</v>
       </c>
       <c r="T551" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E552" t="n">
         <v>7</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N552" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O552" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P552" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44542,11 +44542,11 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N553" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O553" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P553" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E554" t="n">
         <v>7</v>
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="N554" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O554" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P554" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E555" t="n">
         <v>7</v>
@@ -44760,20 +44760,20 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N555" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O555" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P555" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44782,11 +44782,11 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T555" t="n">
         <v>16</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E556" t="n">
         <v>7</v>
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N556" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O556" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P556" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E557" t="n">
         <v>7</v>
@@ -44920,20 +44920,20 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N557" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O557" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P557" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E558" t="n">
         <v>7</v>
@@ -45004,16 +45004,16 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N558" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O558" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P558" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45022,11 +45022,11 @@
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E559" t="n">
         <v>7</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N559" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O559" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P559" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45102,11 +45102,11 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E560" t="n">
         <v>7</v>
@@ -45164,32 +45164,32 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N560" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O560" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P560" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>714</v>
+        <v>1062</v>
       </c>
       <c r="T560" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="561">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E561" t="n">
         <v>7</v>
@@ -45247,29 +45247,29 @@
         <v>300</v>
       </c>
       <c r="N561" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O561" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P561" t="n">
-        <v>10333</v>
+        <v>18000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>574</v>
+        <v>1125</v>
       </c>
       <c r="T561" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E562" t="n">
         <v>7</v>
@@ -45320,36 +45320,36 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N562" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O562" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P562" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>429</v>
+        <v>1125</v>
       </c>
       <c r="T562" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E563" t="n">
         <v>7</v>
@@ -45400,36 +45400,36 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N563" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O563" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>286</v>
+        <v>625</v>
       </c>
       <c r="T563" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E564" t="n">
         <v>7</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N564" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O564" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P564" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>286</v>
+        <v>714</v>
       </c>
       <c r="T564" t="n">
         <v>14</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E565" t="n">
         <v>7</v>
@@ -45560,36 +45560,36 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N565" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O565" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P565" t="n">
-        <v>4000</v>
+        <v>10333</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>286</v>
+        <v>574</v>
       </c>
       <c r="T565" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="566">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E566" t="n">
         <v>7</v>
@@ -45640,11 +45640,11 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N566" t="n">
         <v>6000</v>
@@ -45657,19 +45657,19 @@
       </c>
       <c r="Q566" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="T566" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="567">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E567" t="n">
         <v>7</v>
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N567" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O567" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P567" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T567" t="n">
         <v>14</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E568" t="n">
         <v>7</v>
@@ -45804,7 +45804,7 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N568" t="n">
         <v>4000</v>
@@ -45817,19 +45817,19 @@
       </c>
       <c r="Q568" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T568" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="569">
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E569" t="n">
         <v>7</v>
@@ -45884,32 +45884,32 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N569" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O569" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P569" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="T569" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E570" t="n">
         <v>7</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N570" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O570" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P570" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E571" t="n">
         <v>7</v>
@@ -46044,32 +46044,32 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="N571" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O571" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P571" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T571" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E572" t="n">
         <v>7</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N572" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O572" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P572" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E573" t="n">
         <v>7</v>
@@ -46200,36 +46200,36 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N573" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O573" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P573" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1062</v>
+        <v>278</v>
       </c>
       <c r="T573" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E574" t="n">
         <v>7</v>
@@ -46280,36 +46280,36 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N574" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="O574" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="P574" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1111</v>
+        <v>125</v>
       </c>
       <c r="T574" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="575">
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="N575" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O575" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P575" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E576" t="n">
         <v>7</v>
@@ -46440,36 +46440,36 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N576" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O576" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P576" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>286</v>
+        <v>1062</v>
       </c>
       <c r="T576" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="577">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E577" t="n">
         <v>7</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="N577" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O577" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P577" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>375</v>
+        <v>1062</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E578" t="n">
         <v>7</v>
@@ -46600,36 +46600,36 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N578" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O578" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P578" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>875</v>
+        <v>1111</v>
       </c>
       <c r="T578" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E579" t="n">
         <v>7</v>
@@ -46680,36 +46680,36 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N579" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O579" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P579" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T579" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E580" t="n">
         <v>7</v>
@@ -46760,36 +46760,36 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>750</v>
+        <v>286</v>
       </c>
       <c r="T580" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E581" t="n">
         <v>7</v>
@@ -46840,20 +46840,20 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="N581" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O581" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P581" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E582" t="n">
         <v>7</v>
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N582" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O582" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P582" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E583" t="n">
         <v>7</v>
@@ -47000,36 +47000,36 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N583" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T583" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E584" t="n">
         <v>7</v>
@@ -47084,7 +47084,7 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N584" t="n">
         <v>12000</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E585" t="n">
         <v>7</v>
@@ -47160,20 +47160,20 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N585" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47240,20 +47240,20 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="N586" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P586" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E587" t="n">
         <v>7</v>
@@ -47320,36 +47320,36 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N587" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O587" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P587" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T587" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="588">
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E588" t="n">
         <v>7</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N588" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O588" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P588" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>312</v>
+        <v>750</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E589" t="n">
         <v>7</v>
@@ -47480,20 +47480,20 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N589" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O589" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P589" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>312</v>
+        <v>812</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E590" t="n">
         <v>7</v>
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N590" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O590" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P590" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>188</v>
+        <v>625</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E591" t="n">
         <v>7</v>
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N591" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O591" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P591" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47662,11 +47662,11 @@
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T591" t="n">
         <v>14</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E592" t="n">
         <v>7</v>
@@ -47724,7 +47724,7 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N592" t="n">
         <v>5000</v>
@@ -47737,19 +47737,19 @@
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="T592" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E593" t="n">
         <v>7</v>
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N593" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O593" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P593" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E594" t="n">
         <v>7</v>
@@ -47880,20 +47880,20 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N594" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O594" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P594" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47960,36 +47960,36 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N595" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O595" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P595" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T595" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="596">
@@ -48040,20 +48040,20 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N596" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O596" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P596" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48062,11 +48062,11 @@
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T596" t="n">
         <v>14</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N597" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O597" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P597" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48142,11 +48142,11 @@
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E598" t="n">
         <v>7</v>
@@ -48204,16 +48204,16 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N598" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O598" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P598" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1062</v>
+        <v>375</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E599" t="n">
         <v>7</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N599" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O599" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P599" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E600" t="n">
         <v>7</v>
@@ -48360,36 +48360,36 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N600" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O600" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P600" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T600" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E601" t="n">
         <v>7</v>
@@ -48440,20 +48440,20 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N601" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O601" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P601" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48462,11 +48462,11 @@
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>1062</v>
+        <v>188</v>
       </c>
       <c r="T601" t="n">
         <v>16</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E602" t="n">
         <v>7</v>
@@ -48527,29 +48527,29 @@
         <v>300</v>
       </c>
       <c r="N602" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O602" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P602" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1143</v>
+        <v>1062</v>
       </c>
       <c r="T602" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E603" t="n">
         <v>7</v>
@@ -48604,7 +48604,7 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N603" t="n">
         <v>16000</v>
@@ -48617,19 +48617,19 @@
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T603" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E604" t="n">
         <v>7</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N604" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O604" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P604" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E605" t="n">
         <v>7</v>
@@ -48760,36 +48760,36 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N605" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O605" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P605" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>929</v>
+        <v>1062</v>
       </c>
       <c r="T605" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="606">
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N606" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O606" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P606" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="T606" t="n">
         <v>14</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E607" t="n">
         <v>7</v>
@@ -48924,32 +48924,32 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N607" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O607" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P607" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>1062</v>
+        <v>1143</v>
       </c>
       <c r="T607" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E608" t="n">
         <v>7</v>
@@ -49000,20 +49000,20 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N608" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O608" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P608" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E609" t="n">
         <v>7</v>
@@ -49080,36 +49080,36 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N609" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O609" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P609" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1125</v>
+        <v>929</v>
       </c>
       <c r="T609" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="610">
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E610" t="n">
         <v>7</v>
@@ -49160,36 +49160,36 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N610" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O610" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P610" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T610" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E611" t="n">
         <v>7</v>
@@ -49247,29 +49247,29 @@
         <v>200</v>
       </c>
       <c r="N611" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O611" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P611" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T611" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E612" t="n">
         <v>7</v>
@@ -49320,36 +49320,36 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N612" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="O612" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="P612" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T612" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E613" t="n">
         <v>7</v>
@@ -49400,20 +49400,20 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M613" t="n">
         <v>300</v>
       </c>
       <c r="N613" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O613" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P613" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49422,11 +49422,11 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T613" t="n">
         <v>16</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E614" t="n">
         <v>7</v>
@@ -49480,36 +49480,36 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N614" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O614" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P614" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T614" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="615">
@@ -49560,20 +49560,20 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N615" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O615" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P615" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T615" t="n">
         <v>14</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E616" t="n">
         <v>7</v>
@@ -49644,16 +49644,16 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="N616" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O616" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P616" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T616" t="n">
         <v>14</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E617" t="n">
         <v>7</v>
@@ -49724,7 +49724,7 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N617" t="n">
         <v>4000</v>
@@ -49737,19 +49737,19 @@
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T617" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E618" t="n">
         <v>7</v>
@@ -49800,36 +49800,36 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="N618" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O618" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P618" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="T618" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E619" t="n">
         <v>7</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N619" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O619" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P619" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="T619" t="n">
         <v>14</v>
@@ -49960,20 +49960,20 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>160</v>
+        <v>530</v>
       </c>
       <c r="N620" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O620" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P620" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49986,7 +49986,7 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="T620" t="n">
         <v>14</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E621" t="n">
         <v>7</v>
@@ -50044,32 +50044,32 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="N621" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O621" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P621" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>1000</v>
+        <v>286</v>
       </c>
       <c r="T621" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E622" t="n">
         <v>7</v>
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N622" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O622" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P622" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50142,11 +50142,11 @@
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>929</v>
+        <v>286</v>
       </c>
       <c r="T622" t="n">
         <v>14</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E623" t="n">
         <v>7</v>
@@ -50204,16 +50204,16 @@
         </is>
       </c>
       <c r="M623" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N623" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O623" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P623" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50222,11 +50222,11 @@
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>786</v>
+        <v>214</v>
       </c>
       <c r="T623" t="n">
         <v>14</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E624" t="n">
         <v>7</v>
@@ -50280,24 +50280,24 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="N624" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O624" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="P624" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
@@ -50306,10 +50306,10 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>1125</v>
+        <v>143</v>
       </c>
       <c r="T624" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E625" t="n">
         <v>7</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N625" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O625" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P625" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T625" t="n">
         <v>16</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E626" t="n">
         <v>7</v>
@@ -50440,36 +50440,36 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N626" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O626" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P626" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="T626" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="627">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E627" t="n">
         <v>7</v>
@@ -50520,36 +50520,36 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N627" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O627" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P627" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T627" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="628">
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E628" t="n">
         <v>7</v>
@@ -50600,24 +50600,24 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="N628" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O628" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P628" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
@@ -50626,10 +50626,10 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>429</v>
+        <v>1125</v>
       </c>
       <c r="T628" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E629" t="n">
         <v>7</v>
@@ -50680,36 +50680,36 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="N629" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O629" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P629" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>357</v>
+        <v>1125</v>
       </c>
       <c r="T629" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E630" t="n">
         <v>7</v>
@@ -50760,36 +50760,36 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="N630" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O630" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P630" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>357</v>
+        <v>938</v>
       </c>
       <c r="T630" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E631" t="n">
         <v>7</v>
@@ -50844,32 +50844,32 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N631" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O631" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P631" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>286</v>
+        <v>938</v>
       </c>
       <c r="T631" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E632" t="n">
         <v>7</v>
@@ -50927,13 +50927,13 @@
         <v>400</v>
       </c>
       <c r="N632" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O632" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P632" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50942,11 +50942,11 @@
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="T632" t="n">
         <v>14</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E633" t="n">
         <v>7</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O633" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P633" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51022,11 +51022,11 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>571</v>
+        <v>357</v>
       </c>
       <c r="T633" t="n">
         <v>14</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E634" t="n">
         <v>7</v>
@@ -51080,24 +51080,24 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="N634" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O634" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P634" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
@@ -51106,10 +51106,10 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>562</v>
+        <v>357</v>
       </c>
       <c r="T634" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E635" t="n">
         <v>7</v>
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N635" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O635" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P635" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51182,11 +51182,11 @@
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="T635" t="n">
         <v>14</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E636" t="n">
         <v>7</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N636" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O636" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P636" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>357</v>
+        <v>500</v>
       </c>
       <c r="T636" t="n">
         <v>14</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E637" t="n">
         <v>7</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="N637" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O637" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P637" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>321</v>
+        <v>571</v>
       </c>
       <c r="T637" t="n">
         <v>14</v>
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E638" t="n">
         <v>7</v>
@@ -51400,24 +51400,24 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N638" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="O638" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="P638" t="n">
-        <v>2679</v>
+        <v>9000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
@@ -51426,10 +51426,10 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>191</v>
+        <v>562</v>
       </c>
       <c r="T638" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="639">
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E639" t="n">
         <v>7</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N639" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O639" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P639" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>929</v>
+        <v>429</v>
       </c>
       <c r="T639" t="n">
         <v>14</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E640" t="n">
         <v>7</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M640" t="n">
         <v>250</v>
       </c>
       <c r="N640" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O640" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P640" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51582,11 +51582,11 @@
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>857</v>
+        <v>357</v>
       </c>
       <c r="T640" t="n">
         <v>14</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E641" t="n">
         <v>7</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="N641" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O641" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="P641" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>1214</v>
+        <v>321</v>
       </c>
       <c r="T641" t="n">
         <v>14</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E642" t="n">
         <v>7</v>
@@ -51720,36 +51720,36 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N642" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O642" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P642" t="n">
-        <v>18000</v>
+        <v>2679</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>1125</v>
+        <v>191</v>
       </c>
       <c r="T642" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E643" t="n">
         <v>7</v>
@@ -51800,11 +51800,11 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N643" t="n">
         <v>13000</v>
@@ -51817,7 +51817,7 @@
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
@@ -51826,10 +51826,10 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>812</v>
+        <v>929</v>
       </c>
       <c r="T643" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E644" t="n">
         <v>7</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N644" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P644" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T644" t="n">
         <v>14</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E645" t="n">
         <v>7</v>
@@ -51964,16 +51964,16 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="N645" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O645" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P645" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>857</v>
+        <v>1214</v>
       </c>
       <c r="T645" t="n">
         <v>14</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E646" t="n">
         <v>7</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N646" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O646" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P646" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52062,11 +52062,11 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>688</v>
+        <v>1125</v>
       </c>
       <c r="T646" t="n">
         <v>16</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52120,24 +52120,24 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N647" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O647" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P647" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
@@ -52146,10 +52146,10 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>321</v>
+        <v>812</v>
       </c>
       <c r="T647" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N648" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O648" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P648" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>321</v>
+        <v>714</v>
       </c>
       <c r="T648" t="n">
         <v>14</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52280,24 +52280,24 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N649" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O649" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P649" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
@@ -52306,10 +52306,10 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>278</v>
+        <v>857</v>
       </c>
       <c r="T649" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E650" t="n">
         <v>7</v>
@@ -52360,36 +52360,36 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N650" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O650" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P650" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>250</v>
+        <v>688</v>
       </c>
       <c r="T650" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="651">
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N651" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O651" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P651" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="T651" t="n">
         <v>14</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52524,32 +52524,32 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N652" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O652" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P652" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="T652" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52600,11 +52600,11 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N653" t="n">
         <v>5000</v>
@@ -52617,19 +52617,19 @@
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="T653" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52687,29 +52687,29 @@
         <v>250</v>
       </c>
       <c r="N654" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O654" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P654" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T654" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52764,7 +52764,7 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N655" t="n">
         <v>3000</v>
@@ -52777,19 +52777,19 @@
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="T655" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E656" t="n">
         <v>7</v>
@@ -52844,32 +52844,32 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N656" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O656" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P656" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1214</v>
+        <v>438</v>
       </c>
       <c r="T656" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="N657" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O657" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P657" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1286</v>
+        <v>357</v>
       </c>
       <c r="T657" t="n">
         <v>14</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N658" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="O658" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P658" t="n">
-        <v>19583</v>
+        <v>5000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1224</v>
+        <v>312</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="N659" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="O659" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="P659" t="n">
-        <v>19286</v>
+        <v>3000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1205</v>
+        <v>188</v>
       </c>
       <c r="T659" t="n">
         <v>16</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O660" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P660" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>857</v>
+        <v>1214</v>
       </c>
       <c r="T660" t="n">
         <v>14</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53244,16 +53244,16 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="N661" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O661" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P661" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>571</v>
+        <v>1286</v>
       </c>
       <c r="T661" t="n">
         <v>14</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N662" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O662" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P662" t="n">
-        <v>9000</v>
+        <v>19583</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>562</v>
+        <v>1224</v>
       </c>
       <c r="T662" t="n">
         <v>16</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="N663" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O663" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P663" t="n">
-        <v>5000</v>
+        <v>19286</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>357</v>
+        <v>1205</v>
       </c>
       <c r="T663" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="N664" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O664" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P664" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T664" t="n">
         <v>14</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53560,20 +53560,20 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N665" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O665" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>250</v>
+        <v>571</v>
       </c>
       <c r="T665" t="n">
         <v>14</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,36 +53640,36 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N666" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="O666" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="P666" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>179</v>
+        <v>562</v>
       </c>
       <c r="T666" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667">
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N667" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O667" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P667" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T667" t="n">
         <v>14</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53804,32 +53804,32 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N668" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O668" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P668" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T668" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53884,7 +53884,7 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N669" t="n">
         <v>3500</v>
@@ -53897,19 +53897,19 @@
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="T669" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53960,36 +53960,36 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N670" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O670" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P670" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="T670" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671">
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N671" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O671" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P671" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="T671" t="n">
         <v>14</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N672" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O672" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="P672" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="T672" t="n">
         <v>16</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54204,32 +54204,32 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N673" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O673" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P673" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1214</v>
+        <v>219</v>
       </c>
       <c r="T673" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N674" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O674" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P674" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1062</v>
+        <v>312</v>
       </c>
       <c r="T674" t="n">
         <v>16</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54360,36 +54360,36 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N675" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="O675" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="P675" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1000</v>
+        <v>179</v>
       </c>
       <c r="T675" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54440,24 +54440,24 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N676" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="O676" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P676" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
@@ -54466,10 +54466,10 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>786</v>
+        <v>125</v>
       </c>
       <c r="T676" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N677" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O677" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P677" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>714</v>
+        <v>1214</v>
       </c>
       <c r="T677" t="n">
         <v>14</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54604,32 +54604,32 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N678" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O678" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P678" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T678" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N679" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O679" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P679" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T679" t="n">
         <v>16</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,36 +54760,36 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N680" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O680" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P680" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1000</v>
+        <v>786</v>
       </c>
       <c r="T680" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54844,32 +54844,32 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N681" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O681" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P681" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>250</v>
+        <v>714</v>
       </c>
       <c r="T681" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54920,24 +54920,24 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N682" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O682" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P682" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
@@ -54946,10 +54946,10 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>188</v>
+        <v>786</v>
       </c>
       <c r="T682" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44292</v>
+        <v>44176</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,36 +55000,36 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N683" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O683" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1143</v>
+        <v>750</v>
       </c>
       <c r="T683" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,11 +55080,11 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N684" t="n">
         <v>16000</v>
@@ -55097,19 +55097,19 @@
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T684" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,24 +55160,24 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N685" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O685" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P685" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
@@ -55186,10 +55186,10 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T685" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55244,32 +55244,32 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N686" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O686" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P686" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>857</v>
+        <v>188</v>
       </c>
       <c r="T686" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N687" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="O687" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P687" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>464</v>
+        <v>1143</v>
       </c>
       <c r="T687" t="n">
         <v>14</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N688" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O688" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P688" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>357</v>
+        <v>1143</v>
       </c>
       <c r="T688" t="n">
         <v>14</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="N689" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O689" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P689" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T689" t="n">
         <v>14</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="N690" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O690" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P690" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>214</v>
+        <v>857</v>
       </c>
       <c r="T690" t="n">
         <v>14</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N691" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O691" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P691" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>214</v>
+        <v>464</v>
       </c>
       <c r="T691" t="n">
         <v>14</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,24 +55720,24 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N692" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O692" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P692" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
@@ -55746,10 +55746,10 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>1062</v>
+        <v>357</v>
       </c>
       <c r="T692" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="N693" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O693" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P693" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1214</v>
+        <v>357</v>
       </c>
       <c r="T693" t="n">
         <v>14</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,24 +55880,24 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N694" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O694" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P694" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
@@ -55906,10 +55906,10 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>1125</v>
+        <v>214</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55964,32 +55964,32 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N695" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O695" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P695" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>875</v>
+        <v>214</v>
       </c>
       <c r="T695" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56044,32 +56044,32 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N696" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O696" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P696" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T696" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56120,36 +56120,36 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="N697" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O697" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P697" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>278</v>
+        <v>1214</v>
       </c>
       <c r="T697" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56200,36 +56200,36 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N698" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O698" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P698" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>143</v>
+        <v>1125</v>
       </c>
       <c r="T698" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56280,11 +56280,11 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N699" t="n">
         <v>14000</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="N700" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O700" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P700" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56382,11 +56382,11 @@
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T700" t="n">
         <v>14</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,36 +56440,36 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="N701" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O701" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P701" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T701" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56524,16 +56524,16 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N702" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="O702" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="P702" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56542,11 +56542,11 @@
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>714</v>
+        <v>143</v>
       </c>
       <c r="T702" t="n">
         <v>14</v>
@@ -56600,35 +56600,355 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M703" t="n">
+        <v>350</v>
+      </c>
+      <c r="N703" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O703" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P703" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q703" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R703" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S703" t="n">
+        <v>875</v>
+      </c>
+      <c r="T703" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>5</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D704" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E704" t="n">
+        <v>7</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G704" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M704" t="n">
+        <v>140</v>
+      </c>
+      <c r="N704" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O704" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P704" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q704" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R704" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S704" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T704" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>5</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D705" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E705" t="n">
+        <v>7</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G705" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M705" t="n">
+        <v>200</v>
+      </c>
+      <c r="N705" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O705" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P705" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q705" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S705" t="n">
+        <v>857</v>
+      </c>
+      <c r="T705" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>5</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D706" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E706" t="n">
+        <v>7</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G706" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M703" t="n">
+      <c r="M706" t="n">
+        <v>100</v>
+      </c>
+      <c r="N706" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O706" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P706" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q706" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R706" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S706" t="n">
+        <v>714</v>
+      </c>
+      <c r="T706" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>5</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D707" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E707" t="n">
+        <v>7</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G707" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M707" t="n">
         <v>150</v>
       </c>
-      <c r="N703" t="n">
+      <c r="N707" t="n">
         <v>11000</v>
       </c>
-      <c r="O703" t="n">
+      <c r="O707" t="n">
         <v>11000</v>
       </c>
-      <c r="P703" t="n">
+      <c r="P707" t="n">
         <v>11000</v>
       </c>
-      <c r="Q703" t="inlineStr">
+      <c r="Q707" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R703" t="inlineStr">
+      <c r="R707" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S703" t="n">
+      <c r="S707" t="n">
         <v>688</v>
       </c>
-      <c r="T703" t="n">
+      <c r="T707" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T713"/>
+  <dimension ref="A1:T718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E531" t="n">
         <v>7</v>
@@ -42844,32 +42844,32 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N531" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O531" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P531" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>875</v>
+        <v>357</v>
       </c>
       <c r="T531" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E532" t="n">
         <v>7</v>
@@ -42924,32 +42924,32 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="N532" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O532" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P532" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>938</v>
+        <v>286</v>
       </c>
       <c r="T532" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E533" t="n">
         <v>7</v>
@@ -43000,36 +43000,36 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N533" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O533" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P533" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>688</v>
+        <v>286</v>
       </c>
       <c r="T533" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E534" t="n">
         <v>7</v>
@@ -43084,32 +43084,32 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N534" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P534" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>857</v>
+        <v>333</v>
       </c>
       <c r="T534" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44187</v>
+        <v>44468</v>
       </c>
       <c r="E535" t="n">
         <v>7</v>
@@ -43160,20 +43160,20 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N535" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O535" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P535" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>857</v>
+        <v>214</v>
       </c>
       <c r="T535" t="n">
         <v>14</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E536" t="n">
         <v>7</v>
@@ -43240,36 +43240,36 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N536" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O536" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P536" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="T536" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E537" t="n">
         <v>7</v>
@@ -43320,20 +43320,20 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>880</v>
+        <v>360</v>
       </c>
       <c r="N537" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O537" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P537" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E538" t="n">
         <v>7</v>
@@ -43400,11 +43400,11 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N538" t="n">
         <v>11000</v>
@@ -43417,19 +43417,19 @@
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>786</v>
+        <v>688</v>
       </c>
       <c r="T538" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E539" t="n">
         <v>7</v>
@@ -43484,20 +43484,20 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N539" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>219</v>
+        <v>857</v>
       </c>
       <c r="T539" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E540" t="n">
         <v>7</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N540" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O540" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>3833</v>
+        <v>12000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>274</v>
+        <v>857</v>
       </c>
       <c r="T540" t="n">
         <v>14</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E541" t="n">
         <v>7</v>
@@ -43640,24 +43640,24 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N541" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O541" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
@@ -43666,10 +43666,10 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>250</v>
+        <v>929</v>
       </c>
       <c r="T541" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="542">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E542" t="n">
         <v>7</v>
@@ -43720,36 +43720,36 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>190</v>
+        <v>880</v>
       </c>
       <c r="N542" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="O542" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="P542" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>214</v>
+        <v>812</v>
       </c>
       <c r="T542" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E543" t="n">
         <v>7</v>
@@ -43800,36 +43800,36 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M543" t="n">
         <v>200</v>
       </c>
       <c r="N543" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O543" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P543" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>188</v>
+        <v>786</v>
       </c>
       <c r="T543" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44308</v>
+        <v>44390</v>
       </c>
       <c r="E544" t="n">
         <v>7</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N544" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O544" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P544" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>875</v>
+        <v>219</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E545" t="n">
         <v>7</v>
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N545" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="O545" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P545" t="n">
-        <v>11000</v>
+        <v>3833</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>786</v>
+        <v>274</v>
       </c>
       <c r="T545" t="n">
         <v>14</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E546" t="n">
         <v>7</v>
@@ -44040,20 +44040,20 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P546" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E547" t="n">
         <v>7</v>
@@ -44120,36 +44120,36 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N547" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O547" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P547" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1062</v>
+        <v>214</v>
       </c>
       <c r="T547" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548">
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E548" t="n">
         <v>7</v>
@@ -44200,20 +44200,20 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N548" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O548" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P548" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1125</v>
+        <v>188</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E549" t="n">
         <v>7</v>
@@ -44280,36 +44280,36 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N549" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O549" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P549" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>357</v>
+        <v>875</v>
       </c>
       <c r="T549" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E550" t="n">
         <v>7</v>
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N550" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O550" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P550" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>357</v>
+        <v>786</v>
       </c>
       <c r="T550" t="n">
         <v>14</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E551" t="n">
         <v>7</v>
@@ -44440,36 +44440,36 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>940</v>
+        <v>150</v>
       </c>
       <c r="N551" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O551" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="T551" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E552" t="n">
         <v>7</v>
@@ -44520,36 +44520,36 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N552" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O552" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P552" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T552" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E553" t="n">
         <v>7</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N553" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O553" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P553" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E554" t="n">
         <v>7</v>
@@ -44680,36 +44680,36 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N554" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O554" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P554" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1250</v>
+        <v>357</v>
       </c>
       <c r="T554" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E555" t="n">
         <v>7</v>
@@ -44760,24 +44760,24 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N555" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O555" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P555" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
@@ -44786,10 +44786,10 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>1375</v>
+        <v>357</v>
       </c>
       <c r="T555" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="556">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E556" t="n">
         <v>7</v>
@@ -44840,36 +44840,36 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>300</v>
+        <v>940</v>
       </c>
       <c r="N556" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O556" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P556" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>938</v>
+        <v>357</v>
       </c>
       <c r="T556" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="557">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E557" t="n">
         <v>7</v>
@@ -44927,13 +44927,13 @@
         <v>300</v>
       </c>
       <c r="N557" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="O557" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P557" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>786</v>
+        <v>250</v>
       </c>
       <c r="T557" t="n">
         <v>14</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E558" t="n">
         <v>7</v>
@@ -45000,20 +45000,20 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N558" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P558" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E559" t="n">
         <v>7</v>
@@ -45080,20 +45080,20 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N559" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O559" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P559" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1062</v>
+        <v>1250</v>
       </c>
       <c r="T559" t="n">
         <v>16</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E560" t="n">
         <v>7</v>
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N560" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O560" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P560" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1125</v>
+        <v>1375</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E561" t="n">
         <v>7</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N561" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O561" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P561" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E562" t="n">
         <v>7</v>
@@ -45320,36 +45320,36 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N562" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O562" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P562" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1125</v>
+        <v>786</v>
       </c>
       <c r="T562" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E563" t="n">
         <v>7</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N563" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O563" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P563" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E564" t="n">
         <v>7</v>
@@ -45480,20 +45480,20 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N564" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O564" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P564" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45502,11 +45502,11 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E565" t="n">
         <v>7</v>
@@ -45560,20 +45560,20 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="N565" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O565" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P565" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E566" t="n">
         <v>7</v>
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N566" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O566" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P566" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E567" t="n">
         <v>7</v>
@@ -45724,7 +45724,7 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N567" t="n">
         <v>18000</v>
@@ -45742,7 +45742,7 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S567" t="n">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E568" t="n">
         <v>7</v>
@@ -45800,20 +45800,20 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="N568" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O568" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P568" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E569" t="n">
         <v>7</v>
@@ -45887,13 +45887,13 @@
         <v>500</v>
       </c>
       <c r="N569" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O569" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P569" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E570" t="n">
         <v>7</v>
@@ -45960,36 +45960,36 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N570" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O570" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P570" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>714</v>
+        <v>1062</v>
       </c>
       <c r="T570" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="571">
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E571" t="n">
         <v>7</v>
@@ -46044,20 +46044,20 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N571" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O571" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P571" t="n">
-        <v>10333</v>
+        <v>17000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
@@ -46066,10 +46066,10 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>574</v>
+        <v>1062</v>
       </c>
       <c r="T571" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E572" t="n">
         <v>7</v>
@@ -46120,24 +46120,24 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N572" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O572" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P572" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
@@ -46146,10 +46146,10 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>429</v>
+        <v>1125</v>
       </c>
       <c r="T572" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="573">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44369</v>
+        <v>44252</v>
       </c>
       <c r="E573" t="n">
         <v>7</v>
@@ -46200,36 +46200,36 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N573" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O573" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P573" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>286</v>
+        <v>1125</v>
       </c>
       <c r="T573" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E574" t="n">
         <v>7</v>
@@ -46280,36 +46280,36 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M574" t="n">
         <v>500</v>
       </c>
       <c r="N574" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O574" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P574" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>286</v>
+        <v>625</v>
       </c>
       <c r="T574" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="575">
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E575" t="n">
         <v>7</v>
@@ -46360,20 +46360,20 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N575" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O575" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46382,11 +46382,11 @@
       </c>
       <c r="R575" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S575" t="n">
-        <v>286</v>
+        <v>714</v>
       </c>
       <c r="T575" t="n">
         <v>14</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E576" t="n">
         <v>7</v>
@@ -46440,24 +46440,24 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N576" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O576" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P576" t="n">
-        <v>6000</v>
+        <v>10333</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
@@ -46466,10 +46466,10 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>375</v>
+        <v>574</v>
       </c>
       <c r="T576" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="577">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E577" t="n">
         <v>7</v>
@@ -46520,20 +46520,20 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N577" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O577" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P577" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="T577" t="n">
         <v>14</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E578" t="n">
         <v>7</v>
@@ -46604,7 +46604,7 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N578" t="n">
         <v>4000</v>
@@ -46617,7 +46617,7 @@
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
@@ -46626,10 +46626,10 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T578" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E579" t="n">
         <v>7</v>
@@ -46684,32 +46684,32 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N579" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O579" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P579" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="T579" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E580" t="n">
         <v>7</v>
@@ -46760,36 +46760,36 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="N580" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O580" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P580" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="T580" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E581" t="n">
         <v>7</v>
@@ -46847,13 +46847,13 @@
         <v>210</v>
       </c>
       <c r="N581" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O581" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P581" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1062</v>
+        <v>375</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E582" t="n">
         <v>7</v>
@@ -46920,36 +46920,36 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N582" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O582" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P582" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T582" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E583" t="n">
         <v>7</v>
@@ -47000,20 +47000,20 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N583" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O583" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P583" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E584" t="n">
         <v>7</v>
@@ -47080,20 +47080,20 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N584" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O584" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P584" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1111</v>
+        <v>278</v>
       </c>
       <c r="T584" t="n">
         <v>18</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E585" t="n">
         <v>7</v>
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N585" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O585" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="P585" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>938</v>
+        <v>125</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E586" t="n">
         <v>7</v>
@@ -47244,32 +47244,32 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="N586" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O586" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P586" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>286</v>
+        <v>1062</v>
       </c>
       <c r="T586" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E587" t="n">
         <v>7</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="N587" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O587" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P587" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>375</v>
+        <v>1062</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E588" t="n">
         <v>7</v>
@@ -47400,20 +47400,20 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N588" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O588" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P588" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E589" t="n">
         <v>7</v>
@@ -47480,36 +47480,36 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N589" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O589" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P589" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>857</v>
+        <v>1111</v>
       </c>
       <c r="T589" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E590" t="n">
         <v>7</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="N590" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O590" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P590" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E591" t="n">
         <v>7</v>
@@ -47640,36 +47640,36 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N591" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O591" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P591" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>625</v>
+        <v>286</v>
       </c>
       <c r="T591" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E592" t="n">
         <v>7</v>
@@ -47724,16 +47724,16 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>310</v>
+        <v>560</v>
       </c>
       <c r="N592" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O592" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P592" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47742,11 +47742,11 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>938</v>
+        <v>375</v>
       </c>
       <c r="T592" t="n">
         <v>16</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E593" t="n">
         <v>7</v>
@@ -47800,20 +47800,20 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N593" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O593" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P593" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E594" t="n">
         <v>7</v>
@@ -47884,7 +47884,7 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N594" t="n">
         <v>12000</v>
@@ -47897,19 +47897,19 @@
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>750</v>
+        <v>857</v>
       </c>
       <c r="T594" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E595" t="n">
         <v>7</v>
@@ -47964,16 +47964,16 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N595" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O595" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P595" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47982,11 +47982,11 @@
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E596" t="n">
         <v>7</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E597" t="n">
         <v>7</v>
@@ -48124,20 +48124,20 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N597" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O597" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P597" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
@@ -48146,10 +48146,10 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="T597" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="598">
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E598" t="n">
         <v>7</v>
@@ -48200,20 +48200,20 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N598" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O598" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P598" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>312</v>
+        <v>1000</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E599" t="n">
         <v>7</v>
@@ -48280,20 +48280,20 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N599" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48302,11 +48302,11 @@
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S599" t="n">
-        <v>312</v>
+        <v>750</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E600" t="n">
         <v>7</v>
@@ -48360,20 +48360,20 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M600" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N600" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="O600" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="P600" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48382,11 +48382,11 @@
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>188</v>
+        <v>812</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E601" t="n">
         <v>7</v>
@@ -48440,36 +48440,36 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N601" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S601" t="n">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="T601" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E602" t="n">
         <v>7</v>
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N602" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O602" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P602" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T602" t="n">
         <v>14</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E603" t="n">
         <v>7</v>
@@ -48604,16 +48604,16 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N603" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O603" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P603" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E604" t="n">
         <v>7</v>
@@ -48684,16 +48684,16 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N604" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O604" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P604" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E605" t="n">
         <v>7</v>
@@ -48760,20 +48760,20 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N605" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O605" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P605" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="T605" t="n">
         <v>16</v>
@@ -48840,20 +48840,20 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N606" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O606" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P606" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T606" t="n">
         <v>14</v>
@@ -48920,36 +48920,36 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="N607" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O607" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P607" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>188</v>
+        <v>357</v>
       </c>
       <c r="T607" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E608" t="n">
         <v>7</v>
@@ -49007,13 +49007,13 @@
         <v>300</v>
       </c>
       <c r="N608" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O608" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P608" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>1062</v>
+        <v>375</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E609" t="n">
         <v>7</v>
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="N609" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O609" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P609" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E610" t="n">
         <v>7</v>
@@ -49160,20 +49160,20 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N610" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O610" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P610" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E611" t="n">
         <v>7</v>
@@ -49240,24 +49240,24 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N611" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O611" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P611" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
@@ -49266,10 +49266,10 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T611" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E612" t="n">
         <v>7</v>
@@ -49320,24 +49320,24 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N612" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O612" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="P612" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
@@ -49346,10 +49346,10 @@
         </is>
       </c>
       <c r="S612" t="n">
-        <v>1143</v>
+        <v>188</v>
       </c>
       <c r="T612" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E613" t="n">
         <v>7</v>
@@ -49404,32 +49404,32 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N613" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O613" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P613" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>1143</v>
+        <v>1062</v>
       </c>
       <c r="T613" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="614">
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E614" t="n">
         <v>7</v>
@@ -49484,7 +49484,7 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N614" t="n">
         <v>16000</v>
@@ -49502,7 +49502,7 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S614" t="n">
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E615" t="n">
         <v>7</v>
@@ -49560,36 +49560,36 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N615" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O615" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P615" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>929</v>
+        <v>1062</v>
       </c>
       <c r="T615" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E616" t="n">
         <v>7</v>
@@ -49640,36 +49640,36 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N616" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O616" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P616" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T616" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="617">
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E617" t="n">
         <v>7</v>
@@ -49724,20 +49724,20 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N617" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O617" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P617" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R617" t="inlineStr">
@@ -49746,10 +49746,10 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>1062</v>
+        <v>1143</v>
       </c>
       <c r="T617" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618">
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E618" t="n">
         <v>7</v>
@@ -49800,36 +49800,36 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N618" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O618" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P618" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T618" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E619" t="n">
         <v>7</v>
@@ -49880,20 +49880,20 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N619" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O619" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P619" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
@@ -49902,11 +49902,11 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T619" t="n">
         <v>16</v>
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E620" t="n">
         <v>7</v>
@@ -49960,24 +49960,24 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N620" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O620" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P620" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
@@ -49986,10 +49986,10 @@
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1062</v>
+        <v>929</v>
       </c>
       <c r="T620" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E621" t="n">
         <v>7</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N621" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O621" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P621" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T621" t="n">
         <v>14</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E622" t="n">
         <v>7</v>
@@ -50124,32 +50124,32 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N622" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O622" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P622" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T622" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E623" t="n">
         <v>7</v>
@@ -50200,20 +50200,20 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N623" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O623" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P623" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E624" t="n">
         <v>7</v>
@@ -50280,36 +50280,36 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N624" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O624" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P624" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>278</v>
+        <v>1125</v>
       </c>
       <c r="T624" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E625" t="n">
         <v>7</v>
@@ -50360,36 +50360,36 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N625" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O625" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="P625" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>143</v>
+        <v>1062</v>
       </c>
       <c r="T625" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="626">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E626" t="n">
         <v>7</v>
@@ -50444,16 +50444,16 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="N626" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O626" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P626" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50462,11 +50462,11 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T626" t="n">
         <v>14</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E627" t="n">
         <v>7</v>
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="N627" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O627" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P627" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T627" t="n">
         <v>14</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E628" t="n">
         <v>7</v>
@@ -50600,11 +50600,11 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N628" t="n">
         <v>4000</v>
@@ -50617,19 +50617,19 @@
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T628" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E629" t="n">
         <v>7</v>
@@ -50680,36 +50680,36 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="N629" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O629" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P629" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="T629" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E630" t="n">
         <v>7</v>
@@ -50764,7 +50764,7 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N630" t="n">
         <v>2000</v>
@@ -50782,7 +50782,7 @@
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S630" t="n">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E631" t="n">
         <v>7</v>
@@ -50844,32 +50844,32 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="N631" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O631" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P631" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1000</v>
+        <v>286</v>
       </c>
       <c r="T631" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E632" t="n">
         <v>7</v>
@@ -50920,20 +50920,20 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="N632" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O632" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P632" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>929</v>
+        <v>286</v>
       </c>
       <c r="T632" t="n">
         <v>14</v>
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E633" t="n">
         <v>7</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N633" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O633" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P633" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51022,11 +51022,11 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>786</v>
+        <v>286</v>
       </c>
       <c r="T633" t="n">
         <v>14</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E634" t="n">
         <v>7</v>
@@ -51080,24 +51080,24 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="N634" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O634" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P634" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
@@ -51106,10 +51106,10 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1125</v>
+        <v>214</v>
       </c>
       <c r="T634" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E635" t="n">
         <v>7</v>
@@ -51160,36 +51160,36 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="N635" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O635" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="P635" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1125</v>
+        <v>143</v>
       </c>
       <c r="T635" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E636" t="n">
         <v>7</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="N636" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O636" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P636" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T636" t="n">
         <v>16</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E637" t="n">
         <v>7</v>
@@ -51320,36 +51320,36 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N637" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O637" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P637" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="T637" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E638" t="n">
         <v>7</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N638" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O638" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P638" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51422,11 +51422,11 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>429</v>
+        <v>786</v>
       </c>
       <c r="T638" t="n">
         <v>14</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E639" t="n">
         <v>7</v>
@@ -51480,24 +51480,24 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="N639" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O639" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P639" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R639" t="inlineStr">
@@ -51506,10 +51506,10 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>357</v>
+        <v>1125</v>
       </c>
       <c r="T639" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="640">
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E640" t="n">
         <v>7</v>
@@ -51560,36 +51560,36 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="N640" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O640" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P640" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>357</v>
+        <v>1125</v>
       </c>
       <c r="T640" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E641" t="n">
         <v>7</v>
@@ -51644,20 +51644,20 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N641" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O641" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P641" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
@@ -51666,10 +51666,10 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>286</v>
+        <v>938</v>
       </c>
       <c r="T641" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E642" t="n">
         <v>7</v>
@@ -51720,36 +51720,36 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="N642" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O642" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P642" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T642" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E643" t="n">
         <v>7</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N643" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O643" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P643" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="T643" t="n">
         <v>14</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E644" t="n">
         <v>7</v>
@@ -51880,36 +51880,36 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N644" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O644" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P644" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>562</v>
+        <v>357</v>
       </c>
       <c r="T644" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E645" t="n">
         <v>7</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N645" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O645" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P645" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51982,11 +51982,11 @@
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="T645" t="n">
         <v>14</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E646" t="n">
         <v>7</v>
@@ -52044,16 +52044,16 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N646" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O646" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P646" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
@@ -52062,11 +52062,11 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="T646" t="n">
         <v>14</v>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N647" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O647" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P647" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="T647" t="n">
         <v>14</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N648" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O648" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P648" t="n">
-        <v>2679</v>
+        <v>8000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>191</v>
+        <v>571</v>
       </c>
       <c r="T648" t="n">
         <v>14</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44306</v>
+        <v>44160</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52284,32 +52284,32 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N649" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O649" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P649" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>929</v>
+        <v>562</v>
       </c>
       <c r="T649" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E650" t="n">
         <v>7</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N650" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O650" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P650" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>857</v>
+        <v>429</v>
       </c>
       <c r="T650" t="n">
         <v>14</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44215</v>
+        <v>44351</v>
       </c>
       <c r="E651" t="n">
         <v>7</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="N651" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O651" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P651" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>1214</v>
+        <v>357</v>
       </c>
       <c r="T651" t="n">
         <v>14</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52520,36 +52520,36 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N652" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O652" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="P652" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1125</v>
+        <v>321</v>
       </c>
       <c r="T652" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52604,32 +52604,32 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N653" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="O653" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P653" t="n">
-        <v>13000</v>
+        <v>2679</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>812</v>
+        <v>191</v>
       </c>
       <c r="T653" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52680,20 +52680,20 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N654" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O654" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P654" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
@@ -52702,11 +52702,11 @@
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>714</v>
+        <v>929</v>
       </c>
       <c r="T654" t="n">
         <v>14</v>
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52760,11 +52760,11 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N655" t="n">
         <v>12000</v>
@@ -52782,7 +52782,7 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E656" t="n">
         <v>7</v>
@@ -52844,32 +52844,32 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="N656" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O656" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P656" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>688</v>
+        <v>1214</v>
       </c>
       <c r="T656" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,24 +52920,24 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N657" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="O657" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="P657" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>321</v>
+        <v>1125</v>
       </c>
       <c r="T657" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53000,36 +53000,36 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N658" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O658" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P658" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>321</v>
+        <v>812</v>
       </c>
       <c r="T658" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53084,20 +53084,20 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N659" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O659" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P659" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>278</v>
+        <v>714</v>
       </c>
       <c r="T659" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N660" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T660" t="n">
         <v>14</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53240,36 +53240,36 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N661" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O661" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P661" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>214</v>
+        <v>688</v>
       </c>
       <c r="T661" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53324,32 +53324,32 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N662" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O662" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P662" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="T662" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="N663" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O663" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P663" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="T663" t="n">
         <v>14</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,11 +53480,11 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N664" t="n">
         <v>5000</v>
@@ -53497,7 +53497,7 @@
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
@@ -53506,10 +53506,10 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="T664" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53560,36 +53560,36 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T665" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N666" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O666" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P666" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1214</v>
+        <v>214</v>
       </c>
       <c r="T666" t="n">
         <v>14</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53720,36 +53720,36 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N667" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O667" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P667" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1286</v>
+        <v>438</v>
       </c>
       <c r="T667" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,36 +53800,36 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="N668" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="O668" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P668" t="n">
-        <v>19583</v>
+        <v>5000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>1224</v>
+        <v>357</v>
       </c>
       <c r="T668" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="N669" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="O669" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="P669" t="n">
-        <v>19286</v>
+        <v>5000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1205</v>
+        <v>312</v>
       </c>
       <c r="T669" t="n">
         <v>16</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53964,32 +53964,32 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N670" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O670" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P670" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>857</v>
+        <v>188</v>
       </c>
       <c r="T670" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N671" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O671" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P671" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>571</v>
+        <v>1214</v>
       </c>
       <c r="T671" t="n">
         <v>14</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54124,32 +54124,32 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N672" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O672" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P672" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>562</v>
+        <v>1286</v>
       </c>
       <c r="T672" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,24 +54200,24 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N673" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O673" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P673" t="n">
-        <v>5000</v>
+        <v>19583</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54226,10 +54226,10 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>357</v>
+        <v>1224</v>
       </c>
       <c r="T673" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,36 +54280,36 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="N674" t="n">
-        <v>3500</v>
+        <v>19000</v>
       </c>
       <c r="O674" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="P674" t="n">
-        <v>3500</v>
+        <v>19286</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>250</v>
+        <v>1205</v>
       </c>
       <c r="T674" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N675" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O675" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P675" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T675" t="n">
         <v>14</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N676" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="O676" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P676" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>179</v>
+        <v>571</v>
       </c>
       <c r="T676" t="n">
         <v>14</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,36 +54520,36 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N677" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O677" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P677" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T677" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,7 +54600,7 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M678" t="n">
@@ -54617,19 +54617,19 @@
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="T678" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54684,7 +54684,7 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N679" t="n">
         <v>3500</v>
@@ -54697,7 +54697,7 @@
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
@@ -54706,10 +54706,10 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="T679" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54764,32 +54764,32 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N680" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O680" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P680" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T680" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54840,11 +54840,11 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N681" t="n">
         <v>2500</v>
@@ -54862,7 +54862,7 @@
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S681" t="n">
@@ -54920,36 +54920,36 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N682" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O682" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P682" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="T682" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55004,32 +55004,32 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N683" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O683" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P683" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>1214</v>
+        <v>312</v>
       </c>
       <c r="T683" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N684" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O684" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P684" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1062</v>
+        <v>219</v>
       </c>
       <c r="T684" t="n">
         <v>16</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N685" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O685" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P685" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1000</v>
+        <v>312</v>
       </c>
       <c r="T685" t="n">
         <v>16</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O686" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="P686" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>786</v>
+        <v>179</v>
       </c>
       <c r="T686" t="n">
         <v>14</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55320,36 +55320,36 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N687" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="O687" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="P687" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>714</v>
+        <v>125</v>
       </c>
       <c r="T687" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N688" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O688" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P688" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>786</v>
+        <v>1214</v>
       </c>
       <c r="T688" t="n">
         <v>14</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N689" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O689" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P689" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T689" t="n">
         <v>16</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55644,20 +55644,20 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N691" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O691" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P691" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
@@ -55666,10 +55666,10 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T691" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,36 +55720,36 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N692" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O692" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P692" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>188</v>
+        <v>714</v>
       </c>
       <c r="T692" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44292</v>
+        <v>44176</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N693" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O693" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P693" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1143</v>
+        <v>786</v>
       </c>
       <c r="T693" t="n">
         <v>14</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44292</v>
+        <v>44176</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,36 +55880,36 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N694" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O694" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P694" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>1143</v>
+        <v>750</v>
       </c>
       <c r="T694" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,36 +55960,36 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N695" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O695" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P695" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T695" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56040,36 +56040,36 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="N696" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O696" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P696" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T696" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56120,24 +56120,24 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N697" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O697" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="P697" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
@@ -56146,10 +56146,10 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>464</v>
+        <v>188</v>
       </c>
       <c r="T697" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N698" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O698" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P698" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>357</v>
+        <v>1143</v>
       </c>
       <c r="T698" t="n">
         <v>14</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N699" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O699" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P699" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>357</v>
+        <v>1143</v>
       </c>
       <c r="T699" t="n">
         <v>14</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="N700" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O700" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P700" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>214</v>
+        <v>857</v>
       </c>
       <c r="T700" t="n">
         <v>14</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N701" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O701" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P701" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>214</v>
+        <v>857</v>
       </c>
       <c r="T701" t="n">
         <v>14</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56524,20 +56524,20 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N702" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O702" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P702" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,10 +56546,10 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>1062</v>
+        <v>464</v>
       </c>
       <c r="T702" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N703" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O703" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P703" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56622,11 +56622,11 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>1214</v>
+        <v>357</v>
       </c>
       <c r="T703" t="n">
         <v>14</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56680,36 +56680,36 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="N704" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O704" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P704" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1125</v>
+        <v>357</v>
       </c>
       <c r="T704" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56764,20 +56764,20 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="N705" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O705" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P705" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
@@ -56786,10 +56786,10 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>875</v>
+        <v>214</v>
       </c>
       <c r="T705" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M706" t="n">
         <v>300</v>
       </c>
       <c r="N706" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O706" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P706" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T706" t="n">
         <v>14</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56924,32 +56924,32 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>640</v>
+        <v>200</v>
       </c>
       <c r="N707" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O707" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P707" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T707" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="N708" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O708" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="P708" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>143</v>
+        <v>1214</v>
       </c>
       <c r="T708" t="n">
         <v>14</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N709" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O709" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P709" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T709" t="n">
         <v>16</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,11 +57160,11 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N710" t="n">
         <v>14000</v>
@@ -57177,19 +57177,19 @@
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T710" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N711" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O711" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P711" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T711" t="n">
         <v>14</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="N712" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O712" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P712" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>714</v>
+        <v>278</v>
       </c>
       <c r="T712" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="713">
@@ -57367,68 +57367,468 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E713" t="n">
+        <v>7</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I713" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M713" t="n">
+        <v>190</v>
+      </c>
+      <c r="N713" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O713" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P713" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q713" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R713" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S713" t="n">
+        <v>143</v>
+      </c>
+      <c r="T713" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>5</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D714" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E713" t="n">
-        <v>7</v>
-      </c>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G713" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I713" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J713" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L713" t="inlineStr">
+      <c r="E714" t="n">
+        <v>7</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I714" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M714" t="n">
+        <v>350</v>
+      </c>
+      <c r="N714" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O714" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P714" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q714" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R714" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S714" t="n">
+        <v>875</v>
+      </c>
+      <c r="T714" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>5</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D715" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E715" t="n">
+        <v>7</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G715" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I715" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M715" t="n">
+        <v>140</v>
+      </c>
+      <c r="N715" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O715" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P715" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q715" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R715" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S715" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T715" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>5</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D716" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E716" t="n">
+        <v>7</v>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G716" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I716" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M716" t="n">
+        <v>200</v>
+      </c>
+      <c r="N716" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O716" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P716" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q716" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R716" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S716" t="n">
+        <v>857</v>
+      </c>
+      <c r="T716" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>5</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D717" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E717" t="n">
+        <v>7</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G717" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I717" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L717" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M713" t="n">
+      <c r="M717" t="n">
+        <v>100</v>
+      </c>
+      <c r="N717" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O717" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P717" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q717" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R717" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S717" t="n">
+        <v>714</v>
+      </c>
+      <c r="T717" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>5</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D718" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E718" t="n">
+        <v>7</v>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G718" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I718" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M718" t="n">
         <v>150</v>
       </c>
-      <c r="N713" t="n">
+      <c r="N718" t="n">
         <v>11000</v>
       </c>
-      <c r="O713" t="n">
+      <c r="O718" t="n">
         <v>11000</v>
       </c>
-      <c r="P713" t="n">
+      <c r="P718" t="n">
         <v>11000</v>
       </c>
-      <c r="Q713" t="inlineStr">
+      <c r="Q718" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R713" t="inlineStr">
+      <c r="R718" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S713" t="n">
+      <c r="S718" t="n">
         <v>688</v>
       </c>
-      <c r="T713" t="n">
+      <c r="T718" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T723"/>
+  <dimension ref="A1:T726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E631" t="n">
         <v>7</v>
@@ -50844,32 +50844,32 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N631" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O631" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P631" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T631" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E632" t="n">
         <v>7</v>
@@ -50924,32 +50924,32 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N632" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O632" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P632" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="T632" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E633" t="n">
         <v>7</v>
@@ -51004,16 +51004,16 @@
         </is>
       </c>
       <c r="M633" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N633" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O633" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P633" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="T633" t="n">
         <v>16</v>
@@ -51084,32 +51084,32 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N634" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O634" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P634" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T634" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="635">
@@ -51160,20 +51160,20 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N635" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O635" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P635" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51182,11 +51182,11 @@
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T635" t="n">
         <v>14</v>
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E636" t="n">
         <v>7</v>
@@ -51244,7 +51244,7 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N636" t="n">
         <v>4000</v>
@@ -51257,7 +51257,7 @@
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
@@ -51266,10 +51266,10 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T636" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="637">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E637" t="n">
         <v>7</v>
@@ -51324,32 +51324,32 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="N637" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O637" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P637" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="T637" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E638" t="n">
         <v>7</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="N638" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O638" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="P638" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="T638" t="n">
         <v>14</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>280</v>
+        <v>530</v>
       </c>
       <c r="N639" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O639" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P639" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T639" t="n">
         <v>14</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>160</v>
+        <v>540</v>
       </c>
       <c r="N640" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O640" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P640" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51582,11 +51582,11 @@
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="T640" t="n">
         <v>14</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E641" t="n">
         <v>7</v>
@@ -51640,36 +51640,36 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="N641" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O641" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P641" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>1000</v>
+        <v>286</v>
       </c>
       <c r="T641" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E642" t="n">
         <v>7</v>
@@ -51720,20 +51720,20 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N642" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O642" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P642" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>929</v>
+        <v>214</v>
       </c>
       <c r="T642" t="n">
         <v>14</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E643" t="n">
         <v>7</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N643" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="O643" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P643" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>786</v>
+        <v>143</v>
       </c>
       <c r="T643" t="n">
         <v>14</v>
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E644" t="n">
         <v>7</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="N644" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O644" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P644" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51902,11 +51902,11 @@
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E645" t="n">
         <v>7</v>
@@ -51964,32 +51964,32 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N645" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O645" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P645" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>1125</v>
+        <v>929</v>
       </c>
       <c r="T645" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E646" t="n">
         <v>7</v>
@@ -52040,36 +52040,36 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N646" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O646" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P646" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T646" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="647">
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="N647" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O647" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P647" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52200,36 +52200,36 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N648" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O648" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P648" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>429</v>
+        <v>1125</v>
       </c>
       <c r="T648" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52280,24 +52280,24 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N649" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O649" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P649" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
@@ -52306,10 +52306,10 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>357</v>
+        <v>938</v>
       </c>
       <c r="T649" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E650" t="n">
         <v>7</v>
@@ -52360,36 +52360,36 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>550</v>
+        <v>210</v>
       </c>
       <c r="N650" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O650" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>357</v>
+        <v>938</v>
       </c>
       <c r="T650" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="651">
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N651" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O651" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P651" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52466,7 +52466,7 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="T651" t="n">
         <v>14</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N652" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O652" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P652" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="T652" t="n">
         <v>14</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52600,20 +52600,20 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N653" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O653" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P653" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>571</v>
+        <v>357</v>
       </c>
       <c r="T653" t="n">
         <v>14</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52680,36 +52680,36 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N654" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O654" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P654" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>562</v>
+        <v>286</v>
       </c>
       <c r="T654" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52764,29 +52764,29 @@
         </is>
       </c>
       <c r="M655" t="n">
+        <v>400</v>
+      </c>
+      <c r="N655" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O655" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P655" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q655" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S655" t="n">
         <v>500</v>
-      </c>
-      <c r="N655" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O655" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P655" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q655" t="inlineStr">
-        <is>
-          <t>$/malla 14 kilos</t>
-        </is>
-      </c>
-      <c r="R655" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S655" t="n">
-        <v>429</v>
       </c>
       <c r="T655" t="n">
         <v>14</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E656" t="n">
         <v>7</v>
@@ -52840,20 +52840,20 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N656" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O656" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P656" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>357</v>
+        <v>571</v>
       </c>
       <c r="T656" t="n">
         <v>14</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,24 +52920,24 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N657" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O657" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P657" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>321</v>
+        <v>562</v>
       </c>
       <c r="T657" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="N658" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O658" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P658" t="n">
-        <v>2679</v>
+        <v>6000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>191</v>
+        <v>429</v>
       </c>
       <c r="T658" t="n">
         <v>14</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,20 +53080,20 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N659" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O659" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P659" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>929</v>
+        <v>357</v>
       </c>
       <c r="T659" t="n">
         <v>14</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O660" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P660" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53186,7 +53186,7 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>857</v>
+        <v>321</v>
       </c>
       <c r="T660" t="n">
         <v>14</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="N661" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="O661" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P661" t="n">
-        <v>17000</v>
+        <v>2679</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1214</v>
+        <v>191</v>
       </c>
       <c r="T661" t="n">
         <v>14</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53327,17 +53327,17 @@
         <v>300</v>
       </c>
       <c r="N662" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O662" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P662" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
@@ -53346,10 +53346,10 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>1125</v>
+        <v>929</v>
       </c>
       <c r="T662" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N663" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P663" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="T663" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="N664" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O664" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P664" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>714</v>
+        <v>1214</v>
       </c>
       <c r="T664" t="n">
         <v>14</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53564,32 +53564,32 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N665" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O665" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P665" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>857</v>
+        <v>1125</v>
       </c>
       <c r="T665" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="N666" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O666" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P666" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T666" t="n">
         <v>16</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N667" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O667" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P667" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>321</v>
+        <v>714</v>
       </c>
       <c r="T667" t="n">
         <v>14</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N668" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O668" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P668" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>321</v>
+        <v>857</v>
       </c>
       <c r="T668" t="n">
         <v>14</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N669" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O669" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P669" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>278</v>
+        <v>688</v>
       </c>
       <c r="T669" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="670">
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N670" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O670" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P670" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="T670" t="n">
         <v>14</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N671" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O671" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P671" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="T671" t="n">
         <v>14</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54124,20 +54124,20 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N672" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O672" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P672" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
@@ -54146,10 +54146,10 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>438</v>
+        <v>278</v>
       </c>
       <c r="T672" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="N673" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O673" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P673" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54226,7 +54226,7 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T673" t="n">
         <v>14</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,36 +54280,36 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N674" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O674" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P674" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="T674" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675">
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N675" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O675" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P675" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="T675" t="n">
         <v>16</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="N676" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O676" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P676" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>1214</v>
+        <v>357</v>
       </c>
       <c r="T676" t="n">
         <v>14</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,36 +54520,36 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N677" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O677" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P677" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1286</v>
+        <v>312</v>
       </c>
       <c r="T677" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="N678" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="O678" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="P678" t="n">
-        <v>19583</v>
+        <v>3000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>1224</v>
+        <v>188</v>
       </c>
       <c r="T678" t="n">
         <v>16</v>
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="N679" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O679" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P679" t="n">
-        <v>19286</v>
+        <v>17000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>1205</v>
+        <v>1214</v>
       </c>
       <c r="T679" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="680">
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="N680" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O680" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P680" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54782,11 +54782,11 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>857</v>
+        <v>1286</v>
       </c>
       <c r="T680" t="n">
         <v>14</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54844,20 +54844,20 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="N681" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O681" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P681" t="n">
-        <v>8000</v>
+        <v>19583</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
@@ -54866,10 +54866,10 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>571</v>
+        <v>1224</v>
       </c>
       <c r="T681" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="N682" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O682" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P682" t="n">
-        <v>9000</v>
+        <v>19286</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>562</v>
+        <v>1205</v>
       </c>
       <c r="T682" t="n">
         <v>16</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N683" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O683" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55022,11 +55022,11 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T683" t="n">
         <v>14</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N684" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O684" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P684" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>250</v>
+        <v>571</v>
       </c>
       <c r="T684" t="n">
         <v>14</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,36 +55160,36 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N685" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O685" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P685" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T685" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55244,16 +55244,16 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N686" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O686" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P686" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="T686" t="n">
         <v>14</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55324,7 +55324,7 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N687" t="n">
         <v>3500</v>
@@ -55342,7 +55342,7 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S687" t="n">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55404,32 +55404,32 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N688" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O688" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P688" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T688" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55480,24 +55480,24 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N689" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="O689" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="P689" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
@@ -55506,10 +55506,10 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="T689" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="690">
@@ -55564,20 +55564,20 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N690" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O690" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P690" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
@@ -55586,10 +55586,10 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T690" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691">
@@ -55640,36 +55640,36 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N691" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O691" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P691" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="T691" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="692">
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N692" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O692" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P692" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="T692" t="n">
         <v>16</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55804,32 +55804,32 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N693" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O693" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P693" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1214</v>
+        <v>312</v>
       </c>
       <c r="T693" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,36 +55880,36 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N694" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="O694" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="P694" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>1062</v>
+        <v>179</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N695" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O695" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P695" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="T695" t="n">
         <v>16</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56044,16 +56044,16 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N696" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O696" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P696" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56062,11 +56062,11 @@
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>786</v>
+        <v>1214</v>
       </c>
       <c r="T696" t="n">
         <v>14</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56120,36 +56120,36 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N697" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O697" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P697" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>714</v>
+        <v>1062</v>
       </c>
       <c r="T697" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56204,32 +56204,32 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N698" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O698" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P698" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T698" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699">
@@ -56280,36 +56280,36 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N699" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O699" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P699" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="T699" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,36 +56360,36 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N700" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O700" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P700" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1000</v>
+        <v>714</v>
       </c>
       <c r="T700" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,24 +56440,24 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N701" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O701" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P701" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
@@ -56466,10 +56466,10 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T701" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N702" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O702" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P702" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56542,11 +56542,11 @@
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>188</v>
+        <v>750</v>
       </c>
       <c r="T702" t="n">
         <v>16</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,11 +56600,11 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N703" t="n">
         <v>16000</v>
@@ -56617,19 +56617,19 @@
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>1143</v>
+        <v>1000</v>
       </c>
       <c r="T703" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56684,32 +56684,32 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N704" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O704" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P704" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1143</v>
+        <v>250</v>
       </c>
       <c r="T704" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56764,20 +56764,20 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N705" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O705" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P705" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
@@ -56786,10 +56786,10 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>857</v>
+        <v>188</v>
       </c>
       <c r="T705" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="706">
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="N706" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O706" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P706" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>857</v>
+        <v>1143</v>
       </c>
       <c r="T706" t="n">
         <v>14</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56924,16 +56924,16 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N707" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="O707" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="P707" t="n">
-        <v>6500</v>
+        <v>16000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56942,11 +56942,11 @@
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>464</v>
+        <v>1143</v>
       </c>
       <c r="T707" t="n">
         <v>14</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N708" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O708" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P708" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T708" t="n">
         <v>14</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="N709" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O709" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P709" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T709" t="n">
         <v>14</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="N710" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="O710" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P710" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>214</v>
+        <v>464</v>
       </c>
       <c r="T710" t="n">
         <v>14</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N711" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O711" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P711" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="T711" t="n">
         <v>14</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="N712" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O712" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P712" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>1062</v>
+        <v>357</v>
       </c>
       <c r="T712" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57400,20 +57400,20 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="N713" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O713" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P713" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>1214</v>
+        <v>214</v>
       </c>
       <c r="T713" t="n">
         <v>14</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,36 +57480,36 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
         <v>300</v>
       </c>
       <c r="N714" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O714" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P714" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>1125</v>
+        <v>214</v>
       </c>
       <c r="T714" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="715">
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N715" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O715" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P715" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T715" t="n">
         <v>16</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N716" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O716" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P716" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T716" t="n">
         <v>14</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57720,36 +57720,36 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="N717" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O717" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P717" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>278</v>
+        <v>1125</v>
       </c>
       <c r="T717" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,32 +57804,32 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N718" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="O718" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="P718" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>143</v>
+        <v>875</v>
       </c>
       <c r="T718" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57884,32 +57884,32 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N719" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O719" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P719" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T719" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,36 +57960,36 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="N720" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O720" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P720" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>1000</v>
+        <v>278</v>
       </c>
       <c r="T720" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N721" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O721" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P721" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>857</v>
+        <v>143</v>
       </c>
       <c r="T721" t="n">
         <v>14</v>
@@ -58120,36 +58120,36 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N722" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O722" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P722" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="T722" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="723">
@@ -58200,35 +58200,275 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M723" t="n">
+        <v>140</v>
+      </c>
+      <c r="N723" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O723" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P723" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q723" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S723" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T723" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>5</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D724" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E724" t="n">
+        <v>7</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G724" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I724" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M724" t="n">
+        <v>200</v>
+      </c>
+      <c r="N724" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O724" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P724" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q724" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S724" t="n">
+        <v>857</v>
+      </c>
+      <c r="T724" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>5</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D725" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E725" t="n">
+        <v>7</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G725" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I725" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M723" t="n">
+      <c r="M725" t="n">
+        <v>100</v>
+      </c>
+      <c r="N725" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O725" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P725" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q725" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R725" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="S725" t="n">
+        <v>714</v>
+      </c>
+      <c r="T725" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>5</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D726" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E726" t="n">
+        <v>7</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I726" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M726" t="n">
         <v>150</v>
       </c>
-      <c r="N723" t="n">
+      <c r="N726" t="n">
         <v>11000</v>
       </c>
-      <c r="O723" t="n">
+      <c r="O726" t="n">
         <v>11000</v>
       </c>
-      <c r="P723" t="n">
+      <c r="P726" t="n">
         <v>11000</v>
       </c>
-      <c r="Q723" t="inlineStr">
+      <c r="Q726" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R723" t="inlineStr">
+      <c r="R726" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S723" t="n">
+      <c r="S726" t="n">
         <v>688</v>
       </c>
-      <c r="T723" t="n">
+      <c r="T726" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T729"/>
+  <dimension ref="A1:T732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E605" t="n">
         <v>7</v>
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="N605" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O605" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P605" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="T605" t="n">
         <v>14</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E606" t="n">
         <v>7</v>
@@ -48844,7 +48844,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N606" t="n">
         <v>4000</v>
@@ -48862,7 +48862,7 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S606" t="n">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E607" t="n">
         <v>7</v>
@@ -48924,32 +48924,32 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N607" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O607" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P607" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="T607" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="608">
@@ -49004,32 +49004,32 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N608" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O608" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P608" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="T608" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="609">
@@ -49080,20 +49080,20 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N609" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O609" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P609" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49102,11 +49102,11 @@
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T609" t="n">
         <v>14</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E610" t="n">
         <v>7</v>
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N610" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O610" t="n">
         <v>4000</v>
       </c>
       <c r="P610" t="n">
-        <v>3833</v>
+        <v>4000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="T610" t="n">
         <v>14</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E611" t="n">
         <v>7</v>
@@ -49244,32 +49244,32 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N611" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O611" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P611" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="T611" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E612" t="n">
         <v>7</v>
@@ -49320,11 +49320,11 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N612" t="n">
         <v>3000</v>
@@ -49400,36 +49400,36 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N613" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O613" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P613" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S613" t="n">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="T613" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="614">
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E614" t="n">
         <v>7</v>
@@ -49484,32 +49484,32 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="N614" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O614" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P614" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S614" t="n">
         <v>250</v>
       </c>
       <c r="T614" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="615">
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E615" t="n">
         <v>7</v>
@@ -49560,36 +49560,36 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="N615" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O615" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P615" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T615" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E616" t="n">
         <v>7</v>
@@ -49640,20 +49640,20 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M616" t="n">
         <v>200</v>
       </c>
       <c r="N616" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O616" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P616" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="N617" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O617" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P617" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T617" t="n">
         <v>14</v>
@@ -49800,20 +49800,20 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N618" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O618" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P618" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E619" t="n">
         <v>7</v>
@@ -49880,36 +49880,36 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N619" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O619" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P619" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>1214</v>
+        <v>219</v>
       </c>
       <c r="T619" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E620" t="n">
         <v>7</v>
@@ -49960,36 +49960,36 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N620" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O620" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="P620" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1062</v>
+        <v>143</v>
       </c>
       <c r="T620" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E621" t="n">
         <v>7</v>
@@ -50040,20 +50040,20 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N621" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O621" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="P621" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="S621" t="n">
-        <v>1125</v>
+        <v>156</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50120,36 +50120,36 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N622" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O622" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P622" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>625</v>
+        <v>1214</v>
       </c>
       <c r="T622" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E623" t="n">
         <v>7</v>
@@ -50200,36 +50200,36 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N623" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O623" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P623" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>357</v>
+        <v>1062</v>
       </c>
       <c r="T623" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E624" t="n">
         <v>7</v>
@@ -50280,36 +50280,36 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N624" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O624" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P624" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>357</v>
+        <v>1125</v>
       </c>
       <c r="T624" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625">
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E625" t="n">
         <v>7</v>
@@ -50360,20 +50360,20 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N625" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O625" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P625" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="T625" t="n">
         <v>16</v>
@@ -50444,32 +50444,32 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N626" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O626" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P626" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="T626" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="627">
@@ -50520,36 +50520,36 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N627" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O627" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P627" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T627" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="628">
@@ -50600,36 +50600,36 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N628" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O628" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P628" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="T628" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="629">
@@ -50680,20 +50680,20 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="N629" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O629" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P629" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50706,7 +50706,7 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="T629" t="n">
         <v>16</v>
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E630" t="n">
         <v>7</v>
@@ -50760,36 +50760,36 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N630" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O630" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P630" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>929</v>
+        <v>250</v>
       </c>
       <c r="T630" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E631" t="n">
         <v>7</v>
@@ -50840,33 +50840,33 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M631" t="n">
+        <v>180</v>
+      </c>
+      <c r="N631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P631" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q631" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S631" t="n">
         <v>250</v>
-      </c>
-      <c r="N631" t="n">
-        <v>12000</v>
-      </c>
-      <c r="O631" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P631" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Q631" t="inlineStr">
-        <is>
-          <t>$/malla 14 kilos</t>
-        </is>
-      </c>
-      <c r="R631" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S631" t="n">
-        <v>857</v>
       </c>
       <c r="T631" t="n">
         <v>14</v>
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E632" t="n">
         <v>7</v>
@@ -50920,24 +50920,24 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N632" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O632" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P632" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
@@ -50946,10 +50946,10 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="T632" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E633" t="n">
         <v>7</v>
@@ -51000,20 +51000,20 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N633" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O633" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P633" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>286</v>
+        <v>929</v>
       </c>
       <c r="T633" t="n">
         <v>14</v>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E634" t="n">
         <v>7</v>
@@ -51080,20 +51080,20 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N634" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O634" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>286</v>
+        <v>857</v>
       </c>
       <c r="T634" t="n">
         <v>14</v>
@@ -51164,32 +51164,32 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="N635" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O635" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P635" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="T635" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E636" t="n">
         <v>7</v>
@@ -51240,20 +51240,20 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M636" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P636" t="n">
-        <v>9714</v>
+        <v>4000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
@@ -51262,11 +51262,11 @@
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>694</v>
+        <v>286</v>
       </c>
       <c r="T636" t="n">
         <v>14</v>
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E637" t="n">
         <v>7</v>
@@ -51320,36 +51320,36 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N637" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O637" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P637" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>688</v>
+        <v>286</v>
       </c>
       <c r="T637" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E638" t="n">
         <v>7</v>
@@ -51400,20 +51400,20 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N638" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O638" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P638" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51422,11 +51422,11 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>938</v>
+        <v>375</v>
       </c>
       <c r="T638" t="n">
         <v>16</v>
@@ -51447,7 +51447,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E639" t="n">
         <v>7</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N639" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O639" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P639" t="n">
-        <v>11000</v>
+        <v>9714</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>786</v>
+        <v>694</v>
       </c>
       <c r="T639" t="n">
         <v>14</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E640" t="n">
         <v>7</v>
@@ -51560,20 +51560,20 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N640" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O640" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P640" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51582,11 +51582,11 @@
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S640" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T640" t="n">
         <v>16</v>
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E641" t="n">
         <v>7</v>
@@ -51640,20 +51640,20 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N641" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O641" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P641" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>438</v>
+        <v>938</v>
       </c>
       <c r="T641" t="n">
         <v>16</v>
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E642" t="n">
         <v>7</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N642" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O642" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P642" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51746,7 +51746,7 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>357</v>
+        <v>786</v>
       </c>
       <c r="T642" t="n">
         <v>14</v>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E643" t="n">
         <v>7</v>
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N643" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O643" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>312</v>
+        <v>750</v>
       </c>
       <c r="T643" t="n">
         <v>16</v>
@@ -51880,20 +51880,20 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N644" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O644" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P644" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="T644" t="n">
         <v>16</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E645" t="n">
         <v>7</v>
@@ -51960,20 +51960,20 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="N645" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O645" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P645" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
@@ -51986,7 +51986,7 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>857</v>
+        <v>357</v>
       </c>
       <c r="T645" t="n">
         <v>14</v>
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E646" t="n">
         <v>7</v>
@@ -52040,36 +52040,36 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N646" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O646" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P646" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>1000</v>
+        <v>312</v>
       </c>
       <c r="T646" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N647" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O647" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P647" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>938</v>
+        <v>188</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52200,20 +52200,20 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N648" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O648" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P648" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>929</v>
+        <v>857</v>
       </c>
       <c r="T648" t="n">
         <v>14</v>
@@ -52280,36 +52280,36 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M649" t="n">
         <v>200</v>
       </c>
       <c r="N649" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O649" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P649" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T649" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="650">
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N650" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O650" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>438</v>
+        <v>938</v>
       </c>
       <c r="T650" t="n">
         <v>16</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E651" t="n">
         <v>7</v>
@@ -52440,11 +52440,11 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N651" t="n">
         <v>13000</v>
@@ -52462,7 +52462,7 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52524,7 +52524,7 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
         <v>12000</v>
@@ -52537,19 +52537,19 @@
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
       <c r="T652" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52600,36 +52600,36 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N653" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O653" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P653" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1143</v>
+        <v>438</v>
       </c>
       <c r="T653" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52680,36 +52680,36 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M654" t="n">
         <v>300</v>
       </c>
       <c r="N654" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O654" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P654" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>1062</v>
+        <v>929</v>
       </c>
       <c r="T654" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52760,36 +52760,36 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="N655" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O655" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P655" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1125</v>
+        <v>857</v>
       </c>
       <c r="T655" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="656">
@@ -52840,36 +52840,36 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M656" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N656" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O656" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P656" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>938</v>
+        <v>1143</v>
       </c>
       <c r="T656" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N657" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O657" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P657" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53004,16 +53004,16 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N658" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O658" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P658" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,11 +53080,11 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="N659" t="n">
         <v>15000</v>
@@ -53102,7 +53102,7 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S659" t="n">
@@ -53160,36 +53160,36 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
         <v>350</v>
       </c>
       <c r="N660" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O660" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P660" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T660" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="661">
@@ -53240,20 +53240,20 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N661" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O661" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P661" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T661" t="n">
         <v>16</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53320,36 +53320,36 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N662" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O662" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P662" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="T662" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="663">
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N663" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P663" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>312</v>
+        <v>857</v>
       </c>
       <c r="T663" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N664" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O664" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P664" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53560,36 +53560,36 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P665" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T665" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53644,32 +53644,32 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N666" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O666" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P666" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T666" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="667">
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53724,32 +53724,32 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N667" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O667" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P667" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="T667" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,20 +53800,20 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N668" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O668" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P668" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="T668" t="n">
         <v>16</v>
@@ -53884,20 +53884,20 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N669" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O669" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P669" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
@@ -53909,7 +53909,7 @@
         <v>250</v>
       </c>
       <c r="T669" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670">
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N670" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O670" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P670" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="T670" t="n">
         <v>14</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N671" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O671" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="P671" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>812</v>
+        <v>281</v>
       </c>
       <c r="T671" t="n">
         <v>16</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M672" t="n">
         <v>250</v>
       </c>
       <c r="N672" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O672" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P672" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="T672" t="n">
         <v>16</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,24 +54200,24 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="N673" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O673" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P673" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54226,10 +54226,10 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>875</v>
+        <v>143</v>
       </c>
       <c r="T673" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,36 +54280,36 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N674" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O674" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P674" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="T674" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54360,36 +54360,36 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N675" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O675" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P675" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T675" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="676">
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N676" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O676" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P676" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T676" t="n">
         <v>16</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N677" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O677" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P677" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T677" t="n">
         <v>14</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N678" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O678" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P678" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T678" t="n">
         <v>14</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="N679" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O679" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P679" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="T679" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="N680" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O680" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P680" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T680" t="n">
         <v>14</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54844,7 +54844,7 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N681" t="n">
         <v>3500</v>
@@ -54857,19 +54857,19 @@
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="T681" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54924,32 +54924,32 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>180</v>
+        <v>640</v>
       </c>
       <c r="N682" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O682" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P682" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T682" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,20 +55000,20 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N683" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O683" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P683" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55022,11 +55022,11 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>857</v>
+        <v>143</v>
       </c>
       <c r="T683" t="n">
         <v>14</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,24 +55080,24 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N684" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="O684" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P684" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
@@ -55106,10 +55106,10 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>929</v>
+        <v>219</v>
       </c>
       <c r="T684" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="685">
@@ -55160,36 +55160,36 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>880</v>
+        <v>180</v>
       </c>
       <c r="N685" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O685" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P685" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="T685" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="686">
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O686" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P686" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T686" t="n">
         <v>14</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M687" t="n">
         <v>300</v>
       </c>
       <c r="N687" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O687" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P687" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>357</v>
+        <v>929</v>
       </c>
       <c r="T687" t="n">
         <v>14</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55400,36 +55400,36 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>600</v>
+        <v>880</v>
       </c>
       <c r="N688" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O688" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P688" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>357</v>
+        <v>812</v>
       </c>
       <c r="T688" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55480,24 +55480,24 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N689" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O689" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P689" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
@@ -55506,10 +55506,10 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>333</v>
+        <v>786</v>
       </c>
       <c r="T689" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55567,13 +55567,13 @@
         <v>300</v>
       </c>
       <c r="N690" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O690" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P690" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1143</v>
+        <v>357</v>
       </c>
       <c r="T690" t="n">
         <v>14</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55644,32 +55644,32 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N691" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O691" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P691" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1062</v>
+        <v>357</v>
       </c>
       <c r="T691" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,36 +55720,36 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>310</v>
+        <v>800</v>
       </c>
       <c r="N692" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O692" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P692" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>1214</v>
+        <v>333</v>
       </c>
       <c r="T692" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="693">
@@ -55800,36 +55800,36 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N693" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O693" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P693" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T693" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="694">
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M694" t="n">
         <v>200</v>
       </c>
       <c r="N694" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O694" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P694" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55902,11 +55902,11 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T694" t="n">
         <v>16</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,11 +55960,11 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="N695" t="n">
         <v>17000</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56044,16 +56044,16 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N696" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O696" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P696" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56062,11 +56062,11 @@
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T696" t="n">
         <v>16</v>
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56124,32 +56124,32 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N697" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O697" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P697" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>1143</v>
+        <v>938</v>
       </c>
       <c r="T697" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N698" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O698" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P698" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T698" t="n">
         <v>14</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56280,36 +56280,36 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N699" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O699" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P699" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T699" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,36 +56360,36 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N700" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O700" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P700" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>250</v>
+        <v>1143</v>
       </c>
       <c r="T700" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="701">
@@ -56444,32 +56444,32 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N701" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O701" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P701" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T701" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="702">
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N702" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O702" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P702" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56542,11 +56542,11 @@
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T702" t="n">
         <v>14</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N703" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O703" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P703" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56622,11 +56622,11 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="T703" t="n">
         <v>16</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56680,36 +56680,36 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N704" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O704" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P704" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1071</v>
+        <v>278</v>
       </c>
       <c r="T704" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N705" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O705" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="P705" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>1071</v>
+        <v>143</v>
       </c>
       <c r="T705" t="n">
         <v>14</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56840,36 +56840,36 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N706" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="O706" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="P706" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>321</v>
+        <v>1250</v>
       </c>
       <c r="T706" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N707" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O707" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P707" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="T707" t="n">
         <v>14</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57000,36 +57000,36 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N708" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O708" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P708" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>278</v>
+        <v>1071</v>
       </c>
       <c r="T708" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="709">
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N709" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O709" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P709" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57102,11 +57102,11 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="T709" t="n">
         <v>14</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N710" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O710" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P710" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="T710" t="n">
         <v>14</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57244,20 +57244,20 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N711" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O711" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P711" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
@@ -57266,10 +57266,10 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>1062</v>
+        <v>278</v>
       </c>
       <c r="T711" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N712" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="O712" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="P712" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>1125</v>
+        <v>250</v>
       </c>
       <c r="T712" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57400,36 +57400,36 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N713" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O713" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P713" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>1125</v>
+        <v>214</v>
       </c>
       <c r="T713" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="714">
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N714" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O714" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P714" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57502,11 +57502,11 @@
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T714" t="n">
         <v>16</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N715" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O715" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P715" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T715" t="n">
         <v>16</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N716" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O716" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P716" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57662,11 +57662,11 @@
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T716" t="n">
         <v>16</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57724,32 +57724,32 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N717" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O717" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P717" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>929</v>
+        <v>1125</v>
       </c>
       <c r="T717" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,32 +57804,32 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N718" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O718" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P718" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T718" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57884,32 +57884,32 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N719" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O719" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P719" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>286</v>
+        <v>1000</v>
       </c>
       <c r="T719" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,36 +57960,36 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N720" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O720" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P720" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>875</v>
+        <v>929</v>
       </c>
       <c r="T720" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,36 +58040,36 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N721" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O721" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P721" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58120,24 +58120,24 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N722" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O722" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P722" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,10 +58146,10 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>688</v>
+        <v>286</v>
       </c>
       <c r="T722" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58204,7 +58204,7 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N723" t="n">
         <v>14000</v>
@@ -58222,7 +58222,7 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S723" t="n">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58280,36 +58280,36 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N724" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O724" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P724" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="T724" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,36 +58360,36 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N725" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O725" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P725" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>857</v>
+        <v>688</v>
       </c>
       <c r="T725" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N726" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O726" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P726" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>438</v>
+        <v>875</v>
       </c>
       <c r="T726" t="n">
         <v>16</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N727" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="O727" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P727" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>250</v>
+        <v>929</v>
       </c>
       <c r="T727" t="n">
         <v>14</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,36 +58600,36 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N728" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O728" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P728" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T728" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="729">
@@ -58647,68 +58647,308 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E729" t="n">
+        <v>7</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I729" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M729" t="n">
+        <v>180</v>
+      </c>
+      <c r="N729" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O729" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P729" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q729" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S729" t="n">
+        <v>438</v>
+      </c>
+      <c r="T729" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>5</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D730" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E729" t="n">
-        <v>7</v>
-      </c>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G729" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I729" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J729" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L729" t="inlineStr">
+      <c r="E730" t="n">
+        <v>7</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M729" t="n">
+      <c r="M730" t="n">
+        <v>500</v>
+      </c>
+      <c r="N730" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O730" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P730" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q730" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S730" t="n">
+        <v>250</v>
+      </c>
+      <c r="T730" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>5</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D731" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E731" t="n">
+        <v>7</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M731" t="n">
+        <v>250</v>
+      </c>
+      <c r="N731" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O731" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P731" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q731" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R731" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S731" t="n">
+        <v>250</v>
+      </c>
+      <c r="T731" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>5</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D732" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E732" t="n">
+        <v>7</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G732" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I732" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M732" t="n">
         <v>150</v>
       </c>
-      <c r="N729" t="n">
+      <c r="N732" t="n">
         <v>5000</v>
       </c>
-      <c r="O729" t="n">
+      <c r="O732" t="n">
         <v>5000</v>
       </c>
-      <c r="P729" t="n">
+      <c r="P732" t="n">
         <v>5000</v>
       </c>
-      <c r="Q729" t="inlineStr">
+      <c r="Q732" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
         </is>
       </c>
-      <c r="R729" t="inlineStr">
+      <c r="R732" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S729" t="n">
+      <c r="S732" t="n">
         <v>278</v>
       </c>
-      <c r="T729" t="n">
+      <c r="T732" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T760"/>
+  <dimension ref="A1:T765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53720,20 +53720,20 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N667" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O667" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P667" t="n">
-        <v>9714</v>
+        <v>5000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>694</v>
+        <v>357</v>
       </c>
       <c r="T667" t="n">
         <v>14</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,36 +53800,36 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N668" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O668" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P668" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>688</v>
+        <v>357</v>
       </c>
       <c r="T668" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N669" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O669" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P669" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>938</v>
+        <v>375</v>
       </c>
       <c r="T669" t="n">
         <v>16</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53960,36 +53960,36 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N670" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O670" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P670" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>786</v>
+        <v>389</v>
       </c>
       <c r="T670" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54044,20 +54044,20 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N671" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O671" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P671" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
@@ -54066,10 +54066,10 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>750</v>
+        <v>286</v>
       </c>
       <c r="T671" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54120,36 +54120,36 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="N672" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O672" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P672" t="n">
-        <v>7000</v>
+        <v>9714</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>438</v>
+        <v>694</v>
       </c>
       <c r="T672" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,36 +54200,36 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N673" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O673" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P673" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>357</v>
+        <v>688</v>
       </c>
       <c r="T673" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N674" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O674" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P674" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>312</v>
+        <v>938</v>
       </c>
       <c r="T674" t="n">
         <v>16</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54360,36 +54360,36 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N675" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O675" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P675" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>188</v>
+        <v>786</v>
       </c>
       <c r="T675" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="676">
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54440,11 +54440,11 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N676" t="n">
         <v>12000</v>
@@ -54457,19 +54457,19 @@
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
       <c r="T676" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,36 +54520,36 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N677" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O677" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P677" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>1000</v>
+        <v>438</v>
       </c>
       <c r="T677" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,36 +54600,36 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="N678" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O678" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P678" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>938</v>
+        <v>357</v>
       </c>
       <c r="T678" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54684,32 +54684,32 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N679" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O679" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P679" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>929</v>
+        <v>312</v>
       </c>
       <c r="T679" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N680" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O680" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P680" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>750</v>
+        <v>188</v>
       </c>
       <c r="T680" t="n">
         <v>16</v>
@@ -54840,36 +54840,36 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N681" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O681" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P681" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>438</v>
+        <v>857</v>
       </c>
       <c r="T681" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N682" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O682" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P682" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>929</v>
+        <v>1000</v>
       </c>
       <c r="T682" t="n">
         <v>14</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,36 +55000,36 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="N683" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O683" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P683" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T683" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N684" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O684" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>1143</v>
+        <v>929</v>
       </c>
       <c r="T684" t="n">
         <v>14</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N685" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O685" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P685" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T685" t="n">
         <v>16</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N686" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O686" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P686" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>1125</v>
+        <v>438</v>
       </c>
       <c r="T686" t="n">
         <v>16</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55320,36 +55320,36 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N687" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O687" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P687" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="T687" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55400,36 +55400,36 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N688" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O688" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P688" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T688" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55487,29 +55487,29 @@
         <v>300</v>
       </c>
       <c r="N689" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O689" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P689" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>938</v>
+        <v>1143</v>
       </c>
       <c r="T689" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N690" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O690" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P690" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T690" t="n">
         <v>16</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55640,36 +55640,36 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N691" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O691" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P691" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>857</v>
+        <v>1125</v>
       </c>
       <c r="T691" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55724,16 +55724,16 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N692" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O692" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P692" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55742,11 +55742,11 @@
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T692" t="n">
         <v>16</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55804,32 +55804,32 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N693" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="O693" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P693" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>250</v>
+        <v>875</v>
       </c>
       <c r="T693" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N694" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O694" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P694" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>312</v>
+        <v>938</v>
       </c>
       <c r="T694" t="n">
         <v>16</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N695" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O695" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P695" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>312</v>
+        <v>938</v>
       </c>
       <c r="T695" t="n">
         <v>16</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56040,36 +56040,36 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N696" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O696" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P696" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>188</v>
+        <v>857</v>
       </c>
       <c r="T696" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56120,24 +56120,24 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="N697" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O697" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P697" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
@@ -56146,10 +56146,10 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="T697" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N698" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O698" t="n">
         <v>3500</v>
       </c>
       <c r="P698" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="T698" t="n">
         <v>14</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56287,13 +56287,13 @@
         <v>150</v>
       </c>
       <c r="N699" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O699" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P699" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="T699" t="n">
         <v>16</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56364,16 +56364,16 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N700" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O700" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P700" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56382,11 +56382,11 @@
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T700" t="n">
         <v>16</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56444,32 +56444,32 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N701" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O701" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P701" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="T701" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56524,20 +56524,20 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="N702" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="O702" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P702" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,10 +56546,10 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>812</v>
+        <v>250</v>
       </c>
       <c r="T702" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,36 +56600,36 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N703" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O703" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P703" t="n">
-        <v>10000</v>
+        <v>3300</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>625</v>
+        <v>236</v>
       </c>
       <c r="T703" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N704" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O704" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P704" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>875</v>
+        <v>281</v>
       </c>
       <c r="T704" t="n">
         <v>16</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56760,36 +56760,36 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N705" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O705" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P705" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>786</v>
+        <v>250</v>
       </c>
       <c r="T705" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56840,20 +56840,20 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N706" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O706" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P706" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>857</v>
+        <v>143</v>
       </c>
       <c r="T706" t="n">
         <v>14</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="N707" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O707" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P707" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T707" t="n">
         <v>16</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57000,36 +57000,36 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N708" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O708" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P708" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="T708" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57084,32 +57084,32 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="N709" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="O709" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P709" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>250</v>
+        <v>875</v>
       </c>
       <c r="T709" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="710">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,36 +57160,36 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="N710" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O710" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P710" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>278</v>
+        <v>786</v>
       </c>
       <c r="T710" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="N711" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="O711" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="P711" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>143</v>
+        <v>857</v>
       </c>
       <c r="T711" t="n">
         <v>14</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44390</v>
+        <v>44314</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="N712" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O712" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P712" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>219</v>
+        <v>625</v>
       </c>
       <c r="T712" t="n">
         <v>16</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44187</v>
+        <v>44392</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N713" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O713" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P713" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T713" t="n">
         <v>14</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
         <v>300</v>
       </c>
       <c r="N714" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O714" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P714" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57502,11 +57502,11 @@
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T714" t="n">
         <v>14</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,36 +57560,36 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>300</v>
+        <v>640</v>
       </c>
       <c r="N715" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O715" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P715" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>929</v>
+        <v>278</v>
       </c>
       <c r="T715" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,36 +57640,36 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>880</v>
+        <v>190</v>
       </c>
       <c r="N716" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="O716" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P716" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>812</v>
+        <v>143</v>
       </c>
       <c r="T716" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57720,36 +57720,36 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N717" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="O717" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P717" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>786</v>
+        <v>219</v>
       </c>
       <c r="T717" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N718" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O718" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P718" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T718" t="n">
         <v>14</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N719" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O719" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P719" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57902,11 +57902,11 @@
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T719" t="n">
         <v>14</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,36 +57960,36 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N720" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O720" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P720" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>333</v>
+        <v>929</v>
       </c>
       <c r="T720" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,36 +58040,36 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>300</v>
+        <v>880</v>
       </c>
       <c r="N721" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O721" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P721" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>1143</v>
+        <v>812</v>
       </c>
       <c r="T721" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58120,36 +58120,36 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M722" t="n">
         <v>200</v>
       </c>
       <c r="N722" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O722" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P722" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T722" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N723" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O723" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P723" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1214</v>
+        <v>357</v>
       </c>
       <c r="T723" t="n">
         <v>14</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58280,36 +58280,36 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="N724" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O724" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P724" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>1125</v>
+        <v>357</v>
       </c>
       <c r="T724" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,36 +58360,36 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N725" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O725" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P725" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>938</v>
+        <v>333</v>
       </c>
       <c r="T725" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N726" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O726" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P726" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1214</v>
+        <v>1143</v>
       </c>
       <c r="T726" t="n">
         <v>14</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,7 +58520,7 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M727" t="n">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N728" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O728" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P728" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>1143</v>
+        <v>1214</v>
       </c>
       <c r="T728" t="n">
         <v>14</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58680,36 +58680,36 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N729" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="O729" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="P729" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T729" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E730" t="n">
         <v>7</v>
@@ -58760,36 +58760,36 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N730" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O730" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P730" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="T730" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58844,32 +58844,32 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N731" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O731" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P731" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T731" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58920,24 +58920,24 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N732" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O732" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P732" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
@@ -58946,10 +58946,10 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T732" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N733" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="O733" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="P733" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>143</v>
+        <v>1143</v>
       </c>
       <c r="T733" t="n">
         <v>14</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E734" t="n">
         <v>7</v>
@@ -59080,36 +59080,36 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N734" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O734" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P734" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="T734" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E735" t="n">
         <v>7</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N735" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P735" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>1071</v>
+        <v>250</v>
       </c>
       <c r="T735" t="n">
         <v>14</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59240,36 +59240,36 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N736" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O736" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P736" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1071</v>
+        <v>250</v>
       </c>
       <c r="T736" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59324,32 +59324,32 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N737" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O737" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P737" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="T737" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="N738" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="O738" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P738" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>321</v>
+        <v>143</v>
       </c>
       <c r="T738" t="n">
         <v>14</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N739" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O739" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P739" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>278</v>
+        <v>1250</v>
       </c>
       <c r="T739" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59560,20 +59560,20 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N740" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O740" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P740" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>250</v>
+        <v>1071</v>
       </c>
       <c r="T740" t="n">
         <v>14</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N741" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O741" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P741" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59662,11 +59662,11 @@
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>214</v>
+        <v>1071</v>
       </c>
       <c r="T741" t="n">
         <v>14</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59724,32 +59724,32 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N742" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O742" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="P742" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1062</v>
+        <v>321</v>
       </c>
       <c r="T742" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E743" t="n">
         <v>7</v>
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N743" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O743" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="P743" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1125</v>
+        <v>321</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59880,24 +59880,24 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M744" t="n">
         <v>300</v>
       </c>
       <c r="N744" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O744" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P744" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
@@ -59906,10 +59906,10 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1125</v>
+        <v>278</v>
       </c>
       <c r="T744" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,36 +59960,36 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N745" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="O745" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="P745" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1125</v>
+        <v>250</v>
       </c>
       <c r="T745" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E746" t="n">
         <v>7</v>
@@ -60040,36 +60040,36 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N746" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O746" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="P746" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1000</v>
+        <v>214</v>
       </c>
       <c r="T746" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E747" t="n">
         <v>7</v>
@@ -60124,16 +60124,16 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N747" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O747" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P747" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T747" t="n">
         <v>16</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60204,32 +60204,32 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N748" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O748" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P748" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>929</v>
+        <v>1125</v>
       </c>
       <c r="T748" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60280,36 +60280,36 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N749" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O749" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P749" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>786</v>
+        <v>1125</v>
       </c>
       <c r="T749" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60360,36 +60360,36 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M750" t="n">
         <v>500</v>
       </c>
       <c r="N750" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O750" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P750" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>286</v>
+        <v>1125</v>
       </c>
       <c r="T750" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E751" t="n">
         <v>7</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N751" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O751" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P751" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T751" t="n">
         <v>16</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60524,16 +60524,16 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N752" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O752" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P752" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T752" t="n">
         <v>16</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N753" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O753" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P753" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>688</v>
+        <v>929</v>
       </c>
       <c r="T753" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44326</v>
+        <v>44286</v>
       </c>
       <c r="E754" t="n">
         <v>7</v>
@@ -60680,36 +60680,36 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N754" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O754" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P754" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>875</v>
+        <v>786</v>
       </c>
       <c r="T754" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E755" t="n">
         <v>7</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N755" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O755" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P755" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>929</v>
+        <v>286</v>
       </c>
       <c r="T755" t="n">
         <v>14</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E756" t="n">
         <v>7</v>
@@ -60840,36 +60840,36 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N756" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O756" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P756" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T756" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60920,20 +60920,20 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N757" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O757" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P757" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>438</v>
+        <v>938</v>
       </c>
       <c r="T757" t="n">
         <v>16</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,36 +61000,36 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N758" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O758" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P758" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>250</v>
+        <v>688</v>
       </c>
       <c r="T758" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61084,16 +61084,16 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N759" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O759" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P759" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>250</v>
+        <v>875</v>
       </c>
       <c r="T759" t="n">
         <v>16</v>
@@ -61127,68 +61127,468 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E760" t="n">
+        <v>7</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I760" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M760" t="n">
+        <v>300</v>
+      </c>
+      <c r="N760" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O760" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P760" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q760" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S760" t="n">
+        <v>929</v>
+      </c>
+      <c r="T760" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>5</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E761" t="n">
+        <v>7</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M761" t="n">
+        <v>230</v>
+      </c>
+      <c r="N761" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O761" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P761" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q761" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S761" t="n">
+        <v>857</v>
+      </c>
+      <c r="T761" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>5</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E762" t="n">
+        <v>7</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M762" t="n">
+        <v>180</v>
+      </c>
+      <c r="N762" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O762" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P762" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q762" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S762" t="n">
+        <v>438</v>
+      </c>
+      <c r="T762" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>5</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E760" t="n">
-        <v>7</v>
-      </c>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G760" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I760" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J760" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L760" t="inlineStr">
+      <c r="E763" t="n">
+        <v>7</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G763" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L763" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M760" t="n">
+      <c r="M763" t="n">
+        <v>500</v>
+      </c>
+      <c r="N763" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O763" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P763" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q763" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S763" t="n">
+        <v>250</v>
+      </c>
+      <c r="T763" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>5</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E764" t="n">
+        <v>7</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M764" t="n">
+        <v>250</v>
+      </c>
+      <c r="N764" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O764" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P764" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q764" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S764" t="n">
+        <v>250</v>
+      </c>
+      <c r="T764" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>5</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D765" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E765" t="n">
+        <v>7</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I765" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J765" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M765" t="n">
         <v>150</v>
       </c>
-      <c r="N760" t="n">
+      <c r="N765" t="n">
         <v>5000</v>
       </c>
-      <c r="O760" t="n">
+      <c r="O765" t="n">
         <v>5000</v>
       </c>
-      <c r="P760" t="n">
+      <c r="P765" t="n">
         <v>5000</v>
       </c>
-      <c r="Q760" t="inlineStr">
+      <c r="Q765" t="inlineStr">
         <is>
           <t>$/malla 18 kilos</t>
         </is>
       </c>
-      <c r="R760" t="inlineStr">
+      <c r="R765" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S760" t="n">
+      <c r="S765" t="n">
         <v>278</v>
       </c>
-      <c r="T760" t="n">
+      <c r="T765" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T787"/>
+  <dimension ref="A1:T790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="N670" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O670" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P670" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53982,11 +53982,11 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="T670" t="n">
         <v>14</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54044,32 +54044,32 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N671" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O671" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P671" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="T671" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54120,20 +54120,20 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="N672" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O672" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P672" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T672" t="n">
         <v>14</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54204,7 +54204,7 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N673" t="n">
         <v>4000</v>
@@ -54217,19 +54217,19 @@
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T673" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
         <v>200</v>
       </c>
       <c r="N674" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O674" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P674" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="T674" t="n">
         <v>16</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="N675" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O675" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P675" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T675" t="n">
         <v>14</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N676" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O676" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P676" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="S676" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T676" t="n">
         <v>16</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N677" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O677" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P677" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>938</v>
+        <v>219</v>
       </c>
       <c r="T677" t="n">
         <v>16</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N678" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="O678" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P678" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54622,11 +54622,11 @@
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>321</v>
+        <v>143</v>
       </c>
       <c r="T678" t="n">
         <v>14</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N679" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O679" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="P679" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="T679" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,20 +54760,20 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="N680" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O680" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P680" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54782,11 +54782,11 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>312</v>
+        <v>938</v>
       </c>
       <c r="T680" t="n">
         <v>16</v>
@@ -54844,32 +54844,32 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N681" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O681" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P681" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="T681" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54924,16 +54924,16 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N682" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O682" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P682" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="T682" t="n">
         <v>14</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55004,7 +55004,7 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>640</v>
+        <v>230</v>
       </c>
       <c r="N683" t="n">
         <v>5000</v>
@@ -55017,19 +55017,19 @@
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="T683" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,36 +55080,36 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N684" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O684" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P684" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="T684" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55167,13 +55167,13 @@
         <v>300</v>
       </c>
       <c r="N685" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="O685" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="P685" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>643</v>
+        <v>250</v>
       </c>
       <c r="T685" t="n">
         <v>14</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55244,32 +55244,32 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="N686" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O686" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P686" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T686" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N687" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O687" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P687" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>500</v>
+        <v>143</v>
       </c>
       <c r="T687" t="n">
         <v>14</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N688" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O688" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P688" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="T688" t="n">
         <v>14</v>
@@ -55480,20 +55480,20 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N689" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O689" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P689" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T689" t="n">
         <v>16</v>
@@ -55560,36 +55560,36 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N690" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O690" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P690" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="T690" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="N691" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O691" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P691" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T691" t="n">
         <v>14</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,36 +55720,36 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N692" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O692" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P692" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="T692" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55800,11 +55800,11 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N693" t="n">
         <v>5000</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="N694" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O694" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P694" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T694" t="n">
         <v>14</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55964,7 +55964,7 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="N695" t="n">
         <v>4000</v>
@@ -55982,7 +55982,7 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56044,32 +56044,32 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="N696" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O696" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P696" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="T696" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56124,16 +56124,16 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N697" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O697" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P697" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56142,11 +56142,11 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="T697" t="n">
         <v>14</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56200,20 +56200,20 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N698" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O698" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P698" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56226,7 +56226,7 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>714</v>
+        <v>286</v>
       </c>
       <c r="T698" t="n">
         <v>14</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56280,36 +56280,36 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N699" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O699" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P699" t="n">
-        <v>10333</v>
+        <v>3500</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>574</v>
+        <v>250</v>
       </c>
       <c r="T699" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N700" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O700" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P700" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56382,11 +56382,11 @@
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>429</v>
+        <v>179</v>
       </c>
       <c r="T700" t="n">
         <v>14</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,11 +56440,11 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N701" t="n">
         <v>10000</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56524,32 +56524,32 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N702" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O702" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P702" t="n">
-        <v>12000</v>
+        <v>10333</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>857</v>
+        <v>574</v>
       </c>
       <c r="T702" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,36 +56600,36 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N703" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O703" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P703" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>688</v>
+        <v>429</v>
       </c>
       <c r="T703" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N704" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O704" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P704" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>250</v>
+        <v>714</v>
       </c>
       <c r="T704" t="n">
         <v>14</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56760,36 +56760,36 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N705" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O705" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P705" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="T705" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56844,32 +56844,32 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N706" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O706" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P706" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>929</v>
+        <v>688</v>
       </c>
       <c r="T706" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N707" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="O707" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P707" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>786</v>
+        <v>250</v>
       </c>
       <c r="T707" t="n">
         <v>14</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57004,32 +57004,32 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N708" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O708" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P708" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>286</v>
+        <v>1000</v>
       </c>
       <c r="T708" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57080,36 +57080,36 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N709" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O709" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P709" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>375</v>
+        <v>929</v>
       </c>
       <c r="T709" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="710">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="N710" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O710" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P710" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T710" t="n">
         <v>14</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57244,32 +57244,32 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N711" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O711" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P711" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="T711" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57324,16 +57324,16 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N712" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O712" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P712" t="n">
-        <v>4273</v>
+        <v>6000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57342,11 +57342,11 @@
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="T712" t="n">
         <v>16</v>
@@ -57400,36 +57400,36 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="N713" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O713" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P713" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T713" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57484,32 +57484,32 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N714" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O714" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P714" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="T714" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="715">
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="N715" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O715" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P715" t="n">
-        <v>6000</v>
+        <v>4273</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57582,11 +57582,11 @@
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="T715" t="n">
         <v>16</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N716" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O716" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P716" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="T716" t="n">
         <v>16</v>
@@ -57720,36 +57720,36 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N717" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O717" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P717" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="T717" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,32 +57804,32 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N718" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O718" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P718" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>714</v>
+        <v>375</v>
       </c>
       <c r="T718" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57884,32 +57884,32 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N719" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O719" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P719" t="n">
-        <v>10667</v>
+        <v>5000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>762</v>
+        <v>312</v>
       </c>
       <c r="T719" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,24 +57960,24 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N720" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O720" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P720" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
@@ -57986,10 +57986,10 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>857</v>
+        <v>188</v>
       </c>
       <c r="T720" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58044,16 +58044,16 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N721" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O721" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P721" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="T721" t="n">
         <v>14</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58120,36 +58120,36 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
         <v>600</v>
       </c>
       <c r="N722" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O722" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P722" t="n">
-        <v>8000</v>
+        <v>10667</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>444</v>
+        <v>762</v>
       </c>
       <c r="T722" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58200,36 +58200,36 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N723" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O723" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P723" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>333</v>
+        <v>857</v>
       </c>
       <c r="T723" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58284,32 +58284,32 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N724" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O724" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P724" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>625</v>
+        <v>357</v>
       </c>
       <c r="T724" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,36 +58360,36 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T725" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58440,36 +58440,36 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="N726" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O726" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P726" t="n">
-        <v>3769</v>
+        <v>6000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="T726" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,36 +58520,36 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N727" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O727" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P727" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>214</v>
+        <v>625</v>
       </c>
       <c r="T727" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N728" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O728" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P728" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>179</v>
+        <v>500</v>
       </c>
       <c r="T728" t="n">
         <v>14</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N729" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O729" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P729" t="n">
-        <v>12000</v>
+        <v>3769</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>857</v>
+        <v>269</v>
       </c>
       <c r="T729" t="n">
         <v>14</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E730" t="n">
         <v>7</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N730" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O730" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P730" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>1000</v>
+        <v>214</v>
       </c>
       <c r="T730" t="n">
         <v>14</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58840,36 +58840,36 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N731" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="O731" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="P731" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>938</v>
+        <v>179</v>
       </c>
       <c r="T731" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="732">
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N732" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O732" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P732" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>929</v>
+        <v>857</v>
       </c>
       <c r="T732" t="n">
         <v>14</v>
@@ -59000,36 +59000,36 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M733" t="n">
         <v>200</v>
       </c>
       <c r="N733" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O733" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P733" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T733" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="734">
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N734" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O734" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P734" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>438</v>
+        <v>938</v>
       </c>
       <c r="T734" t="n">
         <v>16</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E735" t="n">
         <v>7</v>
@@ -59160,36 +59160,36 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N735" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P735" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="T735" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59244,32 +59244,32 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N736" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O736" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P736" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="T736" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N737" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O737" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P737" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T737" t="n">
         <v>16</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N738" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O738" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P738" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T738" t="n">
         <v>16</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59484,7 +59484,7 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N739" t="n">
         <v>11000</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59560,36 +59560,36 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N740" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O740" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P740" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1143</v>
+        <v>750</v>
       </c>
       <c r="T740" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59644,16 +59644,16 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N741" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O741" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P741" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59662,11 +59662,11 @@
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1062</v>
+        <v>812</v>
       </c>
       <c r="T741" t="n">
         <v>16</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N742" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O742" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P742" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1214</v>
+        <v>786</v>
       </c>
       <c r="T742" t="n">
         <v>14</v>
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N743" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O743" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P743" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="744">
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M744" t="n">
         <v>200</v>
       </c>
       <c r="N744" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O744" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P744" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T744" t="n">
         <v>16</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N745" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O745" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P745" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T745" t="n">
         <v>14</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E746" t="n">
         <v>7</v>
@@ -60044,32 +60044,32 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="N746" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O746" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P746" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T746" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E747" t="n">
         <v>7</v>
@@ -60120,24 +60120,24 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N747" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O747" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P747" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
@@ -60146,10 +60146,10 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T747" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T748" t="n">
         <v>14</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="N749" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O749" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P749" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T749" t="n">
         <v>14</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N750" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O750" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P750" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1214</v>
+        <v>500</v>
       </c>
       <c r="T750" t="n">
         <v>14</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N751" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O751" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P751" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T751" t="n">
         <v>14</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60520,24 +60520,24 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N752" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="O752" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P752" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60546,10 +60546,10 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>222</v>
+        <v>1214</v>
       </c>
       <c r="T752" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N753" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="O753" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="P753" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>214</v>
+        <v>1214</v>
       </c>
       <c r="T753" t="n">
         <v>14</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E754" t="n">
         <v>7</v>
@@ -60680,24 +60680,24 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N754" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O754" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P754" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,10 +60706,10 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T754" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E755" t="n">
         <v>7</v>
@@ -60764,32 +60764,32 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N755" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="O755" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="P755" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T755" t="n">
-        <v>14</v>
+        <v>450</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E756" t="n">
         <v>7</v>
@@ -60844,32 +60844,32 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="N756" t="n">
         <v>3000</v>
       </c>
       <c r="O756" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P756" t="n">
-        <v>3608</v>
+        <v>3000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="T756" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60924,32 +60924,32 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N757" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O757" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P757" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T757" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="758">
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N758" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O758" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P758" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T758" t="n">
         <v>14</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="N759" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O759" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P759" t="n">
-        <v>2500</v>
+        <v>3608</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="T759" t="n">
         <v>16</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E760" t="n">
         <v>7</v>
@@ -61160,24 +61160,24 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N760" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O760" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P760" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
@@ -61186,10 +61186,10 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1000</v>
+        <v>278</v>
       </c>
       <c r="T760" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61240,36 +61240,36 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N761" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O761" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P761" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>875</v>
+        <v>143</v>
       </c>
       <c r="T761" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E762" t="n">
         <v>7</v>
@@ -61320,36 +61320,36 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N762" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O762" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="P762" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>786</v>
+        <v>156</v>
       </c>
       <c r="T762" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E763" t="n">
         <v>7</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N763" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O763" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P763" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T763" t="n">
         <v>16</v>
@@ -61480,20 +61480,20 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N764" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O764" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P764" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T764" t="n">
         <v>16</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N765" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O765" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P765" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T765" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N766" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O766" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P766" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T766" t="n">
         <v>16</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61720,20 +61720,20 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N767" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O767" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P767" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1125</v>
+        <v>562</v>
       </c>
       <c r="T767" t="n">
         <v>16</v>
@@ -61800,11 +61800,11 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N768" t="n">
         <v>17000</v>
@@ -61822,7 +61822,7 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S768" t="n">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61880,36 +61880,36 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N769" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="O769" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="P769" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T769" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61960,20 +61960,20 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N770" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O770" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P770" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61982,11 +61982,11 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T770" t="n">
         <v>16</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N771" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O771" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P771" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T771" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="772">
@@ -62120,36 +62120,36 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N772" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O772" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P772" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="T772" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62204,32 +62204,32 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="N773" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O773" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P773" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>786</v>
+        <v>250</v>
       </c>
       <c r="T773" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62280,24 +62280,24 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N774" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O774" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P774" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>875</v>
+        <v>278</v>
       </c>
       <c r="T774" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N775" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O775" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P775" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>875</v>
+        <v>125</v>
       </c>
       <c r="T775" t="n">
         <v>16</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="N776" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O776" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P776" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T776" t="n">
         <v>14</v>
@@ -62520,20 +62520,20 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N777" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O777" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P777" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T777" t="n">
         <v>16</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N778" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O778" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P778" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>438</v>
+        <v>875</v>
       </c>
       <c r="T778" t="n">
         <v>16</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N779" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O779" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P779" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T779" t="n">
         <v>14</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62760,11 +62760,11 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N780" t="n">
         <v>12000</v>
@@ -62777,7 +62777,7 @@
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,10 +62786,10 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
       <c r="T780" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E781" t="n">
         <v>7</v>
@@ -62840,20 +62840,20 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N781" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O781" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P781" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>812</v>
+        <v>438</v>
       </c>
       <c r="T781" t="n">
         <v>16</v>
@@ -62920,11 +62920,11 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N782" t="n">
         <v>10000</v>
@@ -62942,7 +62942,7 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63000,20 +63000,20 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N783" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O783" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P783" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T783" t="n">
         <v>14</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63080,36 +63080,36 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N784" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O784" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P784" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>357</v>
+        <v>812</v>
       </c>
       <c r="T784" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63160,24 +63160,24 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N785" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O785" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P785" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63186,10 +63186,10 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>375</v>
+        <v>714</v>
       </c>
       <c r="T785" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="786">
@@ -63244,20 +63244,20 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N786" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O786" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P786" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="T786" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="787">
@@ -63320,35 +63320,275 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M787" t="n">
+        <v>400</v>
+      </c>
+      <c r="N787" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O787" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P787" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q787" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S787" t="n">
+        <v>357</v>
+      </c>
+      <c r="T787" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>5</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D788" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E788" t="n">
+        <v>7</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M788" t="n">
+        <v>210</v>
+      </c>
+      <c r="N788" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O788" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P788" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q788" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S788" t="n">
+        <v>375</v>
+      </c>
+      <c r="T788" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>5</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D789" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E789" t="n">
+        <v>7</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I789" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M789" t="n">
+        <v>250</v>
+      </c>
+      <c r="N789" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O789" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P789" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S789" t="n">
+        <v>389</v>
+      </c>
+      <c r="T789" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>5</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D790" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E790" t="n">
+        <v>7</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M787" t="n">
+      <c r="M790" t="n">
         <v>150</v>
       </c>
-      <c r="N787" t="n">
+      <c r="N790" t="n">
         <v>4000</v>
       </c>
-      <c r="O787" t="n">
+      <c r="O790" t="n">
         <v>4000</v>
       </c>
-      <c r="P787" t="n">
+      <c r="P790" t="n">
         <v>4000</v>
       </c>
-      <c r="Q787" t="inlineStr">
+      <c r="Q790" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R787" t="inlineStr">
+      <c r="R790" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S787" t="n">
+      <c r="S790" t="n">
         <v>286</v>
       </c>
-      <c r="T787" t="n">
+      <c r="T790" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T790"/>
+  <dimension ref="A1:T795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N681" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O681" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P681" t="n">
-        <v>4500</v>
+        <v>5455</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54862,11 +54862,11 @@
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="T681" t="n">
         <v>14</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54924,32 +54924,32 @@
         </is>
       </c>
       <c r="M682" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N682" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O682" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P682" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="T682" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55004,20 +55004,20 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N683" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O683" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P683" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
@@ -55026,10 +55026,10 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="T683" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,36 +55080,36 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N684" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O684" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P684" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="T684" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="685">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N685" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O685" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P685" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T685" t="n">
         <v>14</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55244,32 +55244,32 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>640</v>
+        <v>350</v>
       </c>
       <c r="N686" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O686" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P686" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="T686" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="N687" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="O687" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="P687" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="T687" t="n">
         <v>14</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55404,32 +55404,32 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N688" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O688" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P688" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>643</v>
+        <v>312</v>
       </c>
       <c r="T688" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55484,20 +55484,20 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="N689" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O689" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P689" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
@@ -55506,10 +55506,10 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T689" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N690" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O690" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P690" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="T690" t="n">
         <v>14</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55640,36 +55640,36 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="N691" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O691" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P691" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T691" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,36 +55720,36 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N692" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O692" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P692" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="T692" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693">
@@ -55800,36 +55800,36 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N693" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O693" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P693" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>312</v>
+        <v>643</v>
       </c>
       <c r="T693" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55884,20 +55884,20 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N694" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O694" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P694" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
@@ -55906,10 +55906,10 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T694" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N695" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O695" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P695" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T695" t="n">
         <v>14</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56040,36 +56040,36 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N696" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O696" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P696" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="T696" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56127,17 +56127,17 @@
         <v>200</v>
       </c>
       <c r="N697" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O697" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P697" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
@@ -56146,10 +56146,10 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="T697" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56200,24 +56200,24 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
@@ -56226,10 +56226,10 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="T698" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56284,16 +56284,16 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="N699" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O699" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P699" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56302,11 +56302,11 @@
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T699" t="n">
         <v>14</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="N700" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O700" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P700" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="T700" t="n">
         <v>14</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,24 +56440,24 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N701" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O701" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P701" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
@@ -56466,10 +56466,10 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>714</v>
+        <v>312</v>
       </c>
       <c r="T701" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56520,36 +56520,36 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N702" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O702" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P702" t="n">
-        <v>10333</v>
+        <v>3000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>574</v>
+        <v>214</v>
       </c>
       <c r="T702" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,20 +56600,20 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N703" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O703" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P703" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="T703" t="n">
         <v>14</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N704" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O704" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P704" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>714</v>
+        <v>250</v>
       </c>
       <c r="T704" t="n">
         <v>14</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N705" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O705" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P705" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>857</v>
+        <v>179</v>
       </c>
       <c r="T705" t="n">
         <v>14</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56844,32 +56844,32 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N706" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O706" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P706" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="T706" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56920,36 +56920,36 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N707" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O707" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P707" t="n">
-        <v>3500</v>
+        <v>10333</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>250</v>
+        <v>574</v>
       </c>
       <c r="T707" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57000,36 +57000,36 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N708" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O708" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P708" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1000</v>
+        <v>429</v>
       </c>
       <c r="T708" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N709" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O709" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P709" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57102,11 +57102,11 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T709" t="n">
         <v>14</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N710" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O710" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P710" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T710" t="n">
         <v>14</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57240,36 +57240,36 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M711" t="n">
         <v>700</v>
       </c>
       <c r="N711" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O711" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P711" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>286</v>
+        <v>688</v>
       </c>
       <c r="T711" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57324,32 +57324,32 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N712" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O712" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P712" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T712" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57404,32 +57404,32 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="N713" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O713" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P713" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T713" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,36 +57480,36 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N714" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O714" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P714" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>281</v>
+        <v>929</v>
       </c>
       <c r="T714" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="715">
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,36 +57560,36 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N715" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O715" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P715" t="n">
-        <v>4273</v>
+        <v>11000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>267</v>
+        <v>786</v>
       </c>
       <c r="T715" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,36 +57640,36 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="N716" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O716" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P716" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="T716" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57724,32 +57724,32 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N717" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O717" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P717" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="T717" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,32 +57804,32 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="N718" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O718" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P718" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T718" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57884,16 +57884,16 @@
         </is>
       </c>
       <c r="M719" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N719" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O719" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P719" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57902,11 +57902,11 @@
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="T719" t="n">
         <v>16</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="N720" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O720" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P720" t="n">
-        <v>3000</v>
+        <v>4273</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="T720" t="n">
         <v>16</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,24 +58040,24 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N721" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O721" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P721" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="T721" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N722" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O722" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P722" t="n">
-        <v>10667</v>
+        <v>4000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>762</v>
+        <v>286</v>
       </c>
       <c r="T722" t="n">
         <v>14</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58200,36 +58200,36 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N723" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O723" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P723" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>857</v>
+        <v>375</v>
       </c>
       <c r="T723" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58284,7 +58284,7 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N724" t="n">
         <v>5000</v>
@@ -58297,19 +58297,19 @@
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="T724" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,36 +58360,36 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N725" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O725" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P725" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="T725" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58440,36 +58440,36 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N726" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O726" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P726" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>333</v>
+        <v>714</v>
       </c>
       <c r="T726" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58524,32 +58524,32 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N727" t="n">
         <v>10000</v>
       </c>
       <c r="O727" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P727" t="n">
-        <v>10000</v>
+        <v>10667</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>625</v>
+        <v>762</v>
       </c>
       <c r="T727" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N728" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O728" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P728" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T728" t="n">
         <v>14</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58684,16 +58684,16 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N729" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O729" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P729" t="n">
-        <v>3769</v>
+        <v>5000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="T729" t="n">
         <v>14</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E730" t="n">
         <v>7</v>
@@ -58760,36 +58760,36 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N730" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O730" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P730" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="T730" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58840,36 +58840,36 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N731" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O731" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P731" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="T731" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N732" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O732" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P732" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T732" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N733" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O733" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P733" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T733" t="n">
         <v>14</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E734" t="n">
         <v>7</v>
@@ -59080,36 +59080,36 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="N734" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O734" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P734" t="n">
-        <v>15000</v>
+        <v>3769</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>938</v>
+        <v>269</v>
       </c>
       <c r="T734" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E735" t="n">
         <v>7</v>
@@ -59164,16 +59164,16 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N735" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O735" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P735" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>929</v>
+        <v>214</v>
       </c>
       <c r="T735" t="n">
         <v>14</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59244,32 +59244,32 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N736" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O736" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P736" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>750</v>
+        <v>179</v>
       </c>
       <c r="T736" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="737">
@@ -59320,36 +59320,36 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N737" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O737" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P737" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>438</v>
+        <v>857</v>
       </c>
       <c r="T737" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59404,32 +59404,32 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N738" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O738" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P738" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T738" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N739" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O739" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P739" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="T739" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59564,32 +59564,32 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N740" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O740" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P740" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>750</v>
+        <v>929</v>
       </c>
       <c r="T740" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N741" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O741" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P741" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59662,11 +59662,11 @@
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T741" t="n">
         <v>16</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59720,36 +59720,36 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N742" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O742" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P742" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>786</v>
+        <v>438</v>
       </c>
       <c r="T742" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E743" t="n">
         <v>7</v>
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M743" t="n">
         <v>300</v>
       </c>
       <c r="N743" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O743" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P743" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1143</v>
+        <v>938</v>
       </c>
       <c r="T743" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59880,36 +59880,36 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N744" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O744" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P744" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T744" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,36 +59960,36 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="N745" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O745" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P745" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1214</v>
+        <v>750</v>
       </c>
       <c r="T745" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E746" t="n">
         <v>7</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="N746" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O746" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P746" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T746" t="n">
         <v>16</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E747" t="n">
         <v>7</v>
@@ -60124,32 +60124,32 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N747" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O747" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P747" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T747" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N748" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O748" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P748" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T748" t="n">
         <v>14</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60280,36 +60280,36 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="N749" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O749" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P749" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T749" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="N750" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O750" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P750" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>500</v>
+        <v>1214</v>
       </c>
       <c r="T750" t="n">
         <v>14</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E751" t="n">
         <v>7</v>
@@ -60440,36 +60440,36 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N751" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O751" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P751" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T751" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60520,24 +60520,24 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N752" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O752" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P752" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60546,10 +60546,10 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>1214</v>
+        <v>938</v>
       </c>
       <c r="T752" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N753" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O753" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P753" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T753" t="n">
         <v>14</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E754" t="n">
         <v>7</v>
@@ -60680,11 +60680,11 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N754" t="n">
         <v>14000</v>
@@ -60702,7 +60702,7 @@
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E755" t="n">
         <v>7</v>
@@ -60760,24 +60760,24 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N755" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O755" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="P755" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
@@ -60786,10 +60786,10 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="T755" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E756" t="n">
         <v>7</v>
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N756" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="O756" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="P756" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>214</v>
+        <v>1143</v>
       </c>
       <c r="T756" t="n">
         <v>14</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60920,24 +60920,24 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="N757" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O757" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P757" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T757" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N758" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O758" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P758" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T758" t="n">
         <v>14</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61080,24 +61080,24 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="N759" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O759" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P759" t="n">
-        <v>3608</v>
+        <v>14000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>226</v>
+        <v>1000</v>
       </c>
       <c r="T759" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E760" t="n">
         <v>7</v>
@@ -61164,32 +61164,32 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N760" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O760" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="P760" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="T760" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61240,20 +61240,20 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N761" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O761" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P761" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T761" t="n">
         <v>14</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E762" t="n">
         <v>7</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N762" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O762" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P762" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T762" t="n">
         <v>16</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E763" t="n">
         <v>7</v>
@@ -61400,36 +61400,36 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="N763" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O763" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P763" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T763" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E764" t="n">
         <v>7</v>
@@ -61484,16 +61484,16 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="N764" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O764" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P764" t="n">
-        <v>14000</v>
+        <v>3608</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>875</v>
+        <v>226</v>
       </c>
       <c r="T764" t="n">
         <v>16</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N765" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O765" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P765" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>786</v>
+        <v>278</v>
       </c>
       <c r="T765" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61640,36 +61640,36 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N766" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O766" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P766" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>750</v>
+        <v>143</v>
       </c>
       <c r="T766" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61727,13 +61727,13 @@
         <v>100</v>
       </c>
       <c r="N767" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="O767" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="P767" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>562</v>
+        <v>156</v>
       </c>
       <c r="T767" t="n">
         <v>16</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E768" t="n">
         <v>7</v>
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N768" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O768" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P768" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61822,11 +61822,11 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T768" t="n">
         <v>16</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="N769" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O769" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P769" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T769" t="n">
         <v>16</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61960,36 +61960,36 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M770" t="n">
         <v>300</v>
       </c>
       <c r="N770" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O770" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P770" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1125</v>
+        <v>786</v>
       </c>
       <c r="T770" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62040,20 +62040,20 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="N771" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O771" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P771" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T771" t="n">
         <v>16</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E772" t="n">
         <v>7</v>
@@ -62120,36 +62120,36 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N772" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O772" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P772" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T772" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62204,16 +62204,16 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N773" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O773" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P773" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T773" t="n">
         <v>16</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62280,36 +62280,36 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N774" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O774" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P774" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>278</v>
+        <v>1125</v>
       </c>
       <c r="T774" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N775" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O775" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P775" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="T775" t="n">
         <v>16</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E776" t="n">
         <v>7</v>
@@ -62440,24 +62440,24 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="N776" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O776" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P776" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
@@ -62466,10 +62466,10 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T776" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E777" t="n">
         <v>7</v>
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N777" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O777" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P777" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T777" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N778" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O778" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P778" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T778" t="n">
         <v>16</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T779" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N780" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O780" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P780" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="T780" t="n">
         <v>16</v>
@@ -62840,36 +62840,36 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N781" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O781" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P781" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>438</v>
+        <v>786</v>
       </c>
       <c r="T781" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N782" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O782" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P782" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="T782" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63007,17 +63007,17 @@
         <v>300</v>
       </c>
       <c r="N783" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O783" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P783" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T783" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63080,36 +63080,36 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="N784" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O784" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P784" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="T784" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63164,20 +63164,20 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N785" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O785" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P785" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63186,10 +63186,10 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="T785" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E786" t="n">
         <v>7</v>
@@ -63240,24 +63240,24 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="N786" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O786" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P786" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="T786" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63324,16 +63324,16 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N787" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O787" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P787" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="T787" t="n">
         <v>14</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E788" t="n">
         <v>7</v>
@@ -63400,24 +63400,24 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N788" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O788" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P788" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,10 +63426,10 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>375</v>
+        <v>857</v>
       </c>
       <c r="T788" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E789" t="n">
         <v>7</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N789" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O789" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P789" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>389</v>
+        <v>812</v>
       </c>
       <c r="T789" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="790">
@@ -63527,68 +63527,468 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E790" t="n">
+        <v>7</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M790" t="n">
+        <v>200</v>
+      </c>
+      <c r="N790" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O790" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P790" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q790" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S790" t="n">
+        <v>714</v>
+      </c>
+      <c r="T790" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>5</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D791" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E790" t="n">
-        <v>7</v>
-      </c>
-      <c r="F790" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G790" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I790" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J790" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L790" t="inlineStr">
+      <c r="E791" t="n">
+        <v>7</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I791" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M791" t="n">
+        <v>550</v>
+      </c>
+      <c r="N791" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O791" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P791" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q791" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S791" t="n">
+        <v>357</v>
+      </c>
+      <c r="T791" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>5</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D792" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E792" t="n">
+        <v>7</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I792" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M792" t="n">
+        <v>400</v>
+      </c>
+      <c r="N792" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O792" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P792" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q792" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S792" t="n">
+        <v>357</v>
+      </c>
+      <c r="T792" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>5</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E793" t="n">
+        <v>7</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M793" t="n">
+        <v>210</v>
+      </c>
+      <c r="N793" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O793" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P793" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S793" t="n">
+        <v>375</v>
+      </c>
+      <c r="T793" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>5</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E794" t="n">
+        <v>7</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M794" t="n">
+        <v>250</v>
+      </c>
+      <c r="N794" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O794" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P794" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q794" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S794" t="n">
+        <v>389</v>
+      </c>
+      <c r="T794" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>5</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E795" t="n">
+        <v>7</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
         <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M790" t="n">
+      <c r="M795" t="n">
         <v>150</v>
       </c>
-      <c r="N790" t="n">
+      <c r="N795" t="n">
         <v>4000</v>
       </c>
-      <c r="O790" t="n">
+      <c r="O795" t="n">
         <v>4000</v>
       </c>
-      <c r="P790" t="n">
+      <c r="P795" t="n">
         <v>4000</v>
       </c>
-      <c r="Q790" t="inlineStr">
+      <c r="Q795" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R790" t="inlineStr">
+      <c r="R795" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S790" t="n">
+      <c r="S795" t="n">
         <v>286</v>
       </c>
-      <c r="T790" t="n">
+      <c r="T795" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T795"/>
+  <dimension ref="A1:T800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E643" t="n">
         <v>7</v>
@@ -51804,32 +51804,32 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N643" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O643" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P643" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>812</v>
+        <v>357</v>
       </c>
       <c r="T643" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E644" t="n">
         <v>7</v>
@@ -51880,36 +51880,36 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N644" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="P644" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S644" t="n">
-        <v>625</v>
+        <v>393</v>
       </c>
       <c r="T644" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E645" t="n">
         <v>7</v>
@@ -51964,32 +51964,32 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N645" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O645" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P645" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="T645" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E646" t="n">
         <v>7</v>
@@ -52040,24 +52040,24 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P646" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
@@ -52066,10 +52066,10 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="T646" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52120,36 +52120,36 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N647" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O647" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P647" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="T647" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52200,24 +52200,24 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N648" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O648" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P648" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
@@ -52226,10 +52226,10 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>286</v>
+        <v>812</v>
       </c>
       <c r="T648" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52280,20 +52280,20 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N649" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O649" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P649" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T649" t="n">
         <v>16</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E650" t="n">
         <v>7</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="N650" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O650" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P650" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1000</v>
+        <v>429</v>
       </c>
       <c r="T650" t="n">
         <v>14</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E651" t="n">
         <v>7</v>
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N651" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O651" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P651" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>857</v>
+        <v>357</v>
       </c>
       <c r="T651" t="n">
         <v>14</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52520,20 +52520,20 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="N652" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O652" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P652" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
@@ -52542,11 +52542,11 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>714</v>
+        <v>357</v>
       </c>
       <c r="T652" t="n">
         <v>14</v>
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52604,20 +52604,20 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N653" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O653" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P653" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
@@ -52626,10 +52626,10 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>688</v>
+        <v>286</v>
       </c>
       <c r="T653" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52680,36 +52680,36 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N654" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O654" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P654" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="T654" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52760,20 +52760,20 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N655" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O655" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P655" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
@@ -52782,11 +52782,11 @@
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T655" t="n">
         <v>14</v>
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E656" t="n">
         <v>7</v>
@@ -52840,36 +52840,36 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M656" t="n">
         <v>200</v>
       </c>
       <c r="N656" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P656" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>1062</v>
+        <v>857</v>
       </c>
       <c r="T656" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657">
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E657" t="n">
         <v>7</v>
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N657" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O657" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P657" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1214</v>
+        <v>714</v>
       </c>
       <c r="T657" t="n">
         <v>14</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53000,20 +53000,20 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N658" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O658" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P658" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1125</v>
+        <v>688</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53080,36 +53080,36 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N659" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O659" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P659" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>875</v>
+        <v>929</v>
       </c>
       <c r="T659" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,20 +53160,20 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N660" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>321</v>
+        <v>857</v>
       </c>
       <c r="T660" t="n">
         <v>14</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53244,32 +53244,32 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N661" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O661" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P661" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>286</v>
+        <v>1062</v>
       </c>
       <c r="T661" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53320,20 +53320,20 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M662" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N662" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O662" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P662" t="n">
-        <v>4188</v>
+        <v>17000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>299</v>
+        <v>1214</v>
       </c>
       <c r="T662" t="n">
         <v>14</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53404,32 +53404,32 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N663" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O663" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P663" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1214</v>
+        <v>1125</v>
       </c>
       <c r="T663" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N664" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O664" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P664" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53560,36 +53560,36 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N665" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O665" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="P665" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>812</v>
+        <v>321</v>
       </c>
       <c r="T665" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N666" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O666" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P666" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T666" t="n">
         <v>14</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53724,32 +53724,32 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="N667" t="n">
         <v>4000</v>
       </c>
       <c r="O667" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P667" t="n">
-        <v>4000</v>
+        <v>4188</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="T667" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,36 +53800,36 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="N668" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O668" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="P668" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>125</v>
+        <v>1214</v>
       </c>
       <c r="T668" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53884,32 +53884,32 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N669" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O669" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P669" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>929</v>
+        <v>1125</v>
       </c>
       <c r="T669" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53960,24 +53960,24 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N670" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O670" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P670" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
@@ -53986,10 +53986,10 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>429</v>
+        <v>812</v>
       </c>
       <c r="T670" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54044,16 +54044,16 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N671" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O671" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P671" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T671" t="n">
         <v>14</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54120,11 +54120,11 @@
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N672" t="n">
         <v>4000</v>
@@ -54137,19 +54137,19 @@
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T672" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,36 +54200,36 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N673" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O673" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="P673" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="T673" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,24 +54280,24 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N674" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O674" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P674" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
@@ -54306,10 +54306,10 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>375</v>
+        <v>929</v>
       </c>
       <c r="T674" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="N675" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O675" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P675" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="T675" t="n">
         <v>14</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54444,32 +54444,32 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N676" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O676" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P676" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T676" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54524,32 +54524,32 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N677" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O677" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P677" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="T677" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,20 +54600,20 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="N678" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O678" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P678" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="T678" t="n">
         <v>14</v>
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54680,20 +54680,20 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N679" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O679" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P679" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54702,11 +54702,11 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="T679" t="n">
         <v>16</v>
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,24 +54760,24 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N680" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O680" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P680" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
@@ -54786,10 +54786,10 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>938</v>
+        <v>250</v>
       </c>
       <c r="T680" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="681">
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54844,32 +54844,32 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N681" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O681" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P681" t="n">
-        <v>5455</v>
+        <v>4000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="T681" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54920,20 +54920,20 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M682" t="n">
         <v>200</v>
       </c>
       <c r="N682" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O682" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P682" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="T682" t="n">
         <v>16</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,36 +55000,36 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N683" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O683" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P683" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S683" t="n">
-        <v>389</v>
+        <v>143</v>
       </c>
       <c r="T683" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,20 +55080,20 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N684" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O684" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P684" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>438</v>
+        <v>156</v>
       </c>
       <c r="T684" t="n">
         <v>16</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,36 +55160,36 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N685" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O685" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P685" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>214</v>
+        <v>938</v>
       </c>
       <c r="T685" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55244,16 +55244,16 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N686" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O686" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P686" t="n">
-        <v>4500</v>
+        <v>5455</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="T686" t="n">
         <v>14</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55324,32 +55324,32 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N687" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O687" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P687" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="T687" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55404,20 +55404,20 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N688" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O688" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P688" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
@@ -55426,10 +55426,10 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="T688" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55480,36 +55480,36 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N689" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O689" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P689" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="T689" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55560,20 +55560,20 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N690" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O690" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P690" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55582,11 +55582,11 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T690" t="n">
         <v>14</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55644,32 +55644,32 @@
         </is>
       </c>
       <c r="M691" t="n">
-        <v>640</v>
+        <v>350</v>
       </c>
       <c r="N691" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O691" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P691" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="T691" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,20 +55720,20 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="N692" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="O692" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="P692" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="T692" t="n">
         <v>14</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55804,32 +55804,32 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N693" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O693" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P693" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>643</v>
+        <v>312</v>
       </c>
       <c r="T693" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="694">
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55884,20 +55884,20 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="N694" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O694" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P694" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
@@ -55906,10 +55906,10 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,20 +55960,20 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N695" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O695" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P695" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="T695" t="n">
         <v>14</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56040,36 +56040,36 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="N696" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O696" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P696" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T696" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56120,36 +56120,36 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N697" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O697" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P697" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="T697" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="698">
@@ -56200,36 +56200,36 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N698" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O698" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P698" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>312</v>
+        <v>643</v>
       </c>
       <c r="T698" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56284,20 +56284,20 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N699" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O699" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P699" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
@@ -56306,10 +56306,10 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T699" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N700" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O700" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P700" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56382,11 +56382,11 @@
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T700" t="n">
         <v>14</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,36 +56440,36 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N701" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O701" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P701" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="T701" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56527,17 +56527,17 @@
         <v>200</v>
       </c>
       <c r="N702" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O702" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P702" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,10 +56546,10 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="T702" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,24 +56600,24 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N703" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O703" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P703" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
@@ -56626,10 +56626,10 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="T703" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56684,16 +56684,16 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="N704" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O704" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P704" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T704" t="n">
         <v>14</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="N705" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O705" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P705" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="T705" t="n">
         <v>14</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56840,24 +56840,24 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N706" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O706" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P706" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,10 +56866,10 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>714</v>
+        <v>312</v>
       </c>
       <c r="T706" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56920,36 +56920,36 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N707" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O707" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P707" t="n">
-        <v>10333</v>
+        <v>3000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>574</v>
+        <v>214</v>
       </c>
       <c r="T707" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57000,20 +57000,20 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N708" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O708" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P708" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="T708" t="n">
         <v>14</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N709" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O709" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P709" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57102,11 +57102,11 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>714</v>
+        <v>250</v>
       </c>
       <c r="T709" t="n">
         <v>14</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N710" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O710" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P710" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>857</v>
+        <v>179</v>
       </c>
       <c r="T710" t="n">
         <v>14</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57244,32 +57244,32 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N711" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O711" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P711" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="T711" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N712" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O712" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P712" t="n">
-        <v>3500</v>
+        <v>10333</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>250</v>
+        <v>574</v>
       </c>
       <c r="T712" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57400,36 +57400,36 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N713" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O713" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P713" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>1000</v>
+        <v>429</v>
       </c>
       <c r="T713" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N714" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O714" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P714" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57502,11 +57502,11 @@
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T714" t="n">
         <v>14</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N715" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O715" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P715" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57582,11 +57582,11 @@
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T715" t="n">
         <v>14</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,36 +57640,36 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M716" t="n">
         <v>700</v>
       </c>
       <c r="N716" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O716" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P716" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>286</v>
+        <v>688</v>
       </c>
       <c r="T716" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57724,32 +57724,32 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N717" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O717" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P717" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T717" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,32 +57804,32 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="N718" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O718" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P718" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T718" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57880,36 +57880,36 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N719" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O719" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P719" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>281</v>
+        <v>929</v>
       </c>
       <c r="T719" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,36 +57960,36 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N720" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O720" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P720" t="n">
-        <v>4273</v>
+        <v>11000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>267</v>
+        <v>786</v>
       </c>
       <c r="T720" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,36 +58040,36 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="N721" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O721" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P721" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58124,32 +58124,32 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N722" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O722" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P722" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="T722" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58204,32 +58204,32 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="N723" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O723" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P723" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T723" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58284,16 +58284,16 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N724" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O724" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P724" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="T724" t="n">
         <v>16</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,20 +58360,20 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="N725" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O725" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P725" t="n">
-        <v>3000</v>
+        <v>4273</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="T725" t="n">
         <v>16</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58440,24 +58440,24 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N726" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O726" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P726" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
@@ -58466,10 +58466,10 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="T726" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N727" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O727" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P727" t="n">
-        <v>10667</v>
+        <v>4000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>762</v>
+        <v>286</v>
       </c>
       <c r="T727" t="n">
         <v>14</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,36 +58600,36 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N728" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O728" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P728" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>857</v>
+        <v>375</v>
       </c>
       <c r="T728" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58684,7 +58684,7 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N729" t="n">
         <v>5000</v>
@@ -58697,19 +58697,19 @@
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="T729" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E730" t="n">
         <v>7</v>
@@ -58760,36 +58760,36 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N730" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O730" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P730" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="T730" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58840,36 +58840,36 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N731" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O731" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P731" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>333</v>
+        <v>714</v>
       </c>
       <c r="T731" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N732" t="n">
         <v>10000</v>
       </c>
       <c r="O732" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P732" t="n">
-        <v>10000</v>
+        <v>10667</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>625</v>
+        <v>762</v>
       </c>
       <c r="T732" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N733" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O733" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P733" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T733" t="n">
         <v>14</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E734" t="n">
         <v>7</v>
@@ -59084,16 +59084,16 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N734" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O734" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P734" t="n">
-        <v>3769</v>
+        <v>5000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="T734" t="n">
         <v>14</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E735" t="n">
         <v>7</v>
@@ -59160,36 +59160,36 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N735" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O735" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P735" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="T735" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59240,36 +59240,36 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N736" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O736" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P736" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="T736" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59324,32 +59324,32 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T737" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N738" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O738" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P738" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T738" t="n">
         <v>14</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="N739" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O739" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P739" t="n">
-        <v>15000</v>
+        <v>3769</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>938</v>
+        <v>269</v>
       </c>
       <c r="T739" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N740" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O740" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P740" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59582,11 +59582,11 @@
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>929</v>
+        <v>214</v>
       </c>
       <c r="T740" t="n">
         <v>14</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59644,32 +59644,32 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N741" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O741" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P741" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>750</v>
+        <v>179</v>
       </c>
       <c r="T741" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="742">
@@ -59720,36 +59720,36 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N742" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O742" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P742" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>438</v>
+        <v>857</v>
       </c>
       <c r="T742" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E743" t="n">
         <v>7</v>
@@ -59804,32 +59804,32 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N743" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O743" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P743" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59880,36 +59880,36 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N744" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O744" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P744" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="T744" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59964,32 +59964,32 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N745" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O745" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P745" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>750</v>
+        <v>929</v>
       </c>
       <c r="T745" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E746" t="n">
         <v>7</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N746" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O746" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P746" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T746" t="n">
         <v>16</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E747" t="n">
         <v>7</v>
@@ -60120,36 +60120,36 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N747" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O747" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P747" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>786</v>
+        <v>438</v>
       </c>
       <c r="T747" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60200,36 +60200,36 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M748" t="n">
         <v>300</v>
       </c>
       <c r="N748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1143</v>
+        <v>938</v>
       </c>
       <c r="T748" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60280,36 +60280,36 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N749" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O749" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P749" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T749" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60360,36 +60360,36 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="N750" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O750" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P750" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1214</v>
+        <v>750</v>
       </c>
       <c r="T750" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E751" t="n">
         <v>7</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="N751" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O751" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P751" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T751" t="n">
         <v>16</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60524,32 +60524,32 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N752" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O752" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P752" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T752" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N753" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O753" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P753" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T753" t="n">
         <v>14</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E754" t="n">
         <v>7</v>
@@ -60680,36 +60680,36 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="N754" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O754" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P754" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T754" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E755" t="n">
         <v>7</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="N755" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O755" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P755" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>500</v>
+        <v>1214</v>
       </c>
       <c r="T755" t="n">
         <v>14</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E756" t="n">
         <v>7</v>
@@ -60840,36 +60840,36 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N756" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O756" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P756" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T756" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60920,24 +60920,24 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N757" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O757" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P757" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1214</v>
+        <v>938</v>
       </c>
       <c r="T757" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N758" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O758" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P758" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61022,11 +61022,11 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T758" t="n">
         <v>14</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61080,11 +61080,11 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N759" t="n">
         <v>14000</v>
@@ -61102,7 +61102,7 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S759" t="n">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E760" t="n">
         <v>7</v>
@@ -61160,24 +61160,24 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N760" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O760" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="P760" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
@@ -61186,10 +61186,10 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="T760" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61244,16 +61244,16 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N761" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="O761" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="P761" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>214</v>
+        <v>1143</v>
       </c>
       <c r="T761" t="n">
         <v>14</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E762" t="n">
         <v>7</v>
@@ -61320,24 +61320,24 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="N762" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O762" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P762" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
@@ -61346,10 +61346,10 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T762" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E763" t="n">
         <v>7</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N763" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O763" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P763" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>250</v>
+        <v>1214</v>
       </c>
       <c r="T763" t="n">
         <v>14</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E764" t="n">
         <v>7</v>
@@ -61480,24 +61480,24 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="N764" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O764" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P764" t="n">
-        <v>3608</v>
+        <v>14000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,10 +61506,10 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>226</v>
+        <v>1000</v>
       </c>
       <c r="T764" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61564,32 +61564,32 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N765" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O765" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="P765" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="T765" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N766" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O766" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P766" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T766" t="n">
         <v>14</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61720,20 +61720,20 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N767" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O767" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P767" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T767" t="n">
         <v>16</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E768" t="n">
         <v>7</v>
@@ -61800,36 +61800,36 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="N768" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O768" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P768" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T768" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="N769" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O769" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P769" t="n">
-        <v>14000</v>
+        <v>3608</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>875</v>
+        <v>226</v>
       </c>
       <c r="T769" t="n">
         <v>16</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61960,36 +61960,36 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N770" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O770" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P770" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>786</v>
+        <v>278</v>
       </c>
       <c r="T770" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N771" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O771" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P771" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>750</v>
+        <v>143</v>
       </c>
       <c r="T771" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E772" t="n">
         <v>7</v>
@@ -62127,13 +62127,13 @@
         <v>100</v>
       </c>
       <c r="N772" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="O772" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="P772" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>562</v>
+        <v>156</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N773" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O773" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P773" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T773" t="n">
         <v>16</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="N774" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O774" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P774" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T774" t="n">
         <v>16</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,36 +62360,36 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M775" t="n">
         <v>300</v>
       </c>
       <c r="N775" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O775" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P775" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1125</v>
+        <v>786</v>
       </c>
       <c r="T775" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E776" t="n">
         <v>7</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="N776" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O776" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P776" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T776" t="n">
         <v>16</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E777" t="n">
         <v>7</v>
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N777" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O777" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P777" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T777" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62604,16 +62604,16 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N778" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O778" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P778" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T778" t="n">
         <v>16</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N779" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O779" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P779" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>278</v>
+        <v>1125</v>
       </c>
       <c r="T779" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N780" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O780" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P780" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="T780" t="n">
         <v>16</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E781" t="n">
         <v>7</v>
@@ -62840,24 +62840,24 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="N781" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O781" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P781" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
@@ -62866,10 +62866,10 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T781" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N782" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O782" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P782" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T782" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63000,20 +63000,20 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N783" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O783" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P783" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T783" t="n">
         <v>16</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63080,36 +63080,36 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N784" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O784" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P784" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T784" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N785" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O785" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P785" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="T785" t="n">
         <v>16</v>
@@ -63240,36 +63240,36 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N786" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O786" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P786" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>438</v>
+        <v>786</v>
       </c>
       <c r="T786" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63320,36 +63320,36 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N787" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O787" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P787" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="T787" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E788" t="n">
         <v>7</v>
@@ -63407,17 +63407,17 @@
         <v>300</v>
       </c>
       <c r="N788" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O788" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P788" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,10 +63426,10 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T788" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E789" t="n">
         <v>7</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="N789" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O789" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P789" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="T789" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E790" t="n">
         <v>7</v>
@@ -63564,20 +63564,20 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N790" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O790" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P790" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="T790" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E791" t="n">
         <v>7</v>
@@ -63640,24 +63640,24 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="N791" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O791" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P791" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
@@ -63666,10 +63666,10 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="T791" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63724,16 +63724,16 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N792" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O792" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P792" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="T792" t="n">
         <v>14</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63800,24 +63800,24 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N793" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O793" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P793" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>375</v>
+        <v>857</v>
       </c>
       <c r="T793" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E794" t="n">
         <v>7</v>
@@ -63880,36 +63880,36 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N794" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O794" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P794" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>389</v>
+        <v>812</v>
       </c>
       <c r="T794" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="795">
@@ -63927,68 +63927,468 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E795" t="n">
+        <v>7</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M795" t="n">
+        <v>200</v>
+      </c>
+      <c r="N795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q795" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S795" t="n">
+        <v>714</v>
+      </c>
+      <c r="T795" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>5</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E795" t="n">
-        <v>7</v>
-      </c>
-      <c r="F795" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G795" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H795" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I795" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J795" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L795" t="inlineStr">
+      <c r="E796" t="n">
+        <v>7</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M796" t="n">
+        <v>550</v>
+      </c>
+      <c r="N796" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O796" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P796" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q796" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S796" t="n">
+        <v>357</v>
+      </c>
+      <c r="T796" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>5</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D797" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E797" t="n">
+        <v>7</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G797" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I797" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M797" t="n">
+        <v>400</v>
+      </c>
+      <c r="N797" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O797" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P797" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q797" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R797" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S797" t="n">
+        <v>357</v>
+      </c>
+      <c r="T797" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>5</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D798" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E798" t="n">
+        <v>7</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G798" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I798" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M798" t="n">
+        <v>210</v>
+      </c>
+      <c r="N798" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O798" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P798" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q798" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R798" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S798" t="n">
+        <v>375</v>
+      </c>
+      <c r="T798" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>5</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D799" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E799" t="n">
+        <v>7</v>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G799" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I799" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M799" t="n">
+        <v>250</v>
+      </c>
+      <c r="N799" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O799" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P799" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q799" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R799" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S799" t="n">
+        <v>389</v>
+      </c>
+      <c r="T799" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>5</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D800" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E800" t="n">
+        <v>7</v>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G800" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I800" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L800" t="inlineStr">
         <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M795" t="n">
+      <c r="M800" t="n">
         <v>150</v>
       </c>
-      <c r="N795" t="n">
+      <c r="N800" t="n">
         <v>4000</v>
       </c>
-      <c r="O795" t="n">
+      <c r="O800" t="n">
         <v>4000</v>
       </c>
-      <c r="P795" t="n">
+      <c r="P800" t="n">
         <v>4000</v>
       </c>
-      <c r="Q795" t="inlineStr">
+      <c r="Q800" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R795" t="inlineStr">
+      <c r="R800" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S795" t="n">
+      <c r="S800" t="n">
         <v>286</v>
       </c>
-      <c r="T795" t="n">
+      <c r="T800" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T800"/>
+  <dimension ref="A1:T802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61564,32 +61564,32 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N765" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O765" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="P765" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="T765" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61644,16 +61644,16 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N766" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O766" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P766" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61662,11 +61662,11 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="T766" t="n">
         <v>14</v>
@@ -61724,20 +61724,20 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N767" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O767" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="P767" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,10 +61746,10 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T767" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E768" t="n">
         <v>7</v>
@@ -61804,16 +61804,16 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="N768" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O768" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P768" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T768" t="n">
         <v>14</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>510</v>
+        <v>320</v>
       </c>
       <c r="N769" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O769" t="n">
         <v>4000</v>
       </c>
       <c r="P769" t="n">
-        <v>3608</v>
+        <v>4000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="T769" t="n">
         <v>16</v>
@@ -61964,32 +61964,32 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N770" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O770" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P770" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T770" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771">
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="N771" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O771" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P771" t="n">
-        <v>2000</v>
+        <v>3608</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="T771" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="772">
@@ -62120,36 +62120,36 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N772" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O772" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P772" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="T772" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62200,36 +62200,36 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N773" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O773" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P773" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1000</v>
+        <v>143</v>
       </c>
       <c r="T773" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="N774" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="O774" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="P774" t="n">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>875</v>
+        <v>156</v>
       </c>
       <c r="T774" t="n">
         <v>16</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,36 +62360,36 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N775" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O775" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P775" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>786</v>
+        <v>1000</v>
       </c>
       <c r="T775" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="776">
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N776" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O776" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P776" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T776" t="n">
         <v>16</v>
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N777" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O777" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P777" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>562</v>
+        <v>786</v>
       </c>
       <c r="T777" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N778" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O778" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P778" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T778" t="n">
         <v>16</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N779" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O779" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P779" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1125</v>
+        <v>562</v>
       </c>
       <c r="T779" t="n">
         <v>16</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N780" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O780" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P780" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T780" t="n">
         <v>16</v>
@@ -62844,16 +62844,16 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N781" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O781" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P781" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T781" t="n">
         <v>16</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N782" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="O782" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="P782" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T782" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63000,20 +63000,20 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N783" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O783" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P783" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63022,11 +63022,11 @@
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T783" t="n">
         <v>16</v>
@@ -63084,32 +63084,32 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N784" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O784" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P784" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T784" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="785">
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N785" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O785" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P785" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="T785" t="n">
         <v>16</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E786" t="n">
         <v>7</v>
@@ -63244,32 +63244,32 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N786" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O786" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P786" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>786</v>
+        <v>278</v>
       </c>
       <c r="T786" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63320,20 +63320,20 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N787" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O787" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P787" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63342,11 +63342,11 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>875</v>
+        <v>125</v>
       </c>
       <c r="T787" t="n">
         <v>16</v>
@@ -63400,36 +63400,36 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N788" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O788" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P788" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>875</v>
+        <v>786</v>
       </c>
       <c r="T788" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="789">
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N789" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O789" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P789" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T789" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="790">
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N790" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O790" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P790" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T790" t="n">
         <v>16</v>
@@ -63640,36 +63640,36 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N791" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O791" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P791" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>438</v>
+        <v>857</v>
       </c>
       <c r="T791" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63720,36 +63720,36 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N792" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O792" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P792" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="T792" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63800,24 +63800,24 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N793" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O793" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P793" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>857</v>
+        <v>438</v>
       </c>
       <c r="T793" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="794">
@@ -63880,36 +63880,36 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N794" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O794" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P794" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>812</v>
+        <v>714</v>
       </c>
       <c r="T794" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="795">
@@ -63960,20 +63960,20 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N795" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O795" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P795" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T795" t="n">
         <v>14</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E796" t="n">
         <v>7</v>
@@ -64040,36 +64040,36 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="N796" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O796" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P796" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>357</v>
+        <v>812</v>
       </c>
       <c r="T796" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E797" t="n">
         <v>7</v>
@@ -64120,20 +64120,20 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N797" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O797" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P797" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64142,11 +64142,11 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="T797" t="n">
         <v>14</v>
@@ -64204,20 +64204,20 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="N798" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O798" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P798" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
@@ -64226,10 +64226,10 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="T798" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="799">
@@ -64284,32 +64284,32 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N799" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O799" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P799" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="T799" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="800">
@@ -64360,35 +64360,195 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M800" t="n">
+        <v>210</v>
+      </c>
+      <c r="N800" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O800" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P800" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q800" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R800" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S800" t="n">
+        <v>375</v>
+      </c>
+      <c r="T800" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>5</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D801" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E801" t="n">
+        <v>7</v>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G801" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I801" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M801" t="n">
+        <v>250</v>
+      </c>
+      <c r="N801" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O801" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P801" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q801" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R801" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S801" t="n">
+        <v>389</v>
+      </c>
+      <c r="T801" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>5</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D802" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E802" t="n">
+        <v>7</v>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G802" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I802" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M800" t="n">
+      <c r="M802" t="n">
         <v>150</v>
       </c>
-      <c r="N800" t="n">
+      <c r="N802" t="n">
         <v>4000</v>
       </c>
-      <c r="O800" t="n">
+      <c r="O802" t="n">
         <v>4000</v>
       </c>
-      <c r="P800" t="n">
+      <c r="P802" t="n">
         <v>4000</v>
       </c>
-      <c r="Q800" t="inlineStr">
+      <c r="Q802" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R800" t="inlineStr">
+      <c r="R802" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S800" t="n">
+      <c r="S802" t="n">
         <v>286</v>
       </c>
-      <c r="T800" t="n">
+      <c r="T802" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T806"/>
+  <dimension ref="A1:T811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,20 +53400,20 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M663" t="n">
         <v>300</v>
       </c>
       <c r="N663" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O663" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P663" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>929</v>
+        <v>429</v>
       </c>
       <c r="T663" t="n">
         <v>14</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N664" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="P664" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>857</v>
+        <v>393</v>
       </c>
       <c r="T664" t="n">
         <v>14</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53564,32 +53564,32 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N665" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O665" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P665" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1062</v>
+        <v>389</v>
       </c>
       <c r="T665" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,36 +53640,36 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N666" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O666" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P666" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1214</v>
+        <v>444</v>
       </c>
       <c r="T666" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="667">
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53724,32 +53724,32 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N667" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O667" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P667" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>1125</v>
+        <v>429</v>
       </c>
       <c r="T667" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668">
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53800,36 +53800,36 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="N668" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O668" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P668" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>875</v>
+        <v>929</v>
       </c>
       <c r="T668" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N669" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O669" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P669" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>321</v>
+        <v>857</v>
       </c>
       <c r="T669" t="n">
         <v>14</v>
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E670" t="n">
         <v>7</v>
@@ -53964,32 +53964,32 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N670" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O670" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P670" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>286</v>
+        <v>1062</v>
       </c>
       <c r="T670" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="671">
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N671" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O671" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P671" t="n">
-        <v>4188</v>
+        <v>17000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54066,7 +54066,7 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>299</v>
+        <v>1214</v>
       </c>
       <c r="T671" t="n">
         <v>14</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54124,32 +54124,32 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="N672" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O672" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P672" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>1214</v>
+        <v>1125</v>
       </c>
       <c r="T672" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,20 +54200,20 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N673" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O673" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P673" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T673" t="n">
         <v>16</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E674" t="n">
         <v>7</v>
@@ -54280,36 +54280,36 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N674" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O674" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="P674" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>812</v>
+        <v>321</v>
       </c>
       <c r="T674" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E675" t="n">
         <v>7</v>
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N675" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O675" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P675" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T675" t="n">
         <v>14</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E676" t="n">
         <v>7</v>
@@ -54444,32 +54444,32 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="N676" t="n">
         <v>4000</v>
       </c>
       <c r="O676" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P676" t="n">
-        <v>4000</v>
+        <v>4188</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="T676" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="677">
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E677" t="n">
         <v>7</v>
@@ -54520,36 +54520,36 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="N677" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O677" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="P677" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>125</v>
+        <v>1214</v>
       </c>
       <c r="T677" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="678">
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54604,32 +54604,32 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N678" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O678" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P678" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>929</v>
+        <v>1125</v>
       </c>
       <c r="T678" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54680,24 +54680,24 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="N679" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O679" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P679" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
@@ -54706,10 +54706,10 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>429</v>
+        <v>812</v>
       </c>
       <c r="T679" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N680" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O680" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P680" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T680" t="n">
         <v>14</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E681" t="n">
         <v>7</v>
@@ -54840,11 +54840,11 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N681" t="n">
         <v>4000</v>
@@ -54857,19 +54857,19 @@
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T681" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44481</v>
+        <v>44407</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54920,36 +54920,36 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N682" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O682" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="P682" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="T682" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44481</v>
+        <v>44186</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,24 +55000,24 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N683" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O683" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P683" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R683" t="inlineStr">
@@ -55026,10 +55026,10 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>375</v>
+        <v>929</v>
       </c>
       <c r="T683" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55084,16 +55084,16 @@
         </is>
       </c>
       <c r="M684" t="n">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="N684" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O684" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P684" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="T684" t="n">
         <v>14</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55164,32 +55164,32 @@
         </is>
       </c>
       <c r="M685" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N685" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O685" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P685" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T685" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55244,32 +55244,32 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N686" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O686" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P686" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="T686" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="N687" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O687" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P687" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="T687" t="n">
         <v>14</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55400,20 +55400,20 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N688" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O688" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P688" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55422,11 +55422,11 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>156</v>
+        <v>375</v>
       </c>
       <c r="T688" t="n">
         <v>16</v>
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55480,24 +55480,24 @@
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N689" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O689" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P689" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
@@ -55506,10 +55506,10 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>938</v>
+        <v>250</v>
       </c>
       <c r="T689" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55564,32 +55564,32 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N690" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O690" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P690" t="n">
-        <v>5455</v>
+        <v>4000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S690" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="T690" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E691" t="n">
         <v>7</v>
@@ -55640,20 +55640,20 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M691" t="n">
         <v>200</v>
       </c>
       <c r="N691" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O691" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P691" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="T691" t="n">
         <v>16</v>
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E692" t="n">
         <v>7</v>
@@ -55720,36 +55720,36 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N692" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O692" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P692" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>389</v>
+        <v>143</v>
       </c>
       <c r="T692" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E693" t="n">
         <v>7</v>
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N693" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O693" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P693" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>438</v>
+        <v>156</v>
       </c>
       <c r="T693" t="n">
         <v>16</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,36 +55880,36 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N694" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O694" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P694" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S694" t="n">
-        <v>214</v>
+        <v>938</v>
       </c>
       <c r="T694" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N695" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O695" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P695" t="n">
-        <v>4500</v>
+        <v>5455</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="T695" t="n">
         <v>14</v>
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56044,32 +56044,32 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N696" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O696" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P696" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="T696" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56124,20 +56124,20 @@
         </is>
       </c>
       <c r="M697" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P697" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
@@ -56146,10 +56146,10 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="T697" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56200,36 +56200,36 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N698" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O698" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P698" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="T698" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E699" t="n">
         <v>7</v>
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N699" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O699" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P699" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56302,11 +56302,11 @@
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T699" t="n">
         <v>14</v>
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E700" t="n">
         <v>7</v>
@@ -56364,32 +56364,32 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>640</v>
+        <v>350</v>
       </c>
       <c r="N700" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O700" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P700" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S700" t="n">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="T700" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="N701" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="O701" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="P701" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="T701" t="n">
         <v>14</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56524,32 +56524,32 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N702" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O702" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P702" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S702" t="n">
-        <v>643</v>
+        <v>312</v>
       </c>
       <c r="T702" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56604,20 +56604,20 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="N703" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O703" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P703" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
@@ -56626,10 +56626,10 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T703" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56680,20 +56680,20 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N704" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O704" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P704" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="T704" t="n">
         <v>14</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56760,36 +56760,36 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="N705" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O705" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P705" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T705" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56840,36 +56840,36 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N706" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O706" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P706" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="T706" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="707">
@@ -56920,36 +56920,36 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N707" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O707" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P707" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>312</v>
+        <v>643</v>
       </c>
       <c r="T707" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57004,20 +57004,20 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N708" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O708" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P708" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
@@ -57026,10 +57026,10 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T708" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="N709" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O709" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P709" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57102,11 +57102,11 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>286</v>
+        <v>500</v>
       </c>
       <c r="T709" t="n">
         <v>14</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,36 +57160,36 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N710" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O710" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P710" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="T710" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57247,17 +57247,17 @@
         <v>200</v>
       </c>
       <c r="N711" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O711" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P711" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
@@ -57266,10 +57266,10 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="T711" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,24 +57320,24 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N712" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O712" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P712" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
@@ -57346,10 +57346,10 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="T712" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="N713" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O713" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P713" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="T713" t="n">
         <v>14</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="N714" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O714" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P714" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="T714" t="n">
         <v>14</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,24 +57560,24 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N715" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O715" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P715" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
@@ -57586,10 +57586,10 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>714</v>
+        <v>312</v>
       </c>
       <c r="T715" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,36 +57640,36 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N716" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O716" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P716" t="n">
-        <v>10333</v>
+        <v>3000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>574</v>
+        <v>214</v>
       </c>
       <c r="T716" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="T717" t="n">
         <v>14</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N718" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O718" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P718" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57822,11 +57822,11 @@
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>714</v>
+        <v>250</v>
       </c>
       <c r="T718" t="n">
         <v>14</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N719" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O719" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P719" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57902,11 +57902,11 @@
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>857</v>
+        <v>179</v>
       </c>
       <c r="T719" t="n">
         <v>14</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57964,32 +57964,32 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N720" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O720" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P720" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="T720" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,36 +58040,36 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N721" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O721" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P721" t="n">
-        <v>3500</v>
+        <v>10333</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>250</v>
+        <v>574</v>
       </c>
       <c r="T721" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44286</v>
+        <v>44168</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58120,36 +58120,36 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N722" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O722" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P722" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>1000</v>
+        <v>429</v>
       </c>
       <c r="T722" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N723" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O723" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P723" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>929</v>
+        <v>714</v>
       </c>
       <c r="T723" t="n">
         <v>14</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N724" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O724" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P724" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T724" t="n">
         <v>14</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,36 +58360,36 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M725" t="n">
         <v>700</v>
       </c>
       <c r="N725" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O725" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P725" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>286</v>
+        <v>688</v>
       </c>
       <c r="T725" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58444,32 +58444,32 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N726" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O726" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P726" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T726" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58524,32 +58524,32 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="N727" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O727" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P727" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T727" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,36 +58600,36 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N728" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O728" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P728" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>281</v>
+        <v>929</v>
       </c>
       <c r="T728" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58680,36 +58680,36 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="N729" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O729" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P729" t="n">
-        <v>4273</v>
+        <v>11000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>267</v>
+        <v>786</v>
       </c>
       <c r="T729" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E730" t="n">
         <v>7</v>
@@ -58760,36 +58760,36 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="N730" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O730" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P730" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="T730" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58844,32 +58844,32 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N731" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O731" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P731" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="T731" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="N732" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O732" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P732" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="T732" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59004,16 +59004,16 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N733" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O733" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P733" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="T733" t="n">
         <v>16</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E734" t="n">
         <v>7</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="N734" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O734" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P734" t="n">
-        <v>3000</v>
+        <v>4273</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="T734" t="n">
         <v>16</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E735" t="n">
         <v>7</v>
@@ -59160,24 +59160,24 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N735" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O735" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P735" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
@@ -59186,10 +59186,10 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>714</v>
+        <v>188</v>
       </c>
       <c r="T735" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59244,16 +59244,16 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N736" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O736" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P736" t="n">
-        <v>10667</v>
+        <v>4000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>762</v>
+        <v>286</v>
       </c>
       <c r="T736" t="n">
         <v>14</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59320,36 +59320,36 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N737" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O737" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P737" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>857</v>
+        <v>375</v>
       </c>
       <c r="T737" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59404,7 +59404,7 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N738" t="n">
         <v>5000</v>
@@ -59417,19 +59417,19 @@
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="T738" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="N739" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O739" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P739" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>444</v>
+        <v>188</v>
       </c>
       <c r="T739" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59560,36 +59560,36 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N740" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O740" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P740" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>333</v>
+        <v>714</v>
       </c>
       <c r="T740" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59644,32 +59644,32 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N741" t="n">
         <v>10000</v>
       </c>
       <c r="O741" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P741" t="n">
-        <v>10000</v>
+        <v>10667</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>625</v>
+        <v>762</v>
       </c>
       <c r="T741" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N742" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O742" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P742" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>500</v>
+        <v>857</v>
       </c>
       <c r="T742" t="n">
         <v>14</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E743" t="n">
         <v>7</v>
@@ -59804,16 +59804,16 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N743" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O743" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P743" t="n">
-        <v>3769</v>
+        <v>5000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="T743" t="n">
         <v>14</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59880,36 +59880,36 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N744" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O744" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P744" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="T744" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,36 +59960,36 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N745" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O745" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P745" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="T745" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E746" t="n">
         <v>7</v>
@@ -60044,32 +60044,32 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N746" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O746" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P746" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T746" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E747" t="n">
         <v>7</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N747" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O747" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P747" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T747" t="n">
         <v>14</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60200,36 +60200,36 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="N748" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O748" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P748" t="n">
-        <v>15000</v>
+        <v>3769</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>938</v>
+        <v>269</v>
       </c>
       <c r="T748" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N749" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O749" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P749" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>929</v>
+        <v>214</v>
       </c>
       <c r="T749" t="n">
         <v>14</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60364,32 +60364,32 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N750" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O750" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P750" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>750</v>
+        <v>179</v>
       </c>
       <c r="T750" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="751">
@@ -60440,36 +60440,36 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N751" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O751" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P751" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>438</v>
+        <v>857</v>
       </c>
       <c r="T751" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60524,32 +60524,32 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N752" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O752" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P752" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T752" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N753" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O753" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P753" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="T753" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E754" t="n">
         <v>7</v>
@@ -60684,32 +60684,32 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P754" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>750</v>
+        <v>929</v>
       </c>
       <c r="T754" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E755" t="n">
         <v>7</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N755" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O755" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P755" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T755" t="n">
         <v>16</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E756" t="n">
         <v>7</v>
@@ -60840,36 +60840,36 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N756" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O756" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P756" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>786</v>
+        <v>438</v>
       </c>
       <c r="T756" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60920,36 +60920,36 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M757" t="n">
         <v>300</v>
       </c>
       <c r="N757" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O757" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P757" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1143</v>
+        <v>938</v>
       </c>
       <c r="T757" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,36 +61000,36 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N758" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O758" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P758" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T758" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61080,36 +61080,36 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="N759" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O759" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P759" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>1214</v>
+        <v>750</v>
       </c>
       <c r="T759" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E760" t="n">
         <v>7</v>
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="N760" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O760" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P760" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T760" t="n">
         <v>16</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61244,32 +61244,32 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N761" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O761" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P761" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T761" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E762" t="n">
         <v>7</v>
@@ -61324,16 +61324,16 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N762" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O762" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P762" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1071</v>
+        <v>1143</v>
       </c>
       <c r="T762" t="n">
         <v>14</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E763" t="n">
         <v>7</v>
@@ -61400,36 +61400,36 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="N763" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O763" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P763" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="T763" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E764" t="n">
         <v>7</v>
@@ -61480,20 +61480,20 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="N764" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O764" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P764" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>500</v>
+        <v>1214</v>
       </c>
       <c r="T764" t="n">
         <v>14</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N765" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O765" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P765" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="T765" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61640,24 +61640,24 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N766" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O766" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P766" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1214</v>
+        <v>938</v>
       </c>
       <c r="T766" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61720,20 +61720,20 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N767" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O767" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P767" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1214</v>
+        <v>1071</v>
       </c>
       <c r="T767" t="n">
         <v>14</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E768" t="n">
         <v>7</v>
@@ -61800,11 +61800,11 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="N768" t="n">
         <v>14000</v>
@@ -61822,7 +61822,7 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S768" t="n">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N769" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O769" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P769" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>357</v>
+        <v>500</v>
       </c>
       <c r="T769" t="n">
         <v>14</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N770" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O770" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P770" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61982,11 +61982,11 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>357</v>
+        <v>1143</v>
       </c>
       <c r="T770" t="n">
         <v>14</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62040,24 +62040,24 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N771" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="O771" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="P771" t="n">
-        <v>100000</v>
+        <v>17000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
@@ -62066,10 +62066,10 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>222</v>
+        <v>1214</v>
       </c>
       <c r="T771" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E772" t="n">
         <v>7</v>
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N772" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="O772" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="P772" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>214</v>
+        <v>1214</v>
       </c>
       <c r="T772" t="n">
         <v>14</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62200,24 +62200,24 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N773" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O773" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P773" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T773" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N774" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O774" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P774" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T774" t="n">
         <v>14</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62364,32 +62364,32 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="N775" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O775" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P775" t="n">
-        <v>3608</v>
+        <v>5000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="T775" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E776" t="n">
         <v>7</v>
@@ -62444,32 +62444,32 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N776" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="O776" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="P776" t="n">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="T776" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E777" t="n">
         <v>7</v>
@@ -62520,20 +62520,20 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N777" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O777" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P777" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T777" t="n">
         <v>14</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N778" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O778" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P778" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T778" t="n">
         <v>16</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="N779" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O779" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P779" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T779" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62764,16 +62764,16 @@
         </is>
       </c>
       <c r="M780" t="n">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="N780" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O780" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P780" t="n">
-        <v>14000</v>
+        <v>3608</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>875</v>
+        <v>226</v>
       </c>
       <c r="T780" t="n">
         <v>16</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E781" t="n">
         <v>7</v>
@@ -62840,36 +62840,36 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N781" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O781" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P781" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>786</v>
+        <v>278</v>
       </c>
       <c r="T781" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N782" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O782" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P782" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>750</v>
+        <v>143</v>
       </c>
       <c r="T782" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63007,13 +63007,13 @@
         <v>100</v>
       </c>
       <c r="N783" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="O783" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="P783" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>562</v>
+        <v>156</v>
       </c>
       <c r="T783" t="n">
         <v>16</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63080,20 +63080,20 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N784" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O784" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P784" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T784" t="n">
         <v>16</v>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="N785" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O785" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P785" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T785" t="n">
         <v>16</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E786" t="n">
         <v>7</v>
@@ -63240,36 +63240,36 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M786" t="n">
         <v>300</v>
       </c>
       <c r="N786" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O786" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P786" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>1125</v>
+        <v>786</v>
       </c>
       <c r="T786" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63320,20 +63320,20 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="N787" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O787" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P787" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63342,11 +63342,11 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T787" t="n">
         <v>16</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E788" t="n">
         <v>7</v>
@@ -63400,36 +63400,36 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N788" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O788" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P788" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="T788" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E789" t="n">
         <v>7</v>
@@ -63484,16 +63484,16 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N789" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O789" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P789" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>250</v>
+        <v>1062</v>
       </c>
       <c r="T789" t="n">
         <v>16</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E790" t="n">
         <v>7</v>
@@ -63560,36 +63560,36 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N790" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O790" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P790" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>278</v>
+        <v>1125</v>
       </c>
       <c r="T790" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E791" t="n">
         <v>7</v>
@@ -63640,20 +63640,20 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N791" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O791" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P791" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="T791" t="n">
         <v>16</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63720,24 +63720,24 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="N792" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O792" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P792" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63746,10 +63746,10 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T792" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63800,36 +63800,36 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N793" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O793" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P793" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T793" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E794" t="n">
         <v>7</v>
@@ -63880,20 +63880,20 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N794" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O794" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P794" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>875</v>
+        <v>250</v>
       </c>
       <c r="T794" t="n">
         <v>16</v>
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E795" t="n">
         <v>7</v>
@@ -63960,36 +63960,36 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N795" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O795" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P795" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T795" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E796" t="n">
         <v>7</v>
@@ -64040,20 +64040,20 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N796" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O796" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P796" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64066,7 +64066,7 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="T796" t="n">
         <v>16</v>
@@ -64120,36 +64120,36 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N797" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O797" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P797" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>438</v>
+        <v>786</v>
       </c>
       <c r="T797" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E798" t="n">
         <v>7</v>
@@ -64200,36 +64200,36 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N798" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O798" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P798" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>714</v>
+        <v>875</v>
       </c>
       <c r="T798" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="799">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E799" t="n">
         <v>7</v>
@@ -64287,17 +64287,17 @@
         <v>300</v>
       </c>
       <c r="N799" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O799" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P799" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
@@ -64306,10 +64306,10 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T799" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E800" t="n">
         <v>7</v>
@@ -64360,36 +64360,36 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="N800" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O800" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P800" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="T800" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E801" t="n">
         <v>7</v>
@@ -64444,20 +64444,20 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N801" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O801" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P801" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,10 +64466,10 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="T801" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E802" t="n">
         <v>7</v>
@@ -64520,24 +64520,24 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="N802" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O802" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P802" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="T802" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E803" t="n">
         <v>7</v>
@@ -64604,16 +64604,16 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N803" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O803" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P803" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64626,7 +64626,7 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="T803" t="n">
         <v>14</v>
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E804" t="n">
         <v>7</v>
@@ -64680,24 +64680,24 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N804" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O804" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P804" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>375</v>
+        <v>857</v>
       </c>
       <c r="T804" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E805" t="n">
         <v>7</v>
@@ -64760,36 +64760,36 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N805" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O805" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P805" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>389</v>
+        <v>812</v>
       </c>
       <c r="T805" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="806">
@@ -64807,68 +64807,468 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E806" t="n">
+        <v>7</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G806" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I806" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M806" t="n">
+        <v>200</v>
+      </c>
+      <c r="N806" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O806" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P806" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q806" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R806" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S806" t="n">
+        <v>714</v>
+      </c>
+      <c r="T806" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>5</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D807" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E806" t="n">
-        <v>7</v>
-      </c>
-      <c r="F806" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G806" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H806" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I806" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J806" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L806" t="inlineStr">
+      <c r="E807" t="n">
+        <v>7</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G807" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I807" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M807" t="n">
+        <v>550</v>
+      </c>
+      <c r="N807" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O807" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P807" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q807" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S807" t="n">
+        <v>357</v>
+      </c>
+      <c r="T807" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>5</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D808" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E808" t="n">
+        <v>7</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G808" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I808" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M808" t="n">
+        <v>400</v>
+      </c>
+      <c r="N808" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O808" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P808" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q808" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S808" t="n">
+        <v>357</v>
+      </c>
+      <c r="T808" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>5</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D809" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E809" t="n">
+        <v>7</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G809" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I809" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M809" t="n">
+        <v>210</v>
+      </c>
+      <c r="N809" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O809" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P809" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q809" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S809" t="n">
+        <v>375</v>
+      </c>
+      <c r="T809" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>5</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D810" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E810" t="n">
+        <v>7</v>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G810" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I810" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M810" t="n">
+        <v>250</v>
+      </c>
+      <c r="N810" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O810" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P810" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q810" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S810" t="n">
+        <v>389</v>
+      </c>
+      <c r="T810" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>5</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D811" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E811" t="n">
+        <v>7</v>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G811" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I811" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L811" t="inlineStr">
         <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M806" t="n">
+      <c r="M811" t="n">
         <v>150</v>
       </c>
-      <c r="N806" t="n">
+      <c r="N811" t="n">
         <v>4000</v>
       </c>
-      <c r="O806" t="n">
+      <c r="O811" t="n">
         <v>4000</v>
       </c>
-      <c r="P806" t="n">
+      <c r="P811" t="n">
         <v>4000</v>
       </c>
-      <c r="Q806" t="inlineStr">
+      <c r="Q811" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R806" t="inlineStr">
+      <c r="R811" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S806" t="n">
+      <c r="S811" t="n">
         <v>286</v>
       </c>
-      <c r="T806" t="n">
+      <c r="T811" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T817"/>
+  <dimension ref="A1:T820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E768" t="n">
         <v>7</v>
@@ -61804,16 +61804,16 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N768" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O768" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P768" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61822,11 +61822,11 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1143</v>
+        <v>429</v>
       </c>
       <c r="T768" t="n">
         <v>14</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61884,32 +61884,32 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="N769" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O769" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P769" t="n">
-        <v>17000</v>
+        <v>5861</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>1062</v>
+        <v>419</v>
       </c>
       <c r="T769" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61960,20 +61960,20 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="N770" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O770" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P770" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1214</v>
+        <v>250</v>
       </c>
       <c r="T770" t="n">
         <v>14</v>
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N771" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O771" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P771" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T771" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="772">
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
         <v>200</v>
       </c>
       <c r="N772" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O772" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P772" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="N773" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O773" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P773" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="T773" t="n">
         <v>14</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="N774" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O774" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P774" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T774" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,24 +62360,24 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N775" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O775" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P775" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T775" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E776" t="n">
         <v>7</v>
@@ -62444,16 +62444,16 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N776" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O776" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P776" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="T776" t="n">
         <v>14</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E777" t="n">
         <v>7</v>
@@ -62524,16 +62524,16 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="N777" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O777" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P777" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T777" t="n">
         <v>14</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N778" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O778" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P778" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62622,11 +62622,11 @@
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>1214</v>
+        <v>500</v>
       </c>
       <c r="T778" t="n">
         <v>14</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N779" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O779" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P779" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="T779" t="n">
         <v>14</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N780" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O780" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P780" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>357</v>
+        <v>1214</v>
       </c>
       <c r="T780" t="n">
         <v>14</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E781" t="n">
         <v>7</v>
@@ -62840,20 +62840,20 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N781" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O781" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P781" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>357</v>
+        <v>1214</v>
       </c>
       <c r="T781" t="n">
         <v>14</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62920,24 +62920,24 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N782" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="O782" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="P782" t="n">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
@@ -62946,10 +62946,10 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>222</v>
+        <v>1000</v>
       </c>
       <c r="T782" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N783" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O783" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P783" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63022,11 +63022,11 @@
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="T783" t="n">
         <v>14</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63084,32 +63084,32 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="N784" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O784" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P784" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T784" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63164,32 +63164,32 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N785" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="O785" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="P785" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T785" t="n">
-        <v>14</v>
+        <v>450</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E786" t="n">
         <v>7</v>
@@ -63244,32 +63244,32 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="N786" t="n">
         <v>3000</v>
       </c>
       <c r="O786" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P786" t="n">
-        <v>3608</v>
+        <v>3000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="T786" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63324,32 +63324,32 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N787" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O787" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P787" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="T787" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="788">
@@ -63400,20 +63400,20 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N788" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O788" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P788" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T788" t="n">
         <v>14</v>
@@ -63480,20 +63480,20 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="N789" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O789" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P789" t="n">
-        <v>2500</v>
+        <v>3608</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="T789" t="n">
         <v>16</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E790" t="n">
         <v>7</v>
@@ -63560,24 +63560,24 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N790" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="O790" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P790" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>1000</v>
+        <v>278</v>
       </c>
       <c r="T790" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E791" t="n">
         <v>7</v>
@@ -63640,36 +63640,36 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N791" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O791" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P791" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>875</v>
+        <v>143</v>
       </c>
       <c r="T791" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63720,36 +63720,36 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N792" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O792" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="P792" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>786</v>
+        <v>156</v>
       </c>
       <c r="T792" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63800,20 +63800,20 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N793" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O793" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P793" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63822,11 +63822,11 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T793" t="n">
         <v>16</v>
@@ -63880,20 +63880,20 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N794" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O794" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P794" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T794" t="n">
         <v>16</v>
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E795" t="n">
         <v>7</v>
@@ -63960,36 +63960,36 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N795" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O795" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P795" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>1062</v>
+        <v>786</v>
       </c>
       <c r="T795" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E796" t="n">
         <v>7</v>
@@ -64040,20 +64040,20 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N796" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O796" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P796" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64066,7 +64066,7 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T796" t="n">
         <v>16</v>
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E797" t="n">
         <v>7</v>
@@ -64120,20 +64120,20 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N797" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O797" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P797" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64142,11 +64142,11 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>1125</v>
+        <v>562</v>
       </c>
       <c r="T797" t="n">
         <v>16</v>
@@ -64200,11 +64200,11 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N798" t="n">
         <v>17000</v>
@@ -64222,7 +64222,7 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S798" t="n">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E799" t="n">
         <v>7</v>
@@ -64280,36 +64280,36 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N799" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="O799" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="P799" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T799" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E800" t="n">
         <v>7</v>
@@ -64360,20 +64360,20 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N800" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O800" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P800" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64382,11 +64382,11 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>250</v>
+        <v>1125</v>
       </c>
       <c r="T800" t="n">
         <v>16</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E801" t="n">
         <v>7</v>
@@ -64440,36 +64440,36 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N801" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O801" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P801" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>278</v>
+        <v>1062</v>
       </c>
       <c r="T801" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="802">
@@ -64520,36 +64520,36 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N802" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O802" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P802" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="T802" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E803" t="n">
         <v>7</v>
@@ -64604,32 +64604,32 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="N803" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O803" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P803" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>786</v>
+        <v>250</v>
       </c>
       <c r="T803" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E804" t="n">
         <v>7</v>
@@ -64680,24 +64680,24 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N804" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O804" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P804" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>875</v>
+        <v>278</v>
       </c>
       <c r="T804" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E805" t="n">
         <v>7</v>
@@ -64760,20 +64760,20 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N805" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O805" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P805" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
@@ -64786,7 +64786,7 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>875</v>
+        <v>125</v>
       </c>
       <c r="T805" t="n">
         <v>16</v>
@@ -64840,20 +64840,20 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="N806" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O806" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P806" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T806" t="n">
         <v>14</v>
@@ -64920,20 +64920,20 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N807" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O807" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P807" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64942,11 +64942,11 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T807" t="n">
         <v>16</v>
@@ -65000,20 +65000,20 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N808" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O808" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P808" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65026,7 +65026,7 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>438</v>
+        <v>875</v>
       </c>
       <c r="T808" t="n">
         <v>16</v>
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E809" t="n">
         <v>7</v>
@@ -65080,20 +65080,20 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="N809" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O809" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P809" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="T809" t="n">
         <v>14</v>
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E810" t="n">
         <v>7</v>
@@ -65160,11 +65160,11 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N810" t="n">
         <v>12000</v>
@@ -65177,7 +65177,7 @@
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
       <c r="T810" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E811" t="n">
         <v>7</v>
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N811" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O811" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P811" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65262,11 +65262,11 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>812</v>
+        <v>438</v>
       </c>
       <c r="T811" t="n">
         <v>16</v>
@@ -65320,11 +65320,11 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N812" t="n">
         <v>10000</v>
@@ -65342,7 +65342,7 @@
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S812" t="n">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E813" t="n">
         <v>7</v>
@@ -65400,20 +65400,20 @@
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N813" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O813" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P813" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>357</v>
+        <v>857</v>
       </c>
       <c r="T813" t="n">
         <v>14</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E814" t="n">
         <v>7</v>
@@ -65480,36 +65480,36 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N814" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O814" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P814" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>357</v>
+        <v>812</v>
       </c>
       <c r="T814" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="815">
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E815" t="n">
         <v>7</v>
@@ -65560,24 +65560,24 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N815" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O815" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P815" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -65586,10 +65586,10 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>375</v>
+        <v>714</v>
       </c>
       <c r="T815" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="816">
@@ -65644,20 +65644,20 @@
         </is>
       </c>
       <c r="M816" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N816" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O816" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P816" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
@@ -65666,10 +65666,10 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="T816" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="817">
@@ -65720,35 +65720,275 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M817" t="n">
+        <v>400</v>
+      </c>
+      <c r="N817" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O817" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P817" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q817" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S817" t="n">
+        <v>357</v>
+      </c>
+      <c r="T817" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>5</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D818" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E818" t="n">
+        <v>7</v>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G818" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I818" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M818" t="n">
+        <v>210</v>
+      </c>
+      <c r="N818" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O818" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P818" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q818" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S818" t="n">
+        <v>375</v>
+      </c>
+      <c r="T818" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>5</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D819" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E819" t="n">
+        <v>7</v>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G819" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I819" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M819" t="n">
+        <v>250</v>
+      </c>
+      <c r="N819" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O819" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P819" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q819" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S819" t="n">
+        <v>389</v>
+      </c>
+      <c r="T819" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>5</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D820" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E820" t="n">
+        <v>7</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G820" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I820" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M817" t="n">
+      <c r="M820" t="n">
         <v>150</v>
       </c>
-      <c r="N817" t="n">
+      <c r="N820" t="n">
         <v>4000</v>
       </c>
-      <c r="O817" t="n">
+      <c r="O820" t="n">
         <v>4000</v>
       </c>
-      <c r="P817" t="n">
+      <c r="P820" t="n">
         <v>4000</v>
       </c>
-      <c r="Q817" t="inlineStr">
+      <c r="Q820" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R817" t="inlineStr">
+      <c r="R820" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S817" t="n">
+      <c r="S820" t="n">
         <v>286</v>
       </c>
-      <c r="T817" t="n">
+      <c r="T820" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T832"/>
+  <dimension ref="A1:T835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57720,24 +57720,24 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
         <v>500</v>
       </c>
       <c r="N717" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O717" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P717" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
@@ -57746,10 +57746,10 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>938</v>
+        <v>429</v>
       </c>
       <c r="T717" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,20 +57804,20 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="N718" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O718" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P718" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
@@ -57826,10 +57826,10 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="T718" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57880,36 +57880,36 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N719" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O719" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P719" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T719" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N720" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O720" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P720" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57982,11 +57982,11 @@
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>375</v>
+        <v>938</v>
       </c>
       <c r="T720" t="n">
         <v>16</v>
@@ -58044,20 +58044,20 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="T721" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722">
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N722" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O722" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P722" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58142,11 +58142,11 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="T722" t="n">
         <v>14</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58204,32 +58204,32 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N723" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O723" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P723" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1143</v>
+        <v>375</v>
       </c>
       <c r="T723" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58280,24 +58280,24 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N724" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O724" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P724" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
@@ -58306,10 +58306,10 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>1125</v>
+        <v>389</v>
       </c>
       <c r="T724" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,36 +58360,36 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N725" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O725" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P725" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S725" t="n">
-        <v>1125</v>
+        <v>286</v>
       </c>
       <c r="T725" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="726">
@@ -58440,36 +58440,36 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N726" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O726" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P726" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>625</v>
+        <v>1143</v>
       </c>
       <c r="T726" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N727" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O727" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P727" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T727" t="n">
         <v>16</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58604,16 +58604,16 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N728" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O728" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P728" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T728" t="n">
         <v>16</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58680,36 +58680,36 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N729" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O729" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T729" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="730">
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N730" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O730" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P730" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T730" t="n">
         <v>16</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N731" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O731" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P731" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58862,11 +58862,11 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T731" t="n">
         <v>16</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N732" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O732" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P732" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T732" t="n">
         <v>14</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="N733" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O733" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P733" t="n">
-        <v>16273</v>
+        <v>10000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1017</v>
+        <v>625</v>
       </c>
       <c r="T733" t="n">
         <v>16</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E734" t="n">
         <v>7</v>
@@ -59080,36 +59080,36 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N734" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O734" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P734" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T734" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="735">
@@ -59160,36 +59160,36 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N735" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O735" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P735" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>625</v>
+        <v>1071</v>
       </c>
       <c r="T735" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59240,24 +59240,24 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="N736" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O736" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P736" t="n">
-        <v>4000</v>
+        <v>16273</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
@@ -59266,10 +59266,10 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>286</v>
+        <v>1017</v>
       </c>
       <c r="T736" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
         <v>200</v>
       </c>
       <c r="N737" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O737" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P737" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T737" t="n">
         <v>14</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="N738" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O738" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P738" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="T738" t="n">
         <v>16</v>
@@ -59480,20 +59480,20 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N739" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O739" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P739" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T739" t="n">
         <v>14</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59564,7 +59564,7 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N740" t="n">
         <v>3500</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59644,7 +59644,7 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N741" t="n">
         <v>5000</v>
@@ -59657,7 +59657,7 @@
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
@@ -59666,10 +59666,10 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="T741" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59720,20 +59720,20 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="N742" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O742" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P742" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T742" t="n">
         <v>14</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E743" t="n">
         <v>7</v>
@@ -59804,32 +59804,32 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N743" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O743" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P743" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>938</v>
+        <v>250</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59884,32 +59884,32 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="N744" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O744" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P744" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>875</v>
+        <v>278</v>
       </c>
       <c r="T744" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,36 +59960,36 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N745" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O745" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P745" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>750</v>
+        <v>143</v>
       </c>
       <c r="T745" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="746">
@@ -60040,36 +60040,36 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="N746" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O746" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P746" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T746" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="747">
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N747" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O747" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P747" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T747" t="n">
         <v>16</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N748" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O748" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P748" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T748" t="n">
         <v>16</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60280,36 +60280,36 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N749" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O749" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P749" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>562</v>
+        <v>857</v>
       </c>
       <c r="T749" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60360,36 +60360,36 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N750" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O750" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P750" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>429</v>
+        <v>688</v>
       </c>
       <c r="T750" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E751" t="n">
         <v>7</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N751" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O751" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P751" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T751" t="n">
         <v>16</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60520,20 +60520,20 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N752" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O752" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P752" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T752" t="n">
         <v>16</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O753" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P753" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>857</v>
+        <v>429</v>
       </c>
       <c r="T753" t="n">
         <v>14</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N754" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O754" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P754" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T754" t="n">
         <v>16</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N755" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O755" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P755" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T755" t="n">
         <v>16</v>
@@ -60840,36 +60840,36 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N756" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O756" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P756" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>625</v>
+        <v>857</v>
       </c>
       <c r="T756" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60920,36 +60920,36 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M757" t="n">
         <v>200</v>
       </c>
       <c r="N757" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O757" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P757" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>357</v>
+        <v>750</v>
       </c>
       <c r="T757" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N758" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O758" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P758" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T758" t="n">
         <v>16</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61080,24 +61080,24 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N759" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O759" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P759" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="T759" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="760">
@@ -61160,36 +61160,36 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N760" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O760" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P760" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="T760" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61240,20 +61240,20 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N761" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O761" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P761" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61262,11 +61262,11 @@
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T761" t="n">
         <v>16</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E762" t="n">
         <v>7</v>
@@ -61324,32 +61324,32 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N762" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="O762" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P762" t="n">
-        <v>16667</v>
+        <v>7000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1042</v>
+        <v>389</v>
       </c>
       <c r="T762" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E763" t="n">
         <v>7</v>
@@ -61400,36 +61400,36 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N763" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O763" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P763" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>812</v>
+        <v>333</v>
       </c>
       <c r="T763" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="764">
@@ -61480,20 +61480,20 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N764" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O764" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P764" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T764" t="n">
         <v>16</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N765" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="O765" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P765" t="n">
-        <v>14000</v>
+        <v>16667</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61582,11 +61582,11 @@
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>875</v>
+        <v>1042</v>
       </c>
       <c r="T765" t="n">
         <v>16</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N766" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O766" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P766" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61662,11 +61662,11 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T766" t="n">
         <v>16</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61720,24 +61720,24 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N767" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O767" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P767" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,10 +61746,10 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T767" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="768">
@@ -61800,36 +61800,36 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N768" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O768" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P768" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="T768" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61880,36 +61880,36 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N769" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="O769" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="P769" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>393</v>
+        <v>938</v>
       </c>
       <c r="T769" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61960,36 +61960,36 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N770" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O770" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P770" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>444</v>
+        <v>857</v>
       </c>
       <c r="T770" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N771" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O771" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P771" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>438</v>
+        <v>929</v>
       </c>
       <c r="T771" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="772">
@@ -62120,36 +62120,36 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N772" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O772" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P772" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="T772" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62207,17 +62207,17 @@
         <v>300</v>
       </c>
       <c r="N773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P773" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T773" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N774" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O774" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P774" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="T774" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62364,7 +62364,7 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N775" t="n">
         <v>8000</v>
@@ -62377,19 +62377,19 @@
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="T775" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="776">
@@ -62440,36 +62440,36 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
         <v>300</v>
       </c>
       <c r="N776" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O776" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P776" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T776" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="777">
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N777" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O777" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P777" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="T777" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N778" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O778" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P778" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>357</v>
+        <v>571</v>
       </c>
       <c r="T778" t="n">
         <v>14</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N779" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O779" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P779" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>286</v>
+        <v>562</v>
       </c>
       <c r="T779" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62760,11 +62760,11 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N780" t="n">
         <v>4000</v>
@@ -62782,7 +62782,7 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S780" t="n">
@@ -62844,32 +62844,32 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N781" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O781" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P781" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="T781" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="782">
@@ -62920,20 +62920,20 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62942,11 +62942,11 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T782" t="n">
         <v>14</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>810</v>
+        <v>500</v>
       </c>
       <c r="N783" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O783" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P783" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="T783" t="n">
         <v>14</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63084,32 +63084,32 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N784" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O784" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P784" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="T784" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63160,36 +63160,36 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N785" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O785" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P785" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>444</v>
+        <v>214</v>
       </c>
       <c r="T785" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="786">
@@ -63240,36 +63240,36 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="N786" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O786" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P786" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="T786" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63320,20 +63320,20 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N787" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O787" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P787" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63342,11 +63342,11 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>1000</v>
+        <v>438</v>
       </c>
       <c r="T787" t="n">
         <v>16</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E788" t="n">
         <v>7</v>
@@ -63404,32 +63404,32 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N788" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O788" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P788" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="T788" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E789" t="n">
         <v>7</v>
@@ -63480,20 +63480,20 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N789" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O789" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P789" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="T789" t="n">
         <v>16</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E790" t="n">
         <v>7</v>
@@ -63564,7 +63564,7 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N790" t="n">
         <v>16000</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E791" t="n">
         <v>7</v>
@@ -63647,13 +63647,13 @@
         <v>500</v>
       </c>
       <c r="N791" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O791" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P791" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T791" t="n">
         <v>14</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63724,16 +63724,16 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N792" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O792" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P792" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>1062</v>
+        <v>219</v>
       </c>
       <c r="T792" t="n">
         <v>16</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63804,16 +63804,16 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="N793" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O793" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P793" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63826,7 +63826,7 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T793" t="n">
         <v>16</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E794" t="n">
         <v>7</v>
@@ -63880,24 +63880,24 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N794" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O794" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P794" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,10 +63906,10 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>1125</v>
+        <v>286</v>
       </c>
       <c r="T794" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="795">
@@ -63960,20 +63960,20 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N795" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O795" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P795" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63982,11 +63982,11 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T795" t="n">
         <v>16</v>
@@ -64040,20 +64040,20 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N796" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O796" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P796" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64062,11 +64062,11 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T796" t="n">
         <v>16</v>
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E797" t="n">
         <v>7</v>
@@ -64120,20 +64120,20 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N797" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O797" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P797" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64146,7 +64146,7 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T797" t="n">
         <v>16</v>
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E798" t="n">
         <v>7</v>
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N798" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O798" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P798" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64222,11 +64222,11 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>438</v>
+        <v>1125</v>
       </c>
       <c r="T798" t="n">
         <v>16</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E799" t="n">
         <v>7</v>
@@ -64280,36 +64280,36 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N799" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O799" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P799" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>429</v>
+        <v>1000</v>
       </c>
       <c r="T799" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E800" t="n">
         <v>7</v>
@@ -64364,16 +64364,16 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N800" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O800" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P800" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64386,7 +64386,7 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T800" t="n">
         <v>16</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E801" t="n">
         <v>7</v>
@@ -64440,24 +64440,24 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N801" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O801" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P801" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,10 +64466,10 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="T801" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E802" t="n">
         <v>7</v>
@@ -64527,29 +64527,29 @@
         <v>350</v>
       </c>
       <c r="N802" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O802" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P802" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>812</v>
+        <v>429</v>
       </c>
       <c r="T802" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E803" t="n">
         <v>7</v>
@@ -64600,36 +64600,36 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="N803" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O803" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P803" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>786</v>
+        <v>438</v>
       </c>
       <c r="T803" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E804" t="n">
         <v>7</v>
@@ -64684,32 +64684,32 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N804" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O804" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P804" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="T804" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E805" t="n">
         <v>7</v>
@@ -64764,16 +64764,16 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N805" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O805" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P805" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
@@ -64782,11 +64782,11 @@
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>250</v>
+        <v>812</v>
       </c>
       <c r="T805" t="n">
         <v>16</v>
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E806" t="n">
         <v>7</v>
@@ -64840,36 +64840,36 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N806" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O806" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P806" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>278</v>
+        <v>786</v>
       </c>
       <c r="T806" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="807">
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E807" t="n">
         <v>7</v>
@@ -64924,16 +64924,16 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N807" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O807" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P807" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64942,11 +64942,11 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>714</v>
+        <v>250</v>
       </c>
       <c r="T807" t="n">
         <v>14</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E808" t="n">
         <v>7</v>
@@ -65004,32 +65004,32 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N808" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O808" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P808" t="n">
-        <v>10667</v>
+        <v>4000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>762</v>
+        <v>250</v>
       </c>
       <c r="T808" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E809" t="n">
         <v>7</v>
@@ -65080,36 +65080,36 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N809" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O809" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P809" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T809" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E810" t="n">
         <v>7</v>
@@ -65160,36 +65160,36 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N810" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O810" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P810" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>1125</v>
+        <v>714</v>
       </c>
       <c r="T810" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E811" t="n">
         <v>7</v>
@@ -65244,32 +65244,32 @@
         </is>
       </c>
       <c r="M811" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N811" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O811" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P811" t="n">
-        <v>17000</v>
+        <v>10667</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>1062</v>
+        <v>762</v>
       </c>
       <c r="T811" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="812">
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E812" t="n">
         <v>7</v>
@@ -65320,24 +65320,24 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N812" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O812" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P812" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
@@ -65346,10 +65346,10 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>1062</v>
+        <v>857</v>
       </c>
       <c r="T812" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="813">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E813" t="n">
         <v>7</v>
@@ -65404,16 +65404,16 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N813" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O813" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P813" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65422,11 +65422,11 @@
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T813" t="n">
         <v>16</v>
@@ -65480,20 +65480,20 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N814" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O814" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P814" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65502,11 +65502,11 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T814" t="n">
         <v>16</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E815" t="n">
         <v>7</v>
@@ -65564,16 +65564,16 @@
         </is>
       </c>
       <c r="M815" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="N815" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O815" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P815" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T815" t="n">
         <v>16</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E816" t="n">
         <v>7</v>
@@ -65640,36 +65640,36 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N816" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O816" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P816" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T816" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E817" t="n">
         <v>7</v>
@@ -65720,20 +65720,20 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N817" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O817" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P817" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T817" t="n">
         <v>16</v>
@@ -65800,20 +65800,20 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N818" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O818" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P818" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65826,7 +65826,7 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T818" t="n">
         <v>16</v>
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E819" t="n">
         <v>7</v>
@@ -65880,20 +65880,20 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N819" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O819" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P819" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
@@ -65906,7 +65906,7 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T819" t="n">
         <v>14</v>
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E820" t="n">
         <v>7</v>
@@ -65960,20 +65960,20 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N820" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O820" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P820" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
@@ -65982,11 +65982,11 @@
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>281</v>
+        <v>750</v>
       </c>
       <c r="T820" t="n">
         <v>16</v>
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E821" t="n">
         <v>7</v>
@@ -66040,20 +66040,20 @@
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N821" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O821" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P821" t="n">
-        <v>4273</v>
+        <v>9000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>267</v>
+        <v>562</v>
       </c>
       <c r="T821" t="n">
         <v>16</v>
@@ -66120,36 +66120,36 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="N822" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O822" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P822" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T822" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="823">
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E823" t="n">
         <v>7</v>
@@ -66204,16 +66204,16 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N823" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O823" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P823" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66222,11 +66222,11 @@
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S823" t="n">
-        <v>875</v>
+        <v>281</v>
       </c>
       <c r="T823" t="n">
         <v>16</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E824" t="n">
         <v>7</v>
@@ -66280,36 +66280,36 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N824" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O824" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P824" t="n">
-        <v>11000</v>
+        <v>4273</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>786</v>
+        <v>267</v>
       </c>
       <c r="T824" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E825" t="n">
         <v>7</v>
@@ -66360,36 +66360,36 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="N825" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O825" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P825" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="T825" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="826">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E826" t="n">
         <v>7</v>
@@ -66444,32 +66444,32 @@
         </is>
       </c>
       <c r="M826" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N826" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O826" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="P826" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>393</v>
+        <v>875</v>
       </c>
       <c r="T826" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E827" t="n">
         <v>7</v>
@@ -66520,36 +66520,36 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N827" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O827" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P827" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S827" t="n">
-        <v>389</v>
+        <v>786</v>
       </c>
       <c r="T827" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="828">
@@ -66604,32 +66604,32 @@
         </is>
       </c>
       <c r="M828" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N828" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O828" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P828" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="T828" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="829">
@@ -66680,36 +66680,36 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N829" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O829" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P829" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="T829" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E830" t="n">
         <v>7</v>
@@ -66760,24 +66760,24 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N830" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O830" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P830" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
@@ -66786,10 +66786,10 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>1250</v>
+        <v>389</v>
       </c>
       <c r="T830" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="831">
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E831" t="n">
         <v>7</v>
@@ -66840,36 +66840,36 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N831" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O831" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P831" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>1071</v>
+        <v>444</v>
       </c>
       <c r="T831" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="832">
@@ -66887,68 +66887,308 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E832" t="n">
+        <v>7</v>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G832" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I832" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J832" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M832" t="n">
+        <v>200</v>
+      </c>
+      <c r="N832" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O832" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P832" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q832" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R832" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S832" t="n">
+        <v>438</v>
+      </c>
+      <c r="T832" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>5</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D833" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E832" t="n">
-        <v>7</v>
-      </c>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G832" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I832" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J832" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L832" t="inlineStr">
+      <c r="E833" t="n">
+        <v>7</v>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G833" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I833" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J833" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M833" t="n">
+        <v>800</v>
+      </c>
+      <c r="N833" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O833" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P833" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q833" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R833" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S833" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T833" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>5</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D834" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E834" t="n">
+        <v>7</v>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G834" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I834" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M834" t="n">
+        <v>200</v>
+      </c>
+      <c r="N834" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O834" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P834" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q834" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S834" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T834" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>5</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D835" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E835" t="n">
+        <v>7</v>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G835" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I835" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J835" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L835" t="inlineStr">
         <is>
           <t>3a plateado</t>
         </is>
       </c>
-      <c r="M832" t="n">
+      <c r="M835" t="n">
         <v>400</v>
       </c>
-      <c r="N832" t="n">
+      <c r="N835" t="n">
         <v>15000</v>
       </c>
-      <c r="O832" t="n">
+      <c r="O835" t="n">
         <v>15000</v>
       </c>
-      <c r="P832" t="n">
+      <c r="P835" t="n">
         <v>15000</v>
       </c>
-      <c r="Q832" t="inlineStr">
+      <c r="Q835" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R832" t="inlineStr">
+      <c r="R835" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S832" t="n">
+      <c r="S835" t="n">
         <v>1071</v>
       </c>
-      <c r="T832" t="n">
+      <c r="T835" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T840"/>
+  <dimension ref="A1:T843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E647" t="n">
         <v>7</v>
@@ -52120,20 +52120,20 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="N647" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O647" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P647" t="n">
-        <v>9714</v>
+        <v>7000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="T647" t="n">
         <v>14</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E648" t="n">
         <v>7</v>
@@ -52200,36 +52200,36 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N648" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O648" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P648" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>688</v>
+        <v>444</v>
       </c>
       <c r="T648" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44421</v>
+        <v>44524</v>
       </c>
       <c r="E649" t="n">
         <v>7</v>
@@ -52280,36 +52280,36 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N649" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="O649" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>222</v>
+        <v>571</v>
       </c>
       <c r="T649" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E650" t="n">
         <v>7</v>
@@ -52360,20 +52360,20 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N650" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O650" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P650" t="n">
-        <v>3000</v>
+        <v>9714</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52386,7 +52386,7 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>214</v>
+        <v>694</v>
       </c>
       <c r="T650" t="n">
         <v>14</v>
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E651" t="n">
         <v>7</v>
@@ -52440,20 +52440,20 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N651" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O651" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P651" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>250</v>
+        <v>688</v>
       </c>
       <c r="T651" t="n">
         <v>16</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E652" t="n">
         <v>7</v>
@@ -52520,36 +52520,36 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N652" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="O652" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="P652" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1000</v>
+        <v>222</v>
       </c>
       <c r="T652" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E653" t="n">
         <v>7</v>
@@ -52604,32 +52604,32 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="N653" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="O653" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="P653" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="T653" t="n">
-        <v>450</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44431</v>
+        <v>44421</v>
       </c>
       <c r="E654" t="n">
         <v>7</v>
@@ -52684,32 +52684,32 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="N654" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O654" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P654" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="T654" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E655" t="n">
         <v>7</v>
@@ -52760,36 +52760,36 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="N655" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="O655" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="P655" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>214</v>
+        <v>1000</v>
       </c>
       <c r="T655" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="656">
@@ -52844,20 +52844,20 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="N656" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O656" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="P656" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
@@ -52866,10 +52866,10 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T656" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="657">
@@ -52920,20 +52920,20 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N657" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O657" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P657" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T657" t="n">
         <v>14</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E658" t="n">
         <v>7</v>
@@ -53000,36 +53000,36 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="N658" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O658" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="P658" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1000</v>
+        <v>214</v>
       </c>
       <c r="T658" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44222</v>
+        <v>44431</v>
       </c>
       <c r="E659" t="n">
         <v>7</v>
@@ -53084,20 +53084,20 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N659" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O659" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P659" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1143</v>
+        <v>250</v>
       </c>
       <c r="T659" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44222</v>
+        <v>44431</v>
       </c>
       <c r="E660" t="n">
         <v>7</v>
@@ -53160,36 +53160,36 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M660" t="n">
         <v>200</v>
       </c>
       <c r="N660" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O660" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="P660" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1125</v>
+        <v>143</v>
       </c>
       <c r="T660" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44426</v>
+        <v>44239</v>
       </c>
       <c r="E661" t="n">
         <v>7</v>
@@ -53240,36 +53240,36 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N661" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O661" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P661" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T661" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44426</v>
+        <v>44222</v>
       </c>
       <c r="E662" t="n">
         <v>7</v>
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N662" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O662" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P662" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>250</v>
+        <v>1143</v>
       </c>
       <c r="T662" t="n">
         <v>14</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44426</v>
+        <v>44222</v>
       </c>
       <c r="E663" t="n">
         <v>7</v>
@@ -53400,36 +53400,36 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N663" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O663" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P663" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>143</v>
+        <v>1125</v>
       </c>
       <c r="T663" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E664" t="n">
         <v>7</v>
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N664" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O664" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P664" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T664" t="n">
         <v>14</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E665" t="n">
         <v>7</v>
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N665" t="n">
         <v>3500</v>
       </c>
       <c r="O665" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P665" t="n">
-        <v>3833</v>
+        <v>3500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="T665" t="n">
         <v>14</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E666" t="n">
         <v>7</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="N666" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O666" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P666" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="T666" t="n">
         <v>14</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E667" t="n">
         <v>7</v>
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="N667" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O667" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P667" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="T667" t="n">
         <v>14</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E668" t="n">
         <v>7</v>
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="N668" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O668" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P668" t="n">
-        <v>5000</v>
+        <v>3833</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>357</v>
+        <v>274</v>
       </c>
       <c r="T668" t="n">
         <v>14</v>
@@ -53847,7 +53847,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44362</v>
+        <v>44448</v>
       </c>
       <c r="E669" t="n">
         <v>7</v>
@@ -53880,20 +53880,20 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="N669" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O669" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P669" t="n">
-        <v>4714</v>
+        <v>3000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53902,11 +53902,11 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>337</v>
+        <v>214</v>
       </c>
       <c r="T669" t="n">
         <v>14</v>
@@ -53960,20 +53960,20 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N670" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O670" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P670" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="T670" t="n">
         <v>14</v>
@@ -54007,7 +54007,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E671" t="n">
         <v>7</v>
@@ -54044,32 +54044,32 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N671" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O671" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P671" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>1062</v>
+        <v>357</v>
       </c>
       <c r="T671" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672">
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E672" t="n">
         <v>7</v>
@@ -54124,32 +54124,32 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N672" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O672" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P672" t="n">
-        <v>17000</v>
+        <v>4714</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>1062</v>
+        <v>337</v>
       </c>
       <c r="T672" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E673" t="n">
         <v>7</v>
@@ -54200,36 +54200,36 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N673" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="O673" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P673" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1125</v>
+        <v>214</v>
       </c>
       <c r="T673" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
@@ -54280,20 +54280,20 @@
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N674" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O674" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P674" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T674" t="n">
         <v>16</v>
@@ -54360,20 +54360,20 @@
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N675" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O675" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P675" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>1188</v>
+        <v>1062</v>
       </c>
       <c r="T675" t="n">
         <v>16</v>
@@ -54440,20 +54440,20 @@
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N676" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O676" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P676" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T676" t="n">
         <v>16</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M677" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N677" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O677" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P677" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T677" t="n">
         <v>16</v>
@@ -54567,7 +54567,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E678" t="n">
         <v>7</v>
@@ -54600,36 +54600,36 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N678" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O678" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P678" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>786</v>
+        <v>1188</v>
       </c>
       <c r="T678" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="679">
@@ -54647,7 +54647,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E679" t="n">
         <v>7</v>
@@ -54680,36 +54680,36 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N679" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O679" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P679" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>714</v>
+        <v>938</v>
       </c>
       <c r="T679" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="680">
@@ -54727,7 +54727,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E680" t="n">
         <v>7</v>
@@ -54760,36 +54760,36 @@
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="N680" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O680" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P680" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="T680" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="681">
@@ -54840,36 +54840,36 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N681" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O681" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P681" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="T681" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E682" t="n">
         <v>7</v>
@@ -54920,36 +54920,36 @@
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M682" t="n">
         <v>300</v>
       </c>
       <c r="N682" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O682" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P682" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>938</v>
+        <v>714</v>
       </c>
       <c r="T682" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="683">
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E683" t="n">
         <v>7</v>
@@ -55000,11 +55000,11 @@
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N683" t="n">
         <v>11000</v>
@@ -55022,7 +55022,7 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S683" t="n">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E684" t="n">
         <v>7</v>
@@ -55080,11 +55080,11 @@
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="N684" t="n">
         <v>12000</v>
@@ -55102,7 +55102,7 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S684" t="n">
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E685" t="n">
         <v>7</v>
@@ -55160,36 +55160,36 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N685" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O685" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P685" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="T685" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686">
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E686" t="n">
         <v>7</v>
@@ -55240,36 +55240,36 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N686" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O686" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P686" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T686" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="687">
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E687" t="n">
         <v>7</v>
@@ -55324,16 +55324,16 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N687" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="O687" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="P687" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="T687" t="n">
         <v>16</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E688" t="n">
         <v>7</v>
@@ -55404,32 +55404,32 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N688" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O688" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P688" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="T688" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E689" t="n">
         <v>7</v>
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="N689" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O689" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P689" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55502,11 +55502,11 @@
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>938</v>
+        <v>250</v>
       </c>
       <c r="T689" t="n">
         <v>16</v>
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E690" t="n">
         <v>7</v>
@@ -55560,24 +55560,24 @@
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N690" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O690" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P690" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
@@ -55586,10 +55586,10 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="T690" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="691">
@@ -55640,36 +55640,36 @@
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N691" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O691" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P691" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="T691" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="692">
@@ -55720,36 +55720,36 @@
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M692" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N692" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O692" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P692" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T692" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="693">
@@ -55800,20 +55800,20 @@
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N693" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O693" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P693" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55826,7 +55826,7 @@
         </is>
       </c>
       <c r="S693" t="n">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="T693" t="n">
         <v>14</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E694" t="n">
         <v>7</v>
@@ -55880,20 +55880,20 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M694" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="N694" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O694" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P694" t="n">
-        <v>3759</v>
+        <v>15000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>268</v>
+        <v>1071</v>
       </c>
       <c r="T694" t="n">
         <v>14</v>
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E695" t="n">
         <v>7</v>
@@ -55960,36 +55960,36 @@
       </c>
       <c r="L695" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M695" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N695" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O695" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P695" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>278</v>
+        <v>857</v>
       </c>
       <c r="T695" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E696" t="n">
         <v>7</v>
@@ -56040,36 +56040,36 @@
       </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N696" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O696" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P696" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>938</v>
+        <v>714</v>
       </c>
       <c r="T696" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E697" t="n">
         <v>7</v>
@@ -56120,36 +56120,36 @@
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N697" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O697" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P697" t="n">
-        <v>16000</v>
+        <v>3759</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>1000</v>
+        <v>268</v>
       </c>
       <c r="T697" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E698" t="n">
         <v>7</v>
@@ -56200,36 +56200,36 @@
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N698" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O698" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P698" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>750</v>
+        <v>278</v>
       </c>
       <c r="T698" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="699">
@@ -56280,20 +56280,20 @@
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="N699" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O699" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P699" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T699" t="n">
         <v>16</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N700" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O700" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P700" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T700" t="n">
         <v>16</v>
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E701" t="n">
         <v>7</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N701" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O701" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P701" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T701" t="n">
         <v>16</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E702" t="n">
         <v>7</v>
@@ -56524,20 +56524,20 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="N702" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O702" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P702" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,10 +56546,10 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>571</v>
+        <v>812</v>
       </c>
       <c r="T702" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="703">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E703" t="n">
         <v>7</v>
@@ -56600,36 +56600,36 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N703" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O703" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P703" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>429</v>
+        <v>625</v>
       </c>
       <c r="T703" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E704" t="n">
         <v>7</v>
@@ -56684,32 +56684,32 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N704" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O704" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P704" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>357</v>
+        <v>562</v>
       </c>
       <c r="T704" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44504</v>
+        <v>44341</v>
       </c>
       <c r="E705" t="n">
         <v>7</v>
@@ -56764,16 +56764,16 @@
         </is>
       </c>
       <c r="M705" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N705" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O705" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P705" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>286</v>
+        <v>571</v>
       </c>
       <c r="T705" t="n">
         <v>14</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E706" t="n">
         <v>7</v>
@@ -56844,7 +56844,7 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N706" t="n">
         <v>6000</v>
@@ -56857,19 +56857,19 @@
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="T706" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E707" t="n">
         <v>7</v>
@@ -56920,36 +56920,36 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N707" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O707" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P707" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>500</v>
+        <v>357</v>
       </c>
       <c r="T707" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E708" t="n">
         <v>7</v>
@@ -57004,16 +57004,16 @@
         </is>
       </c>
       <c r="M708" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N708" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O708" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P708" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57022,11 +57022,11 @@
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="T708" t="n">
         <v>14</v>
@@ -57080,20 +57080,20 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N709" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O709" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P709" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="T709" t="n">
         <v>16</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N710" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O710" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P710" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T710" t="n">
         <v>16</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57240,36 +57240,36 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N711" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O711" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P711" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>938</v>
+        <v>357</v>
       </c>
       <c r="T711" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E712" t="n">
         <v>7</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N712" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O712" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P712" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>688</v>
+        <v>312</v>
       </c>
       <c r="T712" t="n">
         <v>16</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N713" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O713" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P713" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>250</v>
+        <v>875</v>
       </c>
       <c r="T713" t="n">
         <v>16</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="N714" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="O714" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="P714" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>125</v>
+        <v>938</v>
       </c>
       <c r="T714" t="n">
         <v>16</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44384</v>
+        <v>44312</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,36 +57560,36 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="N715" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O715" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P715" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>250</v>
+        <v>688</v>
       </c>
       <c r="T715" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57644,7 +57644,7 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N716" t="n">
         <v>4000</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44384</v>
+        <v>44382</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N717" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O717" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="P717" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="T717" t="n">
         <v>16</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="N718" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O718" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P718" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T718" t="n">
         <v>14</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N719" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O719" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P719" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T719" t="n">
         <v>16</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N720" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="O720" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P720" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>812</v>
+        <v>219</v>
       </c>
       <c r="T720" t="n">
         <v>16</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,36 +58040,36 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N721" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="O721" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P721" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>688</v>
+        <v>143</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44522</v>
+        <v>44384</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58120,36 +58120,36 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N722" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O722" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P722" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>429</v>
+        <v>156</v>
       </c>
       <c r="T722" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58204,16 +58204,16 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N723" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O723" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P723" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>438</v>
+        <v>812</v>
       </c>
       <c r="T723" t="n">
         <v>16</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N724" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O724" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P724" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>250</v>
+        <v>688</v>
       </c>
       <c r="T724" t="n">
         <v>16</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,24 +58360,24 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
         <v>500</v>
       </c>
       <c r="N725" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O725" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P725" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,10 +58386,10 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>938</v>
+        <v>429</v>
       </c>
       <c r="T725" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58444,20 +58444,20 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="N726" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O726" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P726" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
@@ -58466,10 +58466,10 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>357</v>
+        <v>438</v>
       </c>
       <c r="T726" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,36 +58520,36 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N727" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O727" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P727" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T727" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N728" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O728" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P728" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>375</v>
+        <v>938</v>
       </c>
       <c r="T728" t="n">
         <v>16</v>
@@ -58684,20 +58684,20 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N729" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O729" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P729" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
@@ -58706,10 +58706,10 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="T729" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="730">
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N730" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O730" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P730" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="T730" t="n">
         <v>14</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E731" t="n">
         <v>7</v>
@@ -58844,32 +58844,32 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N731" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O731" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P731" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>1143</v>
+        <v>375</v>
       </c>
       <c r="T731" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58920,24 +58920,24 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="N732" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O732" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P732" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
@@ -58946,10 +58946,10 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>1125</v>
+        <v>389</v>
       </c>
       <c r="T732" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59000,36 +59000,36 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N733" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O733" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P733" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1125</v>
+        <v>286</v>
       </c>
       <c r="T733" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="734">
@@ -59080,36 +59080,36 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N734" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O734" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P734" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>625</v>
+        <v>1143</v>
       </c>
       <c r="T734" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E735" t="n">
         <v>7</v>
@@ -59160,20 +59160,20 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N735" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O735" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P735" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T735" t="n">
         <v>16</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E736" t="n">
         <v>7</v>
@@ -59244,16 +59244,16 @@
         </is>
       </c>
       <c r="M736" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N736" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O736" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P736" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T736" t="n">
         <v>16</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59320,36 +59320,36 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P737" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T737" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N738" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O738" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P738" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T738" t="n">
         <v>16</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N739" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O739" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P739" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T739" t="n">
         <v>16</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59560,20 +59560,20 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="N740" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O740" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P740" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1071</v>
+        <v>857</v>
       </c>
       <c r="T740" t="n">
         <v>14</v>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59640,20 +59640,20 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="N741" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O741" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P741" t="n">
-        <v>16273</v>
+        <v>10000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1017</v>
+        <v>625</v>
       </c>
       <c r="T741" t="n">
         <v>16</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59720,36 +59720,36 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O742" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P742" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>857</v>
+        <v>625</v>
       </c>
       <c r="T742" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="743">
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N743" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O743" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P743" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>625</v>
+        <v>1071</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59880,24 +59880,24 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="N744" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O744" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P744" t="n">
-        <v>4000</v>
+        <v>16273</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
@@ -59906,10 +59906,10 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>286</v>
+        <v>1017</v>
       </c>
       <c r="T744" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M745" t="n">
         <v>200</v>
       </c>
       <c r="N745" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O745" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P745" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T745" t="n">
         <v>14</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E746" t="n">
         <v>7</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="N746" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O746" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P746" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>312</v>
+        <v>625</v>
       </c>
       <c r="T746" t="n">
         <v>16</v>
@@ -60120,20 +60120,20 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N747" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O747" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P747" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T747" t="n">
         <v>14</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60204,7 +60204,7 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N748" t="n">
         <v>3500</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60284,7 +60284,7 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="N749" t="n">
         <v>5000</v>
@@ -60297,7 +60297,7 @@
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
@@ -60306,10 +60306,10 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="T749" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E750" t="n">
         <v>7</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="N750" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O750" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P750" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T750" t="n">
         <v>14</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E751" t="n">
         <v>7</v>
@@ -60444,32 +60444,32 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N751" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O751" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P751" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>938</v>
+        <v>250</v>
       </c>
       <c r="T751" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60524,32 +60524,32 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="N752" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O752" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P752" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>875</v>
+        <v>278</v>
       </c>
       <c r="T752" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O753" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P753" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>750</v>
+        <v>143</v>
       </c>
       <c r="T753" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="754">
@@ -60680,36 +60680,36 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="N754" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O754" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P754" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T754" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="755">
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N755" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O755" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P755" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60782,11 +60782,11 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T755" t="n">
         <v>16</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N756" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O756" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P756" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60862,11 +60862,11 @@
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T756" t="n">
         <v>16</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60920,36 +60920,36 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N757" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O757" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P757" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>562</v>
+        <v>857</v>
       </c>
       <c r="T757" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,36 +61000,36 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N758" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O758" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P758" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>429</v>
+        <v>688</v>
       </c>
       <c r="T758" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N759" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O759" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P759" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T759" t="n">
         <v>16</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E760" t="n">
         <v>7</v>
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N760" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O760" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P760" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T760" t="n">
         <v>16</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61244,16 +61244,16 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N761" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O761" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P761" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>857</v>
+        <v>429</v>
       </c>
       <c r="T761" t="n">
         <v>14</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N762" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O762" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P762" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T762" t="n">
         <v>16</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N763" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O763" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P763" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T763" t="n">
         <v>16</v>
@@ -61480,36 +61480,36 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="N764" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O764" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P764" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>625</v>
+        <v>857</v>
       </c>
       <c r="T764" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E765" t="n">
         <v>7</v>
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M765" t="n">
         <v>200</v>
       </c>
       <c r="N765" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O765" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P765" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>357</v>
+        <v>750</v>
       </c>
       <c r="T765" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E766" t="n">
         <v>7</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N766" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O766" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P766" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T766" t="n">
         <v>16</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61720,24 +61720,24 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="N767" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O767" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P767" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,10 +61746,10 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="T767" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="768">
@@ -61800,36 +61800,36 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N768" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O768" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P768" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="T768" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N769" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O769" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P769" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T769" t="n">
         <v>16</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61964,32 +61964,32 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N770" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="O770" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P770" t="n">
-        <v>16667</v>
+        <v>7000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1042</v>
+        <v>389</v>
       </c>
       <c r="T770" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62040,36 +62040,36 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N771" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O771" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P771" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>812</v>
+        <v>333</v>
       </c>
       <c r="T771" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="772">
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N772" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O772" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P772" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N773" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="O773" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P773" t="n">
-        <v>14000</v>
+        <v>16667</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>875</v>
+        <v>1042</v>
       </c>
       <c r="T773" t="n">
         <v>16</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T774" t="n">
         <v>16</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,24 +62360,24 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N775" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O775" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P775" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>857</v>
+        <v>938</v>
       </c>
       <c r="T775" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="776">
@@ -62440,36 +62440,36 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N776" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O776" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P776" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="T776" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E777" t="n">
         <v>7</v>
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N777" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="O777" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="P777" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>393</v>
+        <v>938</v>
       </c>
       <c r="T777" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,36 +62600,36 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N778" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O778" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P778" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>444</v>
+        <v>857</v>
       </c>
       <c r="T778" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N779" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O779" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P779" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>438</v>
+        <v>929</v>
       </c>
       <c r="T779" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="780">
@@ -62760,36 +62760,36 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N780" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O780" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="P780" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="T780" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E781" t="n">
         <v>7</v>
@@ -62847,17 +62847,17 @@
         <v>300</v>
       </c>
       <c r="N781" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O781" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P781" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
@@ -62866,10 +62866,10 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T781" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62924,32 +62924,32 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N782" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O782" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P782" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="T782" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E783" t="n">
         <v>7</v>
@@ -63004,7 +63004,7 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N783" t="n">
         <v>8000</v>
@@ -63017,19 +63017,19 @@
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="T783" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="784">
@@ -63080,36 +63080,36 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
         <v>300</v>
       </c>
       <c r="N784" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O784" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P784" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="T784" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="785">
@@ -63160,36 +63160,36 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N785" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O785" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P785" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="T785" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E786" t="n">
         <v>7</v>
@@ -63240,20 +63240,20 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N786" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O786" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P786" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>357</v>
+        <v>571</v>
       </c>
       <c r="T786" t="n">
         <v>14</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E787" t="n">
         <v>7</v>
@@ -63320,36 +63320,36 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N787" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O787" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P787" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>286</v>
+        <v>562</v>
       </c>
       <c r="T787" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E788" t="n">
         <v>7</v>
@@ -63400,11 +63400,11 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N788" t="n">
         <v>4000</v>
@@ -63422,7 +63422,7 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S788" t="n">
@@ -63484,32 +63484,32 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N789" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O789" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P789" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="T789" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="790">
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N790" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O790" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P790" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63582,11 +63582,11 @@
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T790" t="n">
         <v>14</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E791" t="n">
         <v>7</v>
@@ -63644,16 +63644,16 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>810</v>
+        <v>500</v>
       </c>
       <c r="N791" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O791" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P791" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="T791" t="n">
         <v>14</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63724,32 +63724,32 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N792" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O792" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P792" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="T792" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63800,36 +63800,36 @@
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N793" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O793" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P793" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>444</v>
+        <v>214</v>
       </c>
       <c r="T793" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="794">
@@ -63880,36 +63880,36 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>120</v>
+        <v>810</v>
       </c>
       <c r="N794" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O794" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P794" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="T794" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E795" t="n">
         <v>7</v>
@@ -63960,20 +63960,20 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N795" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O795" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P795" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63982,11 +63982,11 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>1000</v>
+        <v>438</v>
       </c>
       <c r="T795" t="n">
         <v>16</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E796" t="n">
         <v>7</v>
@@ -64044,32 +64044,32 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N796" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O796" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P796" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="T796" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E797" t="n">
         <v>7</v>
@@ -64120,20 +64120,20 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64146,7 +64146,7 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="T797" t="n">
         <v>16</v>
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E798" t="n">
         <v>7</v>
@@ -64204,7 +64204,7 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N798" t="n">
         <v>16000</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E799" t="n">
         <v>7</v>
@@ -64287,13 +64287,13 @@
         <v>500</v>
       </c>
       <c r="N799" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O799" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P799" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64302,11 +64302,11 @@
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="T799" t="n">
         <v>14</v>
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E800" t="n">
         <v>7</v>
@@ -64364,16 +64364,16 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N800" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O800" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P800" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64386,7 +64386,7 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>1062</v>
+        <v>219</v>
       </c>
       <c r="T800" t="n">
         <v>16</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E801" t="n">
         <v>7</v>
@@ -64444,16 +64444,16 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="N801" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O801" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P801" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T801" t="n">
         <v>16</v>
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E802" t="n">
         <v>7</v>
@@ -64520,24 +64520,24 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N802" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O802" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P802" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1125</v>
+        <v>286</v>
       </c>
       <c r="T802" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="803">
@@ -64600,20 +64600,20 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N803" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O803" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P803" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64622,11 +64622,11 @@
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="T803" t="n">
         <v>16</v>
@@ -64680,20 +64680,20 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="N804" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O804" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P804" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64702,11 +64702,11 @@
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="T804" t="n">
         <v>16</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E805" t="n">
         <v>7</v>
@@ -64760,20 +64760,20 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N805" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O805" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P805" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
@@ -64786,7 +64786,7 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T805" t="n">
         <v>16</v>
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E806" t="n">
         <v>7</v>
@@ -64840,20 +64840,20 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N806" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O806" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P806" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64862,11 +64862,11 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>438</v>
+        <v>1125</v>
       </c>
       <c r="T806" t="n">
         <v>16</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E807" t="n">
         <v>7</v>
@@ -64920,36 +64920,36 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N807" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O807" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P807" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>429</v>
+        <v>1000</v>
       </c>
       <c r="T807" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E808" t="n">
         <v>7</v>
@@ -65004,16 +65004,16 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N808" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O808" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P808" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65026,7 +65026,7 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T808" t="n">
         <v>16</v>
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E809" t="n">
         <v>7</v>
@@ -65080,24 +65080,24 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N809" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O809" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P809" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="T809" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E810" t="n">
         <v>7</v>
@@ -65167,29 +65167,29 @@
         <v>350</v>
       </c>
       <c r="N810" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O810" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P810" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>812</v>
+        <v>429</v>
       </c>
       <c r="T810" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E811" t="n">
         <v>7</v>
@@ -65240,36 +65240,36 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="N811" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O811" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P811" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>786</v>
+        <v>438</v>
       </c>
       <c r="T811" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="812">
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E812" t="n">
         <v>7</v>
@@ -65324,32 +65324,32 @@
         </is>
       </c>
       <c r="M812" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N812" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O812" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P812" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>250</v>
+        <v>444</v>
       </c>
       <c r="T812" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="813">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E813" t="n">
         <v>7</v>
@@ -65404,16 +65404,16 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N813" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O813" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P813" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65422,11 +65422,11 @@
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>250</v>
+        <v>812</v>
       </c>
       <c r="T813" t="n">
         <v>16</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E814" t="n">
         <v>7</v>
@@ -65480,36 +65480,36 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N814" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O814" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P814" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>278</v>
+        <v>786</v>
       </c>
       <c r="T814" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="815">
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E815" t="n">
         <v>7</v>
@@ -65564,16 +65564,16 @@
         </is>
       </c>
       <c r="M815" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N815" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O815" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P815" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65582,11 +65582,11 @@
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S815" t="n">
-        <v>714</v>
+        <v>250</v>
       </c>
       <c r="T815" t="n">
         <v>14</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E816" t="n">
         <v>7</v>
@@ -65644,32 +65644,32 @@
         </is>
       </c>
       <c r="M816" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N816" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O816" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P816" t="n">
-        <v>10667</v>
+        <v>4000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>762</v>
+        <v>250</v>
       </c>
       <c r="T816" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E817" t="n">
         <v>7</v>
@@ -65720,36 +65720,36 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N817" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O817" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P817" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S817" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T817" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="818">
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E818" t="n">
         <v>7</v>
@@ -65800,36 +65800,36 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N818" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O818" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P818" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>1125</v>
+        <v>714</v>
       </c>
       <c r="T818" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E819" t="n">
         <v>7</v>
@@ -65884,32 +65884,32 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N819" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O819" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P819" t="n">
-        <v>17000</v>
+        <v>10667</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>1062</v>
+        <v>762</v>
       </c>
       <c r="T819" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="820">
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E820" t="n">
         <v>7</v>
@@ -65960,24 +65960,24 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N820" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O820" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P820" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,10 +65986,10 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1062</v>
+        <v>857</v>
       </c>
       <c r="T820" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E821" t="n">
         <v>7</v>
@@ -66044,16 +66044,16 @@
         </is>
       </c>
       <c r="M821" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N821" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O821" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P821" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66062,11 +66062,11 @@
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="T821" t="n">
         <v>16</v>
@@ -66120,20 +66120,20 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N822" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O822" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P822" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
@@ -66142,11 +66142,11 @@
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T822" t="n">
         <v>16</v>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E823" t="n">
         <v>7</v>
@@ -66204,16 +66204,16 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="N823" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O823" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P823" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T823" t="n">
         <v>16</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E824" t="n">
         <v>7</v>
@@ -66280,36 +66280,36 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N824" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O824" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P824" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>786</v>
+        <v>1062</v>
       </c>
       <c r="T824" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E825" t="n">
         <v>7</v>
@@ -66360,20 +66360,20 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N825" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O825" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P825" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
@@ -66386,7 +66386,7 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T825" t="n">
         <v>16</v>
@@ -66440,20 +66440,20 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="N826" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O826" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P826" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
@@ -66466,7 +66466,7 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T826" t="n">
         <v>16</v>
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E827" t="n">
         <v>7</v>
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N827" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="O827" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="P827" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>250</v>
+        <v>786</v>
       </c>
       <c r="T827" t="n">
         <v>14</v>
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E828" t="n">
         <v>7</v>
@@ -66600,20 +66600,20 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N828" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O828" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P828" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
@@ -66622,11 +66622,11 @@
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>281</v>
+        <v>750</v>
       </c>
       <c r="T828" t="n">
         <v>16</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E829" t="n">
         <v>7</v>
@@ -66680,20 +66680,20 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N829" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O829" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P829" t="n">
-        <v>4273</v>
+        <v>9000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>267</v>
+        <v>562</v>
       </c>
       <c r="T829" t="n">
         <v>16</v>
@@ -66760,36 +66760,36 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="N830" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O830" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P830" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S830" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T830" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="831">
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E831" t="n">
         <v>7</v>
@@ -66844,16 +66844,16 @@
         </is>
       </c>
       <c r="M831" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N831" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O831" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P831" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66862,11 +66862,11 @@
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>875</v>
+        <v>281</v>
       </c>
       <c r="T831" t="n">
         <v>16</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E832" t="n">
         <v>7</v>
@@ -66920,36 +66920,36 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N832" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O832" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="P832" t="n">
-        <v>11000</v>
+        <v>4273</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>786</v>
+        <v>267</v>
       </c>
       <c r="T832" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E833" t="n">
         <v>7</v>
@@ -67000,36 +67000,36 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="N833" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O833" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P833" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="T833" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E834" t="n">
         <v>7</v>
@@ -67084,32 +67084,32 @@
         </is>
       </c>
       <c r="M834" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N834" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O834" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="P834" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>393</v>
+        <v>875</v>
       </c>
       <c r="T834" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E835" t="n">
         <v>7</v>
@@ -67160,36 +67160,36 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N835" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O835" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P835" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>389</v>
+        <v>786</v>
       </c>
       <c r="T835" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="836">
@@ -67244,32 +67244,32 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N836" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O836" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P836" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="T836" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="837">
@@ -67320,36 +67320,36 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N837" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O837" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="P837" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="T837" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E838" t="n">
         <v>7</v>
@@ -67400,24 +67400,24 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N838" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O838" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P838" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
@@ -67426,10 +67426,10 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>1250</v>
+        <v>389</v>
       </c>
       <c r="T838" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="839">
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E839" t="n">
         <v>7</v>
@@ -67480,36 +67480,36 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N839" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O839" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P839" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>1071</v>
+        <v>444</v>
       </c>
       <c r="T839" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="840">
@@ -67527,68 +67527,308 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E840" t="n">
+        <v>7</v>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G840" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I840" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J840" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M840" t="n">
+        <v>200</v>
+      </c>
+      <c r="N840" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O840" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P840" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q840" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R840" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S840" t="n">
+        <v>438</v>
+      </c>
+      <c r="T840" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>5</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D841" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E840" t="n">
-        <v>7</v>
-      </c>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G840" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I840" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J840" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L840" t="inlineStr">
+      <c r="E841" t="n">
+        <v>7</v>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G841" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I841" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M841" t="n">
+        <v>800</v>
+      </c>
+      <c r="N841" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O841" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P841" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q841" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S841" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T841" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>5</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E842" t="n">
+        <v>7</v>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G842" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I842" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M842" t="n">
+        <v>200</v>
+      </c>
+      <c r="N842" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O842" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P842" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q842" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R842" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S842" t="n">
+        <v>1071</v>
+      </c>
+      <c r="T842" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>5</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D843" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E843" t="n">
+        <v>7</v>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G843" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I843" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr">
         <is>
           <t>3a plateado</t>
         </is>
       </c>
-      <c r="M840" t="n">
+      <c r="M843" t="n">
         <v>400</v>
       </c>
-      <c r="N840" t="n">
+      <c r="N843" t="n">
         <v>15000</v>
       </c>
-      <c r="O840" t="n">
+      <c r="O843" t="n">
         <v>15000</v>
       </c>
-      <c r="P840" t="n">
+      <c r="P843" t="n">
         <v>15000</v>
       </c>
-      <c r="Q840" t="inlineStr">
+      <c r="Q843" t="inlineStr">
         <is>
           <t>$/malla 14 kilos</t>
         </is>
       </c>
-      <c r="R840" t="inlineStr">
+      <c r="R843" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S840" t="n">
+      <c r="S843" t="n">
         <v>1071</v>
       </c>
-      <c r="T840" t="n">
+      <c r="T843" t="n">
         <v>14</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T874"/>
+  <dimension ref="A1:T877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57484,16 +57484,16 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N714" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O714" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P714" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57502,11 +57502,11 @@
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>929</v>
+        <v>857</v>
       </c>
       <c r="T714" t="n">
         <v>14</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,36 +57560,36 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N715" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O715" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P715" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T715" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44385</v>
+        <v>44543</v>
       </c>
       <c r="E716" t="n">
         <v>7</v>
@@ -57640,36 +57640,36 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N716" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O716" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P716" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>286</v>
+        <v>1000</v>
       </c>
       <c r="T716" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E717" t="n">
         <v>7</v>
@@ -57724,16 +57724,16 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N717" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="O717" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P717" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57742,11 +57742,11 @@
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>250</v>
+        <v>929</v>
       </c>
       <c r="T717" t="n">
         <v>14</v>
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N718" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O718" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P718" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>214</v>
+        <v>857</v>
       </c>
       <c r="T718" t="n">
         <v>14</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="N719" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O719" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P719" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="T719" t="n">
         <v>14</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N720" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O720" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P720" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="T720" t="n">
         <v>14</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E721" t="n">
         <v>7</v>
@@ -58040,24 +58040,24 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N721" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O721" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P721" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>875</v>
+        <v>214</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E722" t="n">
         <v>7</v>
@@ -58120,20 +58120,20 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N722" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O722" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P722" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58142,11 +58142,11 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>786</v>
+        <v>214</v>
       </c>
       <c r="T722" t="n">
         <v>14</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E723" t="n">
         <v>7</v>
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N723" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O723" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P723" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>857</v>
+        <v>143</v>
       </c>
       <c r="T723" t="n">
         <v>14</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E724" t="n">
         <v>7</v>
@@ -58280,7 +58280,7 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
@@ -58302,7 +58302,7 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S724" t="n">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58364,7 +58364,7 @@
         </is>
       </c>
       <c r="M725" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N725" t="n">
         <v>11000</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58440,36 +58440,36 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M726" t="n">
         <v>150</v>
       </c>
       <c r="N726" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O726" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P726" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>625</v>
+        <v>857</v>
       </c>
       <c r="T726" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N727" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O727" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P727" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T727" t="n">
         <v>16</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E728" t="n">
         <v>7</v>
@@ -58600,24 +58600,24 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N728" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O728" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P728" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
@@ -58626,10 +58626,10 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>938</v>
+        <v>786</v>
       </c>
       <c r="T728" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E729" t="n">
         <v>7</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N729" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O729" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T729" t="n">
         <v>16</v>
@@ -58760,20 +58760,20 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N730" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O730" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P730" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T730" t="n">
         <v>16</v>
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="N731" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O731" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P731" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T731" t="n">
         <v>16</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E732" t="n">
         <v>7</v>
@@ -58920,24 +58920,24 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="N732" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O732" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P732" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
@@ -58946,10 +58946,10 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>857</v>
+        <v>1000</v>
       </c>
       <c r="T732" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E733" t="n">
         <v>7</v>
@@ -59000,11 +59000,11 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N733" t="n">
         <v>12000</v>
@@ -59017,19 +59017,19 @@
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>857</v>
+        <v>750</v>
       </c>
       <c r="T733" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E734" t="n">
         <v>7</v>
@@ -59080,36 +59080,36 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N734" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O734" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P734" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>929</v>
+        <v>500</v>
       </c>
       <c r="T734" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="735">
@@ -59160,36 +59160,36 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>880</v>
+        <v>180</v>
       </c>
       <c r="N735" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O735" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P735" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="T735" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="736">
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N736" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O736" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P736" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="T736" t="n">
         <v>14</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E737" t="n">
         <v>7</v>
@@ -59320,36 +59320,36 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N737" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O737" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P737" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>312</v>
+        <v>929</v>
       </c>
       <c r="T737" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E738" t="n">
         <v>7</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>200</v>
+        <v>880</v>
       </c>
       <c r="N738" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O738" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>375</v>
+        <v>812</v>
       </c>
       <c r="T738" t="n">
         <v>16</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E739" t="n">
         <v>7</v>
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>375</v>
+        <v>786</v>
       </c>
       <c r="T739" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E740" t="n">
         <v>7</v>
@@ -59567,29 +59567,29 @@
         <v>360</v>
       </c>
       <c r="N740" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O740" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P740" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="T740" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E741" t="n">
         <v>7</v>
@@ -59644,32 +59644,32 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N741" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O741" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P741" t="n">
-        <v>3909</v>
+        <v>6000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="T741" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E742" t="n">
         <v>7</v>
@@ -59720,24 +59720,24 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="N742" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O742" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P742" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
@@ -59746,10 +59746,10 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="T742" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E743" t="n">
         <v>7</v>
@@ -59804,20 +59804,20 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N743" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O743" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P743" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
@@ -59826,10 +59826,10 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E744" t="n">
         <v>7</v>
@@ -59880,36 +59880,36 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N744" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O744" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P744" t="n">
-        <v>8000</v>
+        <v>3909</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="T744" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44350</v>
+        <v>44446</v>
       </c>
       <c r="E745" t="n">
         <v>7</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N745" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O745" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P745" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>357</v>
+        <v>179</v>
       </c>
       <c r="T745" t="n">
         <v>14</v>
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N746" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O746" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P746" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="T746" t="n">
         <v>16</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E747" t="n">
         <v>7</v>
@@ -60120,36 +60120,36 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M747" t="n">
         <v>300</v>
       </c>
       <c r="N747" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O747" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P747" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="T747" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E748" t="n">
         <v>7</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="N748" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O748" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P748" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="T748" t="n">
         <v>14</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E749" t="n">
         <v>7</v>
@@ -60280,36 +60280,36 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="N749" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O749" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P749" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>500</v>
+        <v>312</v>
       </c>
       <c r="T749" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="750">
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N750" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O750" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P750" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="T750" t="n">
         <v>14</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E751" t="n">
         <v>7</v>
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="N751" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O751" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P751" t="n">
-        <v>3333</v>
+        <v>6000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>238</v>
+        <v>429</v>
       </c>
       <c r="T751" t="n">
         <v>14</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E752" t="n">
         <v>7</v>
@@ -60520,36 +60520,36 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N752" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O752" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P752" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="T752" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E753" t="n">
         <v>7</v>
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N753" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O753" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P753" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>188</v>
+        <v>500</v>
       </c>
       <c r="T753" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="754">
@@ -60680,36 +60680,36 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="N754" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O754" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P754" t="n">
-        <v>2500</v>
+        <v>3333</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="T754" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E755" t="n">
         <v>7</v>
@@ -60764,32 +60764,32 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N755" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O755" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P755" t="n">
-        <v>3188</v>
+        <v>4000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="T755" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E756" t="n">
         <v>7</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N756" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O756" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P756" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60862,11 +60862,11 @@
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="T756" t="n">
         <v>16</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E757" t="n">
         <v>7</v>
@@ -60924,32 +60924,32 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N757" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="O757" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="P757" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="T757" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E758" t="n">
         <v>7</v>
@@ -61000,36 +61000,36 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N758" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O758" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P758" t="n">
-        <v>16000</v>
+        <v>3188</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1000</v>
+        <v>228</v>
       </c>
       <c r="T758" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E759" t="n">
         <v>7</v>
@@ -61084,32 +61084,32 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N759" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O759" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P759" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>1214</v>
+        <v>312</v>
       </c>
       <c r="T759" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E760" t="n">
         <v>7</v>
@@ -61160,36 +61160,36 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N760" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O760" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="P760" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1062</v>
+        <v>143</v>
       </c>
       <c r="T760" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E761" t="n">
         <v>7</v>
@@ -61240,36 +61240,36 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N761" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O761" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P761" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T761" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E762" t="n">
         <v>7</v>
@@ -61324,32 +61324,32 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="N762" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="O762" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="P762" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>312</v>
+        <v>1214</v>
       </c>
       <c r="T762" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E763" t="n">
         <v>7</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N763" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O763" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P763" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>219</v>
+        <v>1062</v>
       </c>
       <c r="T763" t="n">
         <v>16</v>
@@ -61484,20 +61484,20 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N764" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O764" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P764" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,10 +61506,10 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="T764" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="765">
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N765" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O765" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P765" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="T765" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="766">
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N766" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O766" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P766" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="T766" t="n">
         <v>16</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E767" t="n">
         <v>7</v>
@@ -61724,32 +61724,32 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N767" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O767" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P767" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>714</v>
+        <v>312</v>
       </c>
       <c r="T767" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E768" t="n">
         <v>7</v>
@@ -61800,20 +61800,20 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N768" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O768" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P768" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61822,11 +61822,11 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>857</v>
+        <v>179</v>
       </c>
       <c r="T768" t="n">
         <v>14</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E769" t="n">
         <v>7</v>
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="N769" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="O769" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="P769" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>688</v>
+        <v>125</v>
       </c>
       <c r="T769" t="n">
         <v>16</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E770" t="n">
         <v>7</v>
@@ -61964,20 +61964,20 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N770" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O770" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P770" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
@@ -61986,10 +61986,10 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1062</v>
+        <v>714</v>
       </c>
       <c r="T770" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E771" t="n">
         <v>7</v>
@@ -62044,20 +62044,20 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N771" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O771" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P771" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
@@ -62066,10 +62066,10 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1250</v>
+        <v>857</v>
       </c>
       <c r="T771" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E772" t="n">
         <v>7</v>
@@ -62124,16 +62124,16 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>210</v>
+        <v>700</v>
       </c>
       <c r="N772" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O772" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P772" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1375</v>
+        <v>688</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E773" t="n">
         <v>7</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N773" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O773" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P773" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T773" t="n">
         <v>16</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E774" t="n">
         <v>7</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E775" t="n">
         <v>7</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N775" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O775" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P775" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>938</v>
+        <v>1375</v>
       </c>
       <c r="T775" t="n">
         <v>16</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E776" t="n">
         <v>7</v>
@@ -62440,36 +62440,36 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N776" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O776" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P776" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>278</v>
+        <v>1250</v>
       </c>
       <c r="T776" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E777" t="n">
         <v>7</v>
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N777" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O777" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P777" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>786</v>
+        <v>1250</v>
       </c>
       <c r="T777" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E778" t="n">
         <v>7</v>
@@ -62600,36 +62600,36 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="N778" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O778" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P778" t="n">
-        <v>12200</v>
+        <v>15000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>871</v>
+        <v>938</v>
       </c>
       <c r="T778" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E779" t="n">
         <v>7</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>857</v>
+        <v>278</v>
       </c>
       <c r="T779" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E780" t="n">
         <v>7</v>
@@ -62764,16 +62764,16 @@
         </is>
       </c>
       <c r="M780" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N780" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O780" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P780" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>1214</v>
+        <v>786</v>
       </c>
       <c r="T780" t="n">
         <v>14</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E781" t="n">
         <v>7</v>
@@ -62840,36 +62840,36 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N781" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O781" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P781" t="n">
-        <v>17000</v>
+        <v>12200</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>1062</v>
+        <v>871</v>
       </c>
       <c r="T781" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E782" t="n">
         <v>7</v>
@@ -62924,32 +62924,32 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N782" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O782" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P782" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>1125</v>
+        <v>857</v>
       </c>
       <c r="T782" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="783">
@@ -63000,36 +63000,36 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N783" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O783" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P783" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>1125</v>
+        <v>1214</v>
       </c>
       <c r="T783" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E784" t="n">
         <v>7</v>
@@ -63084,16 +63084,16 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N784" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O784" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P784" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63106,7 +63106,7 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T784" t="n">
         <v>16</v>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E785" t="n">
         <v>7</v>
@@ -63167,13 +63167,13 @@
         <v>300</v>
       </c>
       <c r="N785" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O785" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P785" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T785" t="n">
         <v>16</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E786" t="n">
         <v>7</v>
@@ -63244,16 +63244,16 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="N786" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O786" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P786" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T786" t="n">
         <v>16</v>
@@ -63320,36 +63320,36 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
         <v>350</v>
       </c>
       <c r="N787" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O787" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P787" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="T787" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="788">
@@ -63400,20 +63400,20 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N788" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O788" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P788" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63422,11 +63422,11 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T788" t="n">
         <v>16</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E789" t="n">
         <v>7</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N789" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O789" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P789" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="T789" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E790" t="n">
         <v>7</v>
@@ -63560,36 +63560,36 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N790" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O790" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P790" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>250</v>
+        <v>857</v>
       </c>
       <c r="T790" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E791" t="n">
         <v>7</v>
@@ -63640,36 +63640,36 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N791" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O791" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P791" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="T791" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E792" t="n">
         <v>7</v>
@@ -63727,13 +63727,13 @@
         <v>500</v>
       </c>
       <c r="N792" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O792" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P792" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="T792" t="n">
         <v>14</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E793" t="n">
         <v>7</v>
@@ -63804,7 +63804,7 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N793" t="n">
         <v>4000</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E794" t="n">
         <v>7</v>
@@ -63884,32 +63884,32 @@
         </is>
       </c>
       <c r="M794" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N794" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O794" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P794" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>562</v>
+        <v>278</v>
       </c>
       <c r="T794" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E795" t="n">
         <v>7</v>
@@ -63960,36 +63960,36 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N795" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O795" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P795" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>438</v>
+        <v>214</v>
       </c>
       <c r="T795" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E796" t="n">
         <v>7</v>
@@ -64044,32 +64044,32 @@
         </is>
       </c>
       <c r="M796" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="N796" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O796" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P796" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>1143</v>
+        <v>250</v>
       </c>
       <c r="T796" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E797" t="n">
         <v>7</v>
@@ -64127,13 +64127,13 @@
         <v>300</v>
       </c>
       <c r="N797" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O797" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P797" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64146,7 +64146,7 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>1062</v>
+        <v>562</v>
       </c>
       <c r="T797" t="n">
         <v>16</v>
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E798" t="n">
         <v>7</v>
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N798" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O798" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P798" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>1062</v>
+        <v>438</v>
       </c>
       <c r="T798" t="n">
         <v>16</v>
@@ -64280,36 +64280,36 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="N799" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O799" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P799" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>1062</v>
+        <v>1143</v>
       </c>
       <c r="T799" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="800">
@@ -64360,20 +64360,20 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N800" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O800" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P800" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64382,11 +64382,11 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T800" t="n">
         <v>16</v>
@@ -64440,20 +64440,20 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="N801" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O801" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P801" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T801" t="n">
         <v>16</v>
@@ -64520,20 +64520,20 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="N802" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O802" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P802" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T802" t="n">
         <v>16</v>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E803" t="n">
         <v>7</v>
@@ -64600,20 +64600,20 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="N803" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O803" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P803" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64622,11 +64622,11 @@
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T803" t="n">
         <v>16</v>
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E804" t="n">
         <v>7</v>
@@ -64680,20 +64680,20 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N804" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O804" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P804" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="T804" t="n">
         <v>16</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44452</v>
+        <v>44224</v>
       </c>
       <c r="E805" t="n">
         <v>7</v>
@@ -64760,36 +64760,36 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="N805" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O805" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P805" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="T805" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E806" t="n">
         <v>7</v>
@@ -64840,36 +64840,36 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N806" t="n">
-        <v>2500</v>
+        <v>13000</v>
       </c>
       <c r="O806" t="n">
-        <v>2500</v>
+        <v>13000</v>
       </c>
       <c r="P806" t="n">
-        <v>2500</v>
+        <v>13000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>179</v>
+        <v>812</v>
       </c>
       <c r="T806" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="807">
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E807" t="n">
         <v>7</v>
@@ -64920,36 +64920,36 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N807" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O807" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P807" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>1143</v>
+        <v>688</v>
       </c>
       <c r="T807" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E808" t="n">
         <v>7</v>
@@ -65004,32 +65004,32 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N808" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="O808" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P808" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1062</v>
+        <v>250</v>
       </c>
       <c r="T808" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E809" t="n">
         <v>7</v>
@@ -65080,20 +65080,20 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N809" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="O809" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="P809" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>1214</v>
+        <v>179</v>
       </c>
       <c r="T809" t="n">
         <v>14</v>
@@ -65160,36 +65160,36 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N810" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O810" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P810" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="T810" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="811">
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M811" t="n">
         <v>200</v>
       </c>
       <c r="N811" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O811" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P811" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65262,11 +65262,11 @@
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>938</v>
+        <v>1062</v>
       </c>
       <c r="T811" t="n">
         <v>16</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E812" t="n">
         <v>7</v>
@@ -65324,32 +65324,32 @@
         </is>
       </c>
       <c r="M812" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="N812" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O812" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P812" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="T812" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="813">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E813" t="n">
         <v>7</v>
@@ -65404,16 +65404,16 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="N813" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O813" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P813" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T813" t="n">
         <v>16</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E814" t="n">
         <v>7</v>
@@ -65480,20 +65480,20 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N814" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O814" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P814" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65502,11 +65502,11 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T814" t="n">
         <v>16</v>
@@ -65560,20 +65560,20 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="N815" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O815" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P815" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65582,11 +65582,11 @@
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S815" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T815" t="n">
         <v>16</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E816" t="n">
         <v>7</v>
@@ -65640,36 +65640,36 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N816" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O816" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P816" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>286</v>
+        <v>1250</v>
       </c>
       <c r="T816" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E817" t="n">
         <v>7</v>
@@ -65720,20 +65720,20 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N817" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O817" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P817" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
@@ -65742,11 +65742,11 @@
       </c>
       <c r="R817" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S817" t="n">
-        <v>375</v>
+        <v>1250</v>
       </c>
       <c r="T817" t="n">
         <v>16</v>
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E818" t="n">
         <v>7</v>
@@ -65800,36 +65800,36 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N818" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="O818" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P818" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T818" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E819" t="n">
         <v>7</v>
@@ -65884,32 +65884,32 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="N819" t="n">
         <v>4000</v>
       </c>
       <c r="O819" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P819" t="n">
-        <v>4321</v>
+        <v>4000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="T819" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="820">
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E820" t="n">
         <v>7</v>
@@ -65960,36 +65960,36 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N820" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O820" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P820" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="T820" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E821" t="n">
         <v>7</v>
@@ -66044,16 +66044,16 @@
         </is>
       </c>
       <c r="M821" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N821" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="O821" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P821" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="T821" t="n">
         <v>14</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E822" t="n">
         <v>7</v>
@@ -66120,36 +66120,36 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="N822" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O822" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P822" t="n">
-        <v>8000</v>
+        <v>4321</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>571</v>
+        <v>270</v>
       </c>
       <c r="T822" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="823">
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44302</v>
+        <v>44398</v>
       </c>
       <c r="E823" t="n">
         <v>7</v>
@@ -66200,20 +66200,20 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="N823" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O823" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="P823" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>786</v>
+        <v>179</v>
       </c>
       <c r="T823" t="n">
         <v>14</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E824" t="n">
         <v>7</v>
@@ -66280,36 +66280,36 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N824" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O824" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P824" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T824" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E825" t="n">
         <v>7</v>
@@ -66364,32 +66364,32 @@
         </is>
       </c>
       <c r="M825" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N825" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O825" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P825" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>875</v>
+        <v>571</v>
       </c>
       <c r="T825" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="826">
@@ -66440,20 +66440,20 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="N826" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O826" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P826" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
@@ -66466,7 +66466,7 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>857</v>
+        <v>786</v>
       </c>
       <c r="T826" t="n">
         <v>14</v>
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N827" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O827" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P827" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66542,11 +66542,11 @@
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S827" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T827" t="n">
         <v>16</v>
@@ -66600,20 +66600,20 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N828" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O828" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P828" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
@@ -66626,7 +66626,7 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>438</v>
+        <v>875</v>
       </c>
       <c r="T828" t="n">
         <v>16</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E829" t="n">
         <v>7</v>
@@ -66680,20 +66680,20 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N829" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O829" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P829" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66702,11 +66702,11 @@
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>429</v>
+        <v>857</v>
       </c>
       <c r="T829" t="n">
         <v>14</v>
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E830" t="n">
         <v>7</v>
@@ -66760,36 +66760,36 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N830" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="O830" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="P830" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S830" t="n">
-        <v>393</v>
+        <v>750</v>
       </c>
       <c r="T830" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="831">
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E831" t="n">
         <v>7</v>
@@ -66840,11 +66840,11 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N831" t="n">
         <v>7000</v>
@@ -66857,19 +66857,19 @@
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="T831" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="832">
@@ -66924,32 +66924,32 @@
         </is>
       </c>
       <c r="M832" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N832" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O832" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P832" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="T832" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="833">
@@ -67000,20 +67000,20 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N833" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="O833" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P833" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67026,7 +67026,7 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="T833" t="n">
         <v>14</v>
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E834" t="n">
         <v>7</v>
@@ -67080,24 +67080,24 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N834" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O834" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P834" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
@@ -67106,10 +67106,10 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>1000</v>
+        <v>389</v>
       </c>
       <c r="T834" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44344</v>
+        <v>44511</v>
       </c>
       <c r="E835" t="n">
         <v>7</v>
@@ -67164,7 +67164,7 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N835" t="n">
         <v>8000</v>
@@ -67177,19 +67177,19 @@
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="T835" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="836">
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44344</v>
+        <v>44511</v>
       </c>
       <c r="E836" t="n">
         <v>7</v>
@@ -67240,36 +67240,36 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N836" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O836" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P836" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="T836" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E837" t="n">
         <v>7</v>
@@ -67320,36 +67320,36 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="N837" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O837" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P837" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>429</v>
+        <v>1000</v>
       </c>
       <c r="T837" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="838">
@@ -67400,20 +67400,20 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N838" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O838" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P838" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67422,11 +67422,11 @@
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="T838" t="n">
         <v>14</v>
@@ -67480,20 +67480,20 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="N839" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O839" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P839" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
@@ -67506,7 +67506,7 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T839" t="n">
         <v>16</v>
@@ -67560,20 +67560,20 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N840" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O840" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P840" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
@@ -67586,7 +67586,7 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="T840" t="n">
         <v>14</v>
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E841" t="n">
         <v>7</v>
@@ -67640,20 +67640,20 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M841" t="n">
         <v>350</v>
       </c>
       <c r="N841" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O841" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P841" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
@@ -67662,11 +67662,11 @@
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="T841" t="n">
         <v>14</v>
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E842" t="n">
         <v>7</v>
@@ -67720,36 +67720,36 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
       <c r="N842" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O842" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P842" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="T842" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="843">
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E843" t="n">
         <v>7</v>
@@ -67800,11 +67800,11 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N843" t="n">
         <v>5000</v>
@@ -67817,19 +67817,19 @@
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S843" t="n">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="T843" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="844">
@@ -67880,20 +67880,20 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N844" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O844" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P844" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
@@ -67902,11 +67902,11 @@
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="T844" t="n">
         <v>14</v>
@@ -67960,20 +67960,20 @@
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N845" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O845" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P845" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
@@ -67982,11 +67982,11 @@
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="T845" t="n">
         <v>14</v>
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E846" t="n">
         <v>7</v>
@@ -68044,7 +68044,7 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N846" t="n">
         <v>5000</v>
@@ -68057,19 +68057,19 @@
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="T846" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="847">
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E847" t="n">
         <v>7</v>
@@ -68120,20 +68120,20 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N847" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O847" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P847" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
@@ -68142,11 +68142,11 @@
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="T847" t="n">
         <v>14</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E848" t="n">
         <v>7</v>
@@ -68200,20 +68200,20 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>940</v>
+        <v>200</v>
       </c>
       <c r="N848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68222,11 +68222,11 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>357</v>
+        <v>214</v>
       </c>
       <c r="T848" t="n">
         <v>14</v>
@@ -68280,20 +68280,20 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N849" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O849" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P849" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
@@ -68302,11 +68302,11 @@
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="T849" t="n">
         <v>14</v>
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E850" t="n">
         <v>7</v>
@@ -68367,29 +68367,29 @@
         <v>360</v>
       </c>
       <c r="N850" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O850" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P850" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="T850" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="851">
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E851" t="n">
         <v>7</v>
@@ -68440,11 +68440,11 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>530</v>
+        <v>940</v>
       </c>
       <c r="N851" t="n">
         <v>5000</v>
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E852" t="n">
         <v>7</v>
@@ -68524,32 +68524,32 @@
         </is>
       </c>
       <c r="M852" t="n">
+        <v>300</v>
+      </c>
+      <c r="N852" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O852" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P852" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q852" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R852" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S852" t="n">
         <v>250</v>
       </c>
-      <c r="N852" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O852" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P852" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q852" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R852" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S852" t="n">
-        <v>312</v>
-      </c>
       <c r="T852" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="853">
@@ -68600,20 +68600,20 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N853" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O853" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P853" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
@@ -68626,7 +68626,7 @@
         </is>
       </c>
       <c r="S853" t="n">
-        <v>188</v>
+        <v>438</v>
       </c>
       <c r="T853" t="n">
         <v>16</v>
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E854" t="n">
         <v>7</v>
@@ -68680,20 +68680,20 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="N854" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O854" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P854" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
@@ -68706,7 +68706,7 @@
         </is>
       </c>
       <c r="S854" t="n">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="T854" t="n">
         <v>14</v>
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E855" t="n">
         <v>7</v>
@@ -68760,20 +68760,20 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="N855" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O855" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P855" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
@@ -68782,11 +68782,11 @@
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="T855" t="n">
         <v>16</v>
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E856" t="n">
         <v>7</v>
@@ -68840,36 +68840,36 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N856" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O856" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P856" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>321</v>
+        <v>188</v>
       </c>
       <c r="T856" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="857">
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E857" t="n">
         <v>7</v>
@@ -68920,20 +68920,20 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N857" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O857" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P857" t="n">
-        <v>2679</v>
+        <v>4000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
@@ -68946,7 +68946,7 @@
         </is>
       </c>
       <c r="S857" t="n">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="T857" t="n">
         <v>14</v>
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E858" t="n">
         <v>7</v>
@@ -69004,20 +69004,20 @@
         </is>
       </c>
       <c r="M858" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="N858" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O858" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P858" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
@@ -69026,10 +69026,10 @@
         </is>
       </c>
       <c r="S858" t="n">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="T858" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="859">
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E859" t="n">
         <v>7</v>
@@ -69084,16 +69084,16 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="N859" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="O859" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P859" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
@@ -69106,7 +69106,7 @@
         </is>
       </c>
       <c r="S859" t="n">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="T859" t="n">
         <v>14</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E860" t="n">
         <v>7</v>
@@ -69160,36 +69160,36 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N860" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="O860" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="P860" t="n">
-        <v>18000</v>
+        <v>2679</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>1125</v>
+        <v>191</v>
       </c>
       <c r="T860" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E861" t="n">
         <v>7</v>
@@ -69244,16 +69244,16 @@
         </is>
       </c>
       <c r="M861" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N861" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O861" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P861" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69262,11 +69262,11 @@
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>1000</v>
+        <v>286</v>
       </c>
       <c r="T861" t="n">
         <v>14</v>
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E862" t="n">
         <v>7</v>
@@ -69324,32 +69324,32 @@
         </is>
       </c>
       <c r="M862" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N862" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O862" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P862" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>938</v>
+        <v>286</v>
       </c>
       <c r="T862" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E863" t="n">
         <v>7</v>
@@ -69400,36 +69400,36 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M863" t="n">
         <v>500</v>
       </c>
       <c r="N863" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O863" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P863" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>857</v>
+        <v>1125</v>
       </c>
       <c r="T863" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E864" t="n">
         <v>7</v>
@@ -69484,16 +69484,16 @@
         </is>
       </c>
       <c r="M864" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="N864" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O864" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P864" t="n">
-        <v>5679</v>
+        <v>14000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
@@ -69506,7 +69506,7 @@
         </is>
       </c>
       <c r="S864" t="n">
-        <v>406</v>
+        <v>1000</v>
       </c>
       <c r="T864" t="n">
         <v>14</v>
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E865" t="n">
         <v>7</v>
@@ -69564,20 +69564,20 @@
         </is>
       </c>
       <c r="M865" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N865" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O865" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P865" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
@@ -69586,10 +69586,10 @@
         </is>
       </c>
       <c r="S865" t="n">
-        <v>389</v>
+        <v>938</v>
       </c>
       <c r="T865" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="866">
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E866" t="n">
         <v>7</v>
@@ -69640,20 +69640,20 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="N866" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O866" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P866" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69662,11 +69662,11 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>429</v>
+        <v>857</v>
       </c>
       <c r="T866" t="n">
         <v>14</v>
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E867" t="n">
         <v>7</v>
@@ -69724,16 +69724,16 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="N867" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="O867" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P867" t="n">
-        <v>8000</v>
+        <v>5679</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69746,7 +69746,7 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>571</v>
+        <v>406</v>
       </c>
       <c r="T867" t="n">
         <v>14</v>
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E868" t="n">
         <v>7</v>
@@ -69804,16 +69804,16 @@
         </is>
       </c>
       <c r="M868" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N868" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O868" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P868" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69822,11 +69822,11 @@
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="T868" t="n">
         <v>18</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E869" t="n">
         <v>7</v>
@@ -69884,16 +69884,16 @@
         </is>
       </c>
       <c r="M869" t="n">
-        <v>230</v>
+        <v>850</v>
       </c>
       <c r="N869" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O869" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P869" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69902,11 +69902,11 @@
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>714</v>
+        <v>429</v>
       </c>
       <c r="T869" t="n">
         <v>14</v>
@@ -69960,36 +69960,36 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N870" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O870" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P870" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>778</v>
+        <v>571</v>
       </c>
       <c r="T870" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="871">
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E871" t="n">
         <v>7</v>
@@ -70044,32 +70044,32 @@
         </is>
       </c>
       <c r="M871" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N871" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O871" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P871" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>1143</v>
+        <v>667</v>
       </c>
       <c r="T871" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E872" t="n">
         <v>7</v>
@@ -70124,32 +70124,32 @@
         </is>
       </c>
       <c r="M872" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="N872" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O872" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P872" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>1125</v>
+        <v>714</v>
       </c>
       <c r="T872" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="873">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E873" t="n">
         <v>7</v>
@@ -70204,32 +70204,32 @@
         </is>
       </c>
       <c r="M873" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N873" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O873" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P873" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>1125</v>
+        <v>778</v>
       </c>
       <c r="T873" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="874">
@@ -70280,35 +70280,275 @@
       </c>
       <c r="L874" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M874" t="n">
+        <v>300</v>
+      </c>
+      <c r="N874" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O874" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P874" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q874" t="inlineStr">
+        <is>
+          <t>$/malla 14 kilos</t>
+        </is>
+      </c>
+      <c r="R874" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S874" t="n">
+        <v>1143</v>
+      </c>
+      <c r="T874" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>5</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D875" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E875" t="n">
+        <v>7</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G875" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I875" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M875" t="n">
+        <v>320</v>
+      </c>
+      <c r="N875" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O875" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P875" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q875" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R875" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S875" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T875" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>5</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E876" t="n">
+        <v>7</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G876" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I876" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M876" t="n">
+        <v>300</v>
+      </c>
+      <c r="N876" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O876" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P876" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q876" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R876" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S876" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T876" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>5</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D877" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E877" t="n">
+        <v>7</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G877" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I877" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M874" t="n">
+      <c r="M877" t="n">
         <v>160</v>
       </c>
-      <c r="N874" t="n">
+      <c r="N877" t="n">
         <v>10000</v>
       </c>
-      <c r="O874" t="n">
+      <c r="O877" t="n">
         <v>10000</v>
       </c>
-      <c r="P874" t="n">
+      <c r="P877" t="n">
         <v>10000</v>
       </c>
-      <c r="Q874" t="inlineStr">
+      <c r="Q877" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
         </is>
       </c>
-      <c r="R874" t="inlineStr">
+      <c r="R877" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S874" t="n">
+      <c r="S877" t="n">
         <v>625</v>
       </c>
-      <c r="T874" t="n">
+      <c r="T877" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T893"/>
+  <dimension ref="A1:T896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E709" t="n">
         <v>7</v>
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N709" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="O709" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P709" t="n">
-        <v>3833</v>
+        <v>13000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>274</v>
+        <v>929</v>
       </c>
       <c r="T709" t="n">
         <v>14</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E710" t="n">
         <v>7</v>
@@ -57164,16 +57164,16 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N710" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O710" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P710" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>250</v>
+        <v>938</v>
       </c>
       <c r="T710" t="n">
         <v>16</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E711" t="n">
         <v>7</v>
@@ -57240,20 +57240,20 @@
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="N711" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O711" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="P711" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57266,7 +57266,7 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>214</v>
+        <v>1000</v>
       </c>
       <c r="T711" t="n">
         <v>14</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N712" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O712" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P712" t="n">
-        <v>3000</v>
+        <v>3833</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="T712" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E713" t="n">
         <v>7</v>
@@ -57404,32 +57404,32 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N713" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O713" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P713" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>429</v>
+        <v>250</v>
       </c>
       <c r="T713" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E714" t="n">
         <v>7</v>
@@ -57480,20 +57480,20 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="N714" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O714" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P714" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>429</v>
+        <v>214</v>
       </c>
       <c r="T714" t="n">
         <v>14</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E715" t="n">
         <v>7</v>
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N715" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O715" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P715" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="T715" t="n">
         <v>16</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N716" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O716" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P716" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57662,11 +57662,11 @@
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>214</v>
+        <v>429</v>
       </c>
       <c r="T716" t="n">
         <v>14</v>
@@ -57720,36 +57720,36 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="N717" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O717" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P717" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>250</v>
+        <v>429</v>
       </c>
       <c r="T717" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E718" t="n">
         <v>7</v>
@@ -57804,20 +57804,20 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="N718" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O718" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="P718" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
@@ -57826,10 +57826,10 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>222</v>
+        <v>438</v>
       </c>
       <c r="T718" t="n">
-        <v>450</v>
+        <v>16</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E719" t="n">
         <v>7</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N719" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O719" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P719" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57902,11 +57902,11 @@
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T719" t="n">
         <v>14</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E720" t="n">
         <v>7</v>
@@ -57960,36 +57960,36 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N720" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O720" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P720" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="T720" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="721">
@@ -58044,20 +58044,20 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="N721" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="O721" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="P721" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="T721" t="n">
-        <v>16</v>
+        <v>450</v>
       </c>
     </row>
     <row r="722">
@@ -58120,36 +58120,36 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N722" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O722" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P722" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 14 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="T722" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="723">
@@ -58200,20 +58200,20 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="N723" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O723" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P723" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="T723" t="n">
         <v>14</v>
@@ -58280,20 +58280,20 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N724" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O724" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="P724" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="T724" t="n">
         <v>16</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E725" t="n">
         <v>7</v>
@@ -58360,24 +58360,24 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="N725" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O725" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P725" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 14 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,10 +58386,10 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="T725" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E726" t="n">
         <v>7</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N726" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O726" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="P726" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58462,11 +58462,11 @@
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="T726" t="n">
         <v>14</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44414</v>
+        <v>44420</v>
       </c>
       <c r="E727" t="n">
         <v>7</v>
@@ -58520,20 +58520,20 @@
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M727" t="n">
